--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
   <si>
     <t xml:space="preserve">Film Library Metadata</t>
   </si>
@@ -216,6 +216,36 @@
 (list of choice)</t>
   </si>
   <si>
+    <t xml:space="preserve">Promo reel link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailer link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theatrical release ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image bannière (rectangulaire) link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Agent logo (image URL) link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved territories</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENRES</t>
   </si>
   <si>
@@ -1368,9 +1398,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1466,8 +1496,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,6 +1527,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
         <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00864B"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1569,7 +1612,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,6 +1685,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1698,7 +1749,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00864B"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1751,10 +1802,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X13" activeCellId="0" sqref="X13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AQ13" activeCellId="0" sqref="AQ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1948,6 +1999,36 @@
       </c>
       <c r="AE10" s="15" t="s">
         <v>42</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2000,2550 +2081,2550 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="34.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>47</v>
+      <c r="A1" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>52</v>
+      <c r="A2" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>57</v>
+      <c r="A3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
-        <v>61</v>
+      <c r="A4" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>65</v>
+      <c r="A5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>69</v>
+      <c r="A6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>73</v>
+      <c r="A7" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>77</v>
+      <c r="A8" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>81</v>
+      <c r="A9" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>85</v>
+      <c r="A10" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>89</v>
+      <c r="A11" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>93</v>
+      <c r="A12" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>97</v>
+      <c r="A13" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>101</v>
+      <c r="A14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>105</v>
+      <c r="A15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>109</v>
+      <c r="A16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>113</v>
+      <c r="A17" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>117</v>
+      <c r="A18" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>121</v>
+      <c r="A19" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>124</v>
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>127</v>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>129</v>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24" t="s">
-        <v>131</v>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24" t="s">
-        <v>133</v>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24" t="s">
-        <v>135</v>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24" t="s">
-        <v>137</v>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24" t="s">
-        <v>139</v>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>141</v>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24" t="s">
-        <v>143</v>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24" t="s">
-        <v>145</v>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24" t="s">
-        <v>147</v>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24" t="s">
-        <v>149</v>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24" t="s">
-        <v>151</v>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24" t="s">
-        <v>153</v>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24" t="s">
-        <v>155</v>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24" t="s">
-        <v>157</v>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24" t="s">
-        <v>159</v>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24" t="s">
-        <v>161</v>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24" t="s">
-        <v>163</v>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24" t="s">
-        <v>165</v>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24" t="s">
-        <v>167</v>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24" t="s">
-        <v>169</v>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24" t="s">
-        <v>171</v>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24" t="s">
-        <v>173</v>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24" t="s">
-        <v>175</v>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24" t="s">
-        <v>177</v>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24" t="s">
-        <v>179</v>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24" t="s">
-        <v>181</v>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24" t="s">
-        <v>183</v>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24" t="s">
-        <v>185</v>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24" t="s">
-        <v>187</v>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24" t="s">
-        <v>189</v>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24" t="s">
-        <v>191</v>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24" t="s">
-        <v>193</v>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24" t="s">
-        <v>195</v>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24" t="s">
-        <v>197</v>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24" t="s">
-        <v>199</v>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24" t="s">
-        <v>201</v>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24" t="s">
-        <v>203</v>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24" t="s">
-        <v>205</v>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24" t="s">
-        <v>207</v>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24" t="s">
-        <v>209</v>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24" t="s">
-        <v>211</v>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24" t="s">
-        <v>213</v>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24" t="s">
-        <v>215</v>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24" t="s">
-        <v>217</v>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24" t="s">
-        <v>219</v>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24" t="s">
-        <v>221</v>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24" t="s">
-        <v>223</v>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24" t="s">
-        <v>225</v>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24" t="s">
-        <v>227</v>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24" t="s">
-        <v>229</v>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24" t="s">
-        <v>231</v>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24" t="s">
-        <v>233</v>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24" t="s">
-        <v>235</v>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24" t="s">
-        <v>237</v>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24" t="s">
-        <v>239</v>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24" t="s">
-        <v>241</v>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="24" t="s">
-        <v>243</v>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24" t="s">
-        <v>245</v>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24" t="s">
-        <v>247</v>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24" t="s">
-        <v>249</v>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24" t="s">
-        <v>251</v>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83" s="25"/>
+      <c r="E83" s="26" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D85" s="25"/>
+      <c r="E85" s="26"/>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="D87" s="25"/>
+      <c r="E87" s="26"/>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="25"/>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
+      <c r="A95" s="26"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
     </row>
     <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
+      <c r="A96" s="26"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
+      <c r="A97" s="26"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D97" s="25"/>
+      <c r="E97" s="26"/>
     </row>
     <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
+      <c r="A100" s="26"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
+      <c r="A101" s="26"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
+      <c r="A102" s="26"/>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
+      <c r="A103" s="26"/>
+      <c r="B103" s="26"/>
+      <c r="C103" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D103" s="25"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
+      <c r="A104" s="26"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D104" s="25"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
+      <c r="A105" s="26"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="26" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="25"/>
+      <c r="E105" s="26"/>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
+      <c r="A106" s="26"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
+      <c r="A107" s="26"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
+      <c r="A108" s="26"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D108" s="25"/>
+      <c r="E108" s="26"/>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
+      <c r="A109" s="26"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
+      <c r="A110" s="26"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D110" s="25"/>
+      <c r="E110" s="26"/>
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
+      <c r="A111" s="26"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D111" s="25"/>
+      <c r="E111" s="26"/>
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
+      <c r="A112" s="26"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
+      <c r="A113" s="26"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D113" s="25"/>
+      <c r="E113" s="26"/>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
+      <c r="A114" s="26"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D114" s="25"/>
+      <c r="E114" s="26"/>
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
+      <c r="A115" s="26"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D115" s="25"/>
+      <c r="E115" s="26"/>
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
+      <c r="A116" s="26"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D116" s="25"/>
+      <c r="E116" s="26"/>
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
+      <c r="A117" s="26"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D117" s="25"/>
+      <c r="E117" s="26"/>
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
+      <c r="A118" s="26"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="D118" s="25"/>
+      <c r="E118" s="26"/>
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
+      <c r="A119" s="26"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="D119" s="25"/>
+      <c r="E119" s="26"/>
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="D120" s="25"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="D121" s="25"/>
+      <c r="E121" s="26"/>
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
+      <c r="A122" s="26"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="26"/>
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="D123" s="25"/>
+      <c r="E123" s="26"/>
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
+      <c r="A124" s="26"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="D124" s="25"/>
+      <c r="E124" s="26"/>
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
+      <c r="A125" s="26"/>
+      <c r="B125" s="26"/>
+      <c r="C125" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="D125" s="25"/>
+      <c r="E125" s="26"/>
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24"/>
+      <c r="A126" s="26"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="D126" s="25"/>
+      <c r="E126" s="26"/>
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="24"/>
+      <c r="A127" s="26"/>
+      <c r="B127" s="26"/>
+      <c r="C127" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" s="25"/>
+      <c r="E127" s="26"/>
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
+      <c r="A128" s="26"/>
+      <c r="B128" s="26"/>
+      <c r="C128" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D128" s="25"/>
+      <c r="E128" s="26"/>
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
+      <c r="A129" s="26"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D129" s="25"/>
+      <c r="E129" s="26"/>
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="24"/>
+      <c r="A130" s="26"/>
+      <c r="B130" s="26"/>
+      <c r="C130" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="26"/>
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="24"/>
+      <c r="A131" s="26"/>
+      <c r="B131" s="26"/>
+      <c r="C131" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="D131" s="25"/>
+      <c r="E131" s="26"/>
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D132" s="23"/>
-      <c r="E132" s="24"/>
+      <c r="A132" s="26"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="E132" s="26"/>
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="24"/>
+      <c r="A133" s="26"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="25"/>
+      <c r="E133" s="26"/>
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24"/>
+      <c r="A134" s="26"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="D134" s="25"/>
+      <c r="E134" s="26"/>
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135" s="23"/>
-      <c r="E135" s="24"/>
+      <c r="A135" s="26"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="D135" s="25"/>
+      <c r="E135" s="26"/>
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D136" s="23"/>
-      <c r="E136" s="24"/>
+      <c r="A136" s="26"/>
+      <c r="B136" s="26"/>
+      <c r="C136" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="D136" s="25"/>
+      <c r="E136" s="26"/>
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D137" s="23"/>
-      <c r="E137" s="24"/>
+      <c r="A137" s="26"/>
+      <c r="B137" s="26"/>
+      <c r="C137" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="D137" s="25"/>
+      <c r="E137" s="26"/>
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D138" s="23"/>
-      <c r="E138" s="24"/>
+      <c r="A138" s="26"/>
+      <c r="B138" s="26"/>
+      <c r="C138" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D138" s="25"/>
+      <c r="E138" s="26"/>
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
+      <c r="A139" s="26"/>
+      <c r="B139" s="26"/>
+      <c r="C139" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D139" s="25"/>
+      <c r="E139" s="26"/>
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D140" s="23"/>
-      <c r="E140" s="24"/>
+      <c r="A140" s="26"/>
+      <c r="B140" s="26"/>
+      <c r="C140" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D140" s="25"/>
+      <c r="E140" s="26"/>
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="24"/>
+      <c r="A141" s="26"/>
+      <c r="B141" s="26"/>
+      <c r="C141" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D141" s="25"/>
+      <c r="E141" s="26"/>
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D142" s="23"/>
-      <c r="E142" s="24"/>
+      <c r="A142" s="26"/>
+      <c r="B142" s="26"/>
+      <c r="C142" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="D142" s="25"/>
+      <c r="E142" s="26"/>
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D143" s="23"/>
-      <c r="E143" s="24"/>
+      <c r="A143" s="26"/>
+      <c r="B143" s="26"/>
+      <c r="C143" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="D143" s="25"/>
+      <c r="E143" s="26"/>
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D144" s="23"/>
-      <c r="E144" s="24"/>
+      <c r="A144" s="26"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D144" s="25"/>
+      <c r="E144" s="26"/>
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="D145" s="23"/>
-      <c r="E145" s="24"/>
+      <c r="A145" s="26"/>
+      <c r="B145" s="26"/>
+      <c r="C145" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D145" s="25"/>
+      <c r="E145" s="26"/>
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D146" s="23"/>
-      <c r="E146" s="24"/>
+      <c r="A146" s="26"/>
+      <c r="B146" s="26"/>
+      <c r="C146" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" s="25"/>
+      <c r="E146" s="26"/>
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D147" s="23"/>
-      <c r="E147" s="24"/>
+      <c r="A147" s="26"/>
+      <c r="B147" s="26"/>
+      <c r="C147" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="26"/>
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148" s="23"/>
-      <c r="E148" s="24"/>
+      <c r="A148" s="26"/>
+      <c r="B148" s="26"/>
+      <c r="C148" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D148" s="25"/>
+      <c r="E148" s="26"/>
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="24"/>
+      <c r="A149" s="26"/>
+      <c r="B149" s="26"/>
+      <c r="C149" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D149" s="25"/>
+      <c r="E149" s="26"/>
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="24"/>
+      <c r="A150" s="26"/>
+      <c r="B150" s="26"/>
+      <c r="C150" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D150" s="25"/>
+      <c r="E150" s="26"/>
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="24"/>
+      <c r="A151" s="26"/>
+      <c r="B151" s="26"/>
+      <c r="C151" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D151" s="25"/>
+      <c r="E151" s="26"/>
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
+      <c r="A152" s="26"/>
+      <c r="B152" s="26"/>
+      <c r="C152" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="D152" s="25"/>
+      <c r="E152" s="26"/>
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D153" s="23"/>
-      <c r="E153" s="24"/>
+      <c r="A153" s="26"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D153" s="25"/>
+      <c r="E153" s="26"/>
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="D154" s="23"/>
-      <c r="E154" s="24"/>
+      <c r="A154" s="26"/>
+      <c r="B154" s="26"/>
+      <c r="C154" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="25"/>
+      <c r="E154" s="26"/>
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
+      <c r="A155" s="26"/>
+      <c r="B155" s="26"/>
+      <c r="C155" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="D155" s="25"/>
+      <c r="E155" s="26"/>
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D156" s="23"/>
-      <c r="E156" s="24"/>
+      <c r="A156" s="26"/>
+      <c r="B156" s="26"/>
+      <c r="C156" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="D156" s="25"/>
+      <c r="E156" s="26"/>
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D157" s="23"/>
-      <c r="E157" s="24"/>
+      <c r="A157" s="26"/>
+      <c r="B157" s="26"/>
+      <c r="C157" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D157" s="25"/>
+      <c r="E157" s="26"/>
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D158" s="23"/>
-      <c r="E158" s="24"/>
+      <c r="A158" s="26"/>
+      <c r="B158" s="26"/>
+      <c r="C158" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="D158" s="25"/>
+      <c r="E158" s="26"/>
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D159" s="23"/>
-      <c r="E159" s="24"/>
+      <c r="A159" s="26"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="D159" s="25"/>
+      <c r="E159" s="26"/>
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="24"/>
+      <c r="A160" s="26"/>
+      <c r="B160" s="26"/>
+      <c r="C160" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D160" s="25"/>
+      <c r="E160" s="26"/>
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="24"/>
+      <c r="A161" s="26"/>
+      <c r="B161" s="26"/>
+      <c r="C161" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="D161" s="25"/>
+      <c r="E161" s="26"/>
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D162" s="23"/>
-      <c r="E162" s="24"/>
+      <c r="A162" s="26"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="D162" s="25"/>
+      <c r="E162" s="26"/>
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D163" s="23"/>
-      <c r="E163" s="24"/>
+      <c r="A163" s="26"/>
+      <c r="B163" s="26"/>
+      <c r="C163" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D163" s="25"/>
+      <c r="E163" s="26"/>
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D164" s="23"/>
-      <c r="E164" s="24"/>
+      <c r="A164" s="26"/>
+      <c r="B164" s="26"/>
+      <c r="C164" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D164" s="25"/>
+      <c r="E164" s="26"/>
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D165" s="23"/>
-      <c r="E165" s="24"/>
+      <c r="A165" s="26"/>
+      <c r="B165" s="26"/>
+      <c r="C165" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="D165" s="25"/>
+      <c r="E165" s="26"/>
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="24"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="D166" s="23"/>
-      <c r="E166" s="24"/>
+      <c r="A166" s="26"/>
+      <c r="B166" s="26"/>
+      <c r="C166" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D166" s="25"/>
+      <c r="E166" s="26"/>
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D167" s="23"/>
-      <c r="E167" s="24"/>
+      <c r="A167" s="26"/>
+      <c r="B167" s="26"/>
+      <c r="C167" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="D167" s="25"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D168" s="23"/>
-      <c r="E168" s="24"/>
+      <c r="A168" s="26"/>
+      <c r="B168" s="26"/>
+      <c r="C168" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="D168" s="25"/>
+      <c r="E168" s="26"/>
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D169" s="23"/>
-      <c r="E169" s="24"/>
+      <c r="A169" s="26"/>
+      <c r="B169" s="26"/>
+      <c r="C169" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D169" s="25"/>
+      <c r="E169" s="26"/>
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D170" s="23"/>
-      <c r="E170" s="24"/>
+      <c r="A170" s="26"/>
+      <c r="B170" s="26"/>
+      <c r="C170" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="D170" s="25"/>
+      <c r="E170" s="26"/>
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D171" s="23"/>
-      <c r="E171" s="24"/>
+      <c r="A171" s="26"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="D171" s="25"/>
+      <c r="E171" s="26"/>
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D172" s="23"/>
-      <c r="E172" s="24"/>
+      <c r="A172" s="26"/>
+      <c r="B172" s="26"/>
+      <c r="C172" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="D172" s="25"/>
+      <c r="E172" s="26"/>
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D173" s="23"/>
-      <c r="E173" s="24"/>
+      <c r="A173" s="26"/>
+      <c r="B173" s="26"/>
+      <c r="C173" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" s="25"/>
+      <c r="E173" s="26"/>
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="24"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D174" s="23"/>
-      <c r="E174" s="24"/>
+      <c r="A174" s="26"/>
+      <c r="B174" s="26"/>
+      <c r="C174" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D174" s="25"/>
+      <c r="E174" s="26"/>
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D175" s="23"/>
-      <c r="E175" s="24"/>
+      <c r="A175" s="26"/>
+      <c r="B175" s="26"/>
+      <c r="C175" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D175" s="25"/>
+      <c r="E175" s="26"/>
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="24"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D176" s="23"/>
-      <c r="E176" s="24"/>
+      <c r="A176" s="26"/>
+      <c r="B176" s="26"/>
+      <c r="C176" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="D176" s="25"/>
+      <c r="E176" s="26"/>
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="24"/>
+      <c r="A177" s="26"/>
+      <c r="B177" s="26"/>
+      <c r="C177" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="D177" s="25"/>
+      <c r="E177" s="26"/>
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="24"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="24"/>
+      <c r="A178" s="26"/>
+      <c r="B178" s="26"/>
+      <c r="C178" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="D178" s="25"/>
+      <c r="E178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="24"/>
+      <c r="A179" s="26"/>
+      <c r="B179" s="26"/>
+      <c r="C179" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="D179" s="25"/>
+      <c r="E179" s="26"/>
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="24"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D180" s="23"/>
-      <c r="E180" s="24"/>
+      <c r="A180" s="26"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="D180" s="25"/>
+      <c r="E180" s="26"/>
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="24"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D181" s="23"/>
-      <c r="E181" s="24"/>
+      <c r="A181" s="26"/>
+      <c r="B181" s="26"/>
+      <c r="C181" s="26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D181" s="25"/>
+      <c r="E181" s="26"/>
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D182" s="23"/>
-      <c r="E182" s="24"/>
+      <c r="A182" s="26"/>
+      <c r="B182" s="26"/>
+      <c r="C182" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="D182" s="25"/>
+      <c r="E182" s="26"/>
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="D183" s="23"/>
-      <c r="E183" s="24"/>
+      <c r="A183" s="26"/>
+      <c r="B183" s="26"/>
+      <c r="C183" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="D183" s="25"/>
+      <c r="E183" s="26"/>
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D184" s="23"/>
-      <c r="E184" s="24"/>
+      <c r="A184" s="26"/>
+      <c r="B184" s="26"/>
+      <c r="C184" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="D184" s="25"/>
+      <c r="E184" s="26"/>
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24"/>
+      <c r="A185" s="26"/>
+      <c r="B185" s="26"/>
+      <c r="C185" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="D185" s="25"/>
+      <c r="E185" s="26"/>
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="24"/>
+      <c r="A186" s="26"/>
+      <c r="B186" s="26"/>
+      <c r="C186" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="D186" s="25"/>
+      <c r="E186" s="26"/>
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="24"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="D187" s="23"/>
-      <c r="E187" s="24"/>
+      <c r="A187" s="26"/>
+      <c r="B187" s="26"/>
+      <c r="C187" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="D187" s="25"/>
+      <c r="E187" s="26"/>
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="24"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D188" s="23"/>
-      <c r="E188" s="24"/>
+      <c r="A188" s="26"/>
+      <c r="B188" s="26"/>
+      <c r="C188" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="D188" s="25"/>
+      <c r="E188" s="26"/>
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D189" s="23"/>
-      <c r="E189" s="24"/>
+      <c r="A189" s="26"/>
+      <c r="B189" s="26"/>
+      <c r="C189" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="D189" s="25"/>
+      <c r="E189" s="26"/>
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="24"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D190" s="23"/>
-      <c r="E190" s="24"/>
+      <c r="A190" s="26"/>
+      <c r="B190" s="26"/>
+      <c r="C190" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="D190" s="25"/>
+      <c r="E190" s="26"/>
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D191" s="23"/>
-      <c r="E191" s="24"/>
+      <c r="A191" s="26"/>
+      <c r="B191" s="26"/>
+      <c r="C191" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D191" s="25"/>
+      <c r="E191" s="26"/>
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D192" s="23"/>
-      <c r="E192" s="24"/>
+      <c r="A192" s="26"/>
+      <c r="B192" s="26"/>
+      <c r="C192" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="D192" s="25"/>
+      <c r="E192" s="26"/>
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="24"/>
+      <c r="A193" s="26"/>
+      <c r="B193" s="26"/>
+      <c r="C193" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="D193" s="25"/>
+      <c r="E193" s="26"/>
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D194" s="23"/>
-      <c r="E194" s="24"/>
+      <c r="A194" s="26"/>
+      <c r="B194" s="26"/>
+      <c r="C194" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="D194" s="25"/>
+      <c r="E194" s="26"/>
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D195" s="23"/>
-      <c r="E195" s="24"/>
+      <c r="A195" s="26"/>
+      <c r="B195" s="26"/>
+      <c r="C195" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="D195" s="25"/>
+      <c r="E195" s="26"/>
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="D196" s="23"/>
-      <c r="E196" s="24"/>
+      <c r="A196" s="26"/>
+      <c r="B196" s="26"/>
+      <c r="C196" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D196" s="25"/>
+      <c r="E196" s="26"/>
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D197" s="23"/>
-      <c r="E197" s="24"/>
+      <c r="A197" s="26"/>
+      <c r="B197" s="26"/>
+      <c r="C197" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="D197" s="25"/>
+      <c r="E197" s="26"/>
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="24"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D198" s="23"/>
-      <c r="E198" s="24"/>
+      <c r="A198" s="26"/>
+      <c r="B198" s="26"/>
+      <c r="C198" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="D198" s="25"/>
+      <c r="E198" s="26"/>
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D199" s="23"/>
-      <c r="E199" s="24"/>
+      <c r="A199" s="26"/>
+      <c r="B199" s="26"/>
+      <c r="C199" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="D199" s="25"/>
+      <c r="E199" s="26"/>
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="24"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="24"/>
+      <c r="A200" s="26"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="D200" s="25"/>
+      <c r="E200" s="26"/>
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="24"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="24"/>
+      <c r="A201" s="26"/>
+      <c r="B201" s="26"/>
+      <c r="C201" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D201" s="25"/>
+      <c r="E201" s="26"/>
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="24"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D202" s="23"/>
-      <c r="E202" s="24"/>
+      <c r="A202" s="26"/>
+      <c r="B202" s="26"/>
+      <c r="C202" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="D202" s="25"/>
+      <c r="E202" s="26"/>
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D203" s="23"/>
-      <c r="E203" s="24"/>
+      <c r="A203" s="26"/>
+      <c r="B203" s="26"/>
+      <c r="C203" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="D203" s="25"/>
+      <c r="E203" s="26"/>
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D204" s="23"/>
-      <c r="E204" s="24"/>
+      <c r="A204" s="26"/>
+      <c r="B204" s="26"/>
+      <c r="C204" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D204" s="25"/>
+      <c r="E204" s="26"/>
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D205" s="23"/>
-      <c r="E205" s="24"/>
+      <c r="A205" s="26"/>
+      <c r="B205" s="26"/>
+      <c r="C205" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D205" s="25"/>
+      <c r="E205" s="26"/>
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D206" s="23"/>
-      <c r="E206" s="24"/>
+      <c r="A206" s="26"/>
+      <c r="B206" s="26"/>
+      <c r="C206" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D206" s="25"/>
+      <c r="E206" s="26"/>
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D207" s="23"/>
-      <c r="E207" s="24"/>
+      <c r="A207" s="26"/>
+      <c r="B207" s="26"/>
+      <c r="C207" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D207" s="25"/>
+      <c r="E207" s="26"/>
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D208" s="23"/>
-      <c r="E208" s="24"/>
+      <c r="A208" s="26"/>
+      <c r="B208" s="26"/>
+      <c r="C208" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="D208" s="25"/>
+      <c r="E208" s="26"/>
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D209" s="23"/>
-      <c r="E209" s="24"/>
+      <c r="A209" s="26"/>
+      <c r="B209" s="26"/>
+      <c r="C209" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="D209" s="25"/>
+      <c r="E209" s="26"/>
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D210" s="23"/>
-      <c r="E210" s="24"/>
+      <c r="A210" s="26"/>
+      <c r="B210" s="26"/>
+      <c r="C210" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="D210" s="25"/>
+      <c r="E210" s="26"/>
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="D211" s="23"/>
-      <c r="E211" s="24"/>
+      <c r="A211" s="26"/>
+      <c r="B211" s="26"/>
+      <c r="C211" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="D211" s="25"/>
+      <c r="E211" s="26"/>
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D212" s="23"/>
-      <c r="E212" s="24"/>
+      <c r="A212" s="26"/>
+      <c r="B212" s="26"/>
+      <c r="C212" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="D212" s="25"/>
+      <c r="E212" s="26"/>
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="24"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D213" s="23"/>
-      <c r="E213" s="24"/>
+      <c r="A213" s="26"/>
+      <c r="B213" s="26"/>
+      <c r="C213" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="D213" s="25"/>
+      <c r="E213" s="26"/>
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="24"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D214" s="23"/>
-      <c r="E214" s="24"/>
+      <c r="A214" s="26"/>
+      <c r="B214" s="26"/>
+      <c r="C214" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="D214" s="25"/>
+      <c r="E214" s="26"/>
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D215" s="23"/>
-      <c r="E215" s="24"/>
+      <c r="A215" s="26"/>
+      <c r="B215" s="26"/>
+      <c r="C215" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D215" s="25"/>
+      <c r="E215" s="26"/>
     </row>
     <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="24"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="24"/>
+      <c r="A216" s="26"/>
+      <c r="B216" s="26"/>
+      <c r="C216" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="D216" s="25"/>
+      <c r="E216" s="26"/>
     </row>
     <row r="217" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="24"/>
+      <c r="A217" s="26"/>
+      <c r="B217" s="26"/>
+      <c r="C217" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="D217" s="25"/>
+      <c r="E217" s="26"/>
     </row>
     <row r="218" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="24"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D218" s="23"/>
-      <c r="E218" s="24"/>
+      <c r="A218" s="26"/>
+      <c r="B218" s="26"/>
+      <c r="C218" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="D218" s="25"/>
+      <c r="E218" s="26"/>
     </row>
     <row r="219" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D219" s="23"/>
-      <c r="E219" s="24"/>
+      <c r="A219" s="26"/>
+      <c r="B219" s="26"/>
+      <c r="C219" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="D219" s="25"/>
+      <c r="E219" s="26"/>
     </row>
     <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D220" s="23"/>
-      <c r="E220" s="24"/>
+      <c r="A220" s="26"/>
+      <c r="B220" s="26"/>
+      <c r="C220" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="D220" s="25"/>
+      <c r="E220" s="26"/>
     </row>
     <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D221" s="23"/>
-      <c r="E221" s="24"/>
+      <c r="A221" s="26"/>
+      <c r="B221" s="26"/>
+      <c r="C221" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="D221" s="25"/>
+      <c r="E221" s="26"/>
     </row>
     <row r="222" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="24"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D222" s="23"/>
-      <c r="E222" s="24"/>
+      <c r="A222" s="26"/>
+      <c r="B222" s="26"/>
+      <c r="C222" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="D222" s="25"/>
+      <c r="E222" s="26"/>
     </row>
     <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="24"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="D223" s="23"/>
-      <c r="E223" s="24"/>
+      <c r="A223" s="26"/>
+      <c r="B223" s="26"/>
+      <c r="C223" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="D223" s="25"/>
+      <c r="E223" s="26"/>
     </row>
     <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="24"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D224" s="23"/>
-      <c r="E224" s="24"/>
+      <c r="A224" s="26"/>
+      <c r="B224" s="26"/>
+      <c r="C224" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="D224" s="25"/>
+      <c r="E224" s="26"/>
     </row>
     <row r="225" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="24"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D225" s="23"/>
-      <c r="E225" s="24"/>
+      <c r="A225" s="26"/>
+      <c r="B225" s="26"/>
+      <c r="C225" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="D225" s="25"/>
+      <c r="E225" s="26"/>
     </row>
     <row r="226" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D226" s="23"/>
-      <c r="E226" s="24"/>
+      <c r="A226" s="26"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="D226" s="25"/>
+      <c r="E226" s="26"/>
     </row>
     <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D227" s="23"/>
-      <c r="E227" s="24"/>
+      <c r="A227" s="26"/>
+      <c r="B227" s="26"/>
+      <c r="C227" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="D227" s="25"/>
+      <c r="E227" s="26"/>
     </row>
     <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="24"/>
+      <c r="A228" s="26"/>
+      <c r="B228" s="26"/>
+      <c r="C228" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="D228" s="25"/>
+      <c r="E228" s="26"/>
     </row>
     <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="24"/>
+      <c r="A229" s="26"/>
+      <c r="B229" s="26"/>
+      <c r="C229" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D229" s="25"/>
+      <c r="E229" s="26"/>
     </row>
     <row r="230" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="24"/>
+      <c r="A230" s="26"/>
+      <c r="B230" s="26"/>
+      <c r="C230" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="D230" s="25"/>
+      <c r="E230" s="26"/>
     </row>
     <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D231" s="23"/>
-      <c r="E231" s="24"/>
+      <c r="A231" s="26"/>
+      <c r="B231" s="26"/>
+      <c r="C231" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="D231" s="25"/>
+      <c r="E231" s="26"/>
     </row>
     <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D232" s="23"/>
-      <c r="E232" s="24"/>
+      <c r="A232" s="26"/>
+      <c r="B232" s="26"/>
+      <c r="C232" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="D232" s="25"/>
+      <c r="E232" s="26"/>
     </row>
     <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="24"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D233" s="23"/>
-      <c r="E233" s="24"/>
+      <c r="A233" s="26"/>
+      <c r="B233" s="26"/>
+      <c r="C233" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="D233" s="25"/>
+      <c r="E233" s="26"/>
     </row>
     <row r="234" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D234" s="23"/>
-      <c r="E234" s="24"/>
+      <c r="A234" s="26"/>
+      <c r="B234" s="26"/>
+      <c r="C234" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="D234" s="25"/>
+      <c r="E234" s="26"/>
     </row>
     <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D235" s="23"/>
-      <c r="E235" s="24"/>
+      <c r="A235" s="26"/>
+      <c r="B235" s="26"/>
+      <c r="C235" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="D235" s="25"/>
+      <c r="E235" s="26"/>
     </row>
     <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D236" s="23"/>
-      <c r="E236" s="24"/>
+      <c r="A236" s="26"/>
+      <c r="B236" s="26"/>
+      <c r="C236" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="D236" s="25"/>
+      <c r="E236" s="26"/>
     </row>
     <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D237" s="23"/>
-      <c r="E237" s="24"/>
+      <c r="A237" s="26"/>
+      <c r="B237" s="26"/>
+      <c r="C237" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="D237" s="25"/>
+      <c r="E237" s="26"/>
     </row>
     <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D238" s="23"/>
-      <c r="E238" s="24"/>
+      <c r="A238" s="26"/>
+      <c r="B238" s="26"/>
+      <c r="C238" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="D238" s="25"/>
+      <c r="E238" s="26"/>
     </row>
     <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D239" s="23"/>
-      <c r="E239" s="24"/>
+      <c r="A239" s="26"/>
+      <c r="B239" s="26"/>
+      <c r="C239" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="D239" s="25"/>
+      <c r="E239" s="26"/>
     </row>
     <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="D240" s="23"/>
-      <c r="E240" s="24"/>
+      <c r="A240" s="26"/>
+      <c r="B240" s="26"/>
+      <c r="C240" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D240" s="25"/>
+      <c r="E240" s="26"/>
     </row>
     <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D241" s="23"/>
-      <c r="E241" s="24"/>
+      <c r="A241" s="26"/>
+      <c r="B241" s="26"/>
+      <c r="C241" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="D241" s="25"/>
+      <c r="E241" s="26"/>
     </row>
     <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="D242" s="23"/>
-      <c r="E242" s="24"/>
+      <c r="A242" s="26"/>
+      <c r="B242" s="26"/>
+      <c r="C242" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="D242" s="25"/>
+      <c r="E242" s="26"/>
     </row>
     <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="D243" s="23"/>
-      <c r="E243" s="24"/>
+      <c r="A243" s="26"/>
+      <c r="B243" s="26"/>
+      <c r="C243" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="D243" s="25"/>
+      <c r="E243" s="26"/>
     </row>
     <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="24"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D244" s="23"/>
-      <c r="E244" s="24"/>
+      <c r="A244" s="26"/>
+      <c r="B244" s="26"/>
+      <c r="C244" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="D244" s="25"/>
+      <c r="E244" s="26"/>
     </row>
     <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="24"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="24"/>
+      <c r="A245" s="26"/>
+      <c r="B245" s="26"/>
+      <c r="C245" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="D245" s="25"/>
+      <c r="E245" s="26"/>
     </row>
     <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="24"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="24"/>
+      <c r="A246" s="26"/>
+      <c r="B246" s="26"/>
+      <c r="C246" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="D246" s="25"/>
+      <c r="E246" s="26"/>
     </row>
     <row r="247" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="24"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D247" s="23"/>
-      <c r="E247" s="24"/>
+      <c r="A247" s="26"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="D247" s="25"/>
+      <c r="E247" s="26"/>
     </row>
     <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="24"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D248" s="23"/>
-      <c r="E248" s="24"/>
+      <c r="A248" s="26"/>
+      <c r="B248" s="26"/>
+      <c r="C248" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="D248" s="25"/>
+      <c r="E248" s="26"/>
     </row>
     <row r="249" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="24"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D249" s="23"/>
-      <c r="E249" s="24"/>
+      <c r="A249" s="26"/>
+      <c r="B249" s="26"/>
+      <c r="C249" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="D249" s="25"/>
+      <c r="E249" s="26"/>
     </row>
     <row r="250" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D250" s="23"/>
-      <c r="E250" s="24"/>
+      <c r="A250" s="26"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="D250" s="25"/>
+      <c r="E250" s="26"/>
     </row>
     <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
-      <c r="C251" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="D251" s="23"/>
-      <c r="E251" s="24"/>
+      <c r="A251" s="26"/>
+      <c r="B251" s="26"/>
+      <c r="C251" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D251" s="25"/>
+      <c r="E251" s="26"/>
     </row>
     <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D252" s="23"/>
-      <c r="E252" s="24"/>
+      <c r="A252" s="26"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="D252" s="25"/>
+      <c r="E252" s="26"/>
     </row>
     <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="24"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D253" s="23"/>
-      <c r="E253" s="24"/>
+      <c r="A253" s="26"/>
+      <c r="B253" s="26"/>
+      <c r="C253" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="D253" s="25"/>
+      <c r="E253" s="26"/>
     </row>
     <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="D254" s="23"/>
-      <c r="E254" s="24"/>
+      <c r="A254" s="26"/>
+      <c r="B254" s="26"/>
+      <c r="C254" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D254" s="25"/>
+      <c r="E254" s="26"/>
     </row>
     <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="24"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="D255" s="23"/>
-      <c r="E255" s="24"/>
+      <c r="A255" s="26"/>
+      <c r="B255" s="26"/>
+      <c r="C255" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D255" s="25"/>
+      <c r="E255" s="26"/>
     </row>
     <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="24"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="D256" s="23"/>
-      <c r="E256" s="24"/>
+      <c r="A256" s="26"/>
+      <c r="B256" s="26"/>
+      <c r="C256" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="D256" s="25"/>
+      <c r="E256" s="26"/>
     </row>
     <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t xml:space="preserve">Film Library Metadata</t>
   </si>
@@ -216,10 +216,16 @@
 (list of choice)</t>
   </si>
   <si>
+    <t xml:space="preserve">Screener link</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promo reel link</t>
   </si>
   <si>
     <t xml:space="preserve">Trailer link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitch teaser link</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario link</t>
@@ -1400,7 +1406,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1495,13 +1501,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1612,7 +1611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1686,10 +1685,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1802,10 +1797,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AQ13" activeCellId="0" sqref="AQ13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI11" activeCellId="0" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1827,10 +1822,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="29.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="35" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="39" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1905,6 +1900,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
@@ -2024,11 +2020,17 @@
       <c r="AM10" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="AN10" s="19" t="s">
+      <c r="AN10" s="18" t="s">
         <v>51</v>
       </c>
       <c r="AO10" s="18" t="s">
         <v>52</v>
+      </c>
+      <c r="AP10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2081,2550 +2083,2550 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="34.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>57</v>
       </c>
+      <c r="D1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>62</v>
       </c>
+      <c r="D2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>67</v>
       </c>
+      <c r="D3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>71</v>
       </c>
+      <c r="C4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>75</v>
       </c>
+      <c r="C5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>79</v>
       </c>
+      <c r="C6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>83</v>
       </c>
+      <c r="C7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>87</v>
       </c>
+      <c r="C8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>91</v>
       </c>
+      <c r="C9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>95</v>
       </c>
+      <c r="C10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="B11" s="25" t="s">
         <v>99</v>
       </c>
+      <c r="C11" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="B12" s="26" t="s">
         <v>103</v>
       </c>
+      <c r="C12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="A13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="B13" s="26" t="s">
         <v>107</v>
       </c>
+      <c r="C13" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="B14" s="26" t="s">
         <v>111</v>
       </c>
+      <c r="C14" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="27" t="s">
+      <c r="A15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="B15" s="26" t="s">
         <v>115</v>
       </c>
+      <c r="C15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="B16" s="26" t="s">
         <v>119</v>
       </c>
+      <c r="C16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="27" t="s">
+      <c r="A17" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="B17" s="26" t="s">
         <v>123</v>
       </c>
+      <c r="C17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="27" t="s">
+      <c r="A18" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>127</v>
       </c>
+      <c r="C18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="27" t="s">
+      <c r="A19" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="B19" s="26" t="s">
         <v>131</v>
       </c>
+      <c r="C19" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" s="26" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
         <v>134</v>
       </c>
+      <c r="C20" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="26" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
         <v>137</v>
       </c>
+      <c r="C21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>139</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26" t="s">
-        <v>141</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26" t="s">
-        <v>143</v>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26" t="s">
-        <v>145</v>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26" t="s">
-        <v>147</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26" t="s">
-        <v>149</v>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26" t="s">
-        <v>151</v>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26" t="s">
-        <v>153</v>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26" t="s">
-        <v>155</v>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26" t="s">
-        <v>157</v>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26" t="s">
-        <v>159</v>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26" t="s">
-        <v>161</v>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26" t="s">
-        <v>163</v>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26" t="s">
-        <v>165</v>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26" t="s">
-        <v>167</v>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26" t="s">
-        <v>169</v>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26" t="s">
-        <v>171</v>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26" t="s">
-        <v>173</v>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26" t="s">
-        <v>175</v>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26" t="s">
-        <v>177</v>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26" t="s">
-        <v>179</v>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26" t="s">
-        <v>181</v>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26" t="s">
-        <v>183</v>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26" t="s">
-        <v>185</v>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26" t="s">
-        <v>187</v>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26" t="s">
-        <v>189</v>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26" t="s">
-        <v>191</v>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26" t="s">
-        <v>193</v>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26" t="s">
-        <v>195</v>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26" t="s">
-        <v>197</v>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26" t="s">
-        <v>199</v>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26" t="s">
-        <v>201</v>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26" t="s">
-        <v>203</v>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26" t="s">
-        <v>205</v>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26" t="s">
-        <v>207</v>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26" t="s">
-        <v>209</v>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26" t="s">
-        <v>211</v>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26" t="s">
-        <v>213</v>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26" t="s">
-        <v>215</v>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26" t="s">
-        <v>217</v>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26" t="s">
-        <v>219</v>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26" t="s">
-        <v>221</v>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26" t="s">
-        <v>223</v>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26" t="s">
-        <v>225</v>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26" t="s">
-        <v>227</v>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26" t="s">
-        <v>229</v>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26" t="s">
-        <v>231</v>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26" t="s">
-        <v>233</v>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26" t="s">
-        <v>235</v>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D71" s="25"/>
-      <c r="E71" s="26" t="s">
-        <v>237</v>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26" t="s">
-        <v>239</v>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26" t="s">
-        <v>241</v>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26" t="s">
-        <v>242</v>
-      </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26" t="s">
-        <v>243</v>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26" t="s">
-        <v>245</v>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="26" t="s">
-        <v>247</v>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26" t="s">
-        <v>249</v>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="D78" s="25"/>
-      <c r="E78" s="26" t="s">
-        <v>251</v>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="D79" s="25"/>
-      <c r="E79" s="26" t="s">
-        <v>253</v>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D80" s="25"/>
-      <c r="E80" s="26" t="s">
-        <v>255</v>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26" t="s">
-        <v>257</v>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="26" t="s">
-        <v>259</v>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D83" s="25"/>
-      <c r="E83" s="26" t="s">
-        <v>261</v>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="D85" s="25"/>
-      <c r="E85" s="26"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26"/>
-      <c r="B86" s="26"/>
-      <c r="C86" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26"/>
-      <c r="B87" s="26"/>
-      <c r="C87" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26"/>
-      <c r="B88" s="26"/>
-      <c r="C88" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="D88" s="25"/>
-      <c r="E88" s="26"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26"/>
-      <c r="B89" s="26"/>
-      <c r="C89" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="E89" s="26"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="D91" s="25"/>
-      <c r="E91" s="26"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
-      <c r="C92" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="26"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
-      <c r="C93" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="26"/>
-      <c r="B94" s="26"/>
-      <c r="C94" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="26"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="26"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="26" t="s">
-        <v>273</v>
-      </c>
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="26"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="D96" s="25"/>
-      <c r="E96" s="26"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="26"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" s="25"/>
-      <c r="E97" s="26"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="26"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26" t="s">
-        <v>276</v>
-      </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="26"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="26"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D99" s="25"/>
-      <c r="E99" s="26"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="26"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="26"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="D101" s="25"/>
-      <c r="E101" s="26"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="26"/>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="D102" s="25"/>
-      <c r="E102" s="26"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="26"/>
-      <c r="B103" s="26"/>
-      <c r="C103" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="D103" s="25"/>
-      <c r="E103" s="26"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="26"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="26" t="s">
-        <v>282</v>
-      </c>
-      <c r="D104" s="25"/>
-      <c r="E104" s="26"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="D105" s="25"/>
-      <c r="E105" s="26"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="26"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26" t="s">
-        <v>284</v>
-      </c>
-      <c r="D106" s="25"/>
-      <c r="E106" s="26"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="26"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="26" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="26"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="26"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="D108" s="25"/>
-      <c r="E108" s="26"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="26"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="26"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="26"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D110" s="25"/>
-      <c r="E110" s="26"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="26"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="26"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="26"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="26"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="26"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="26"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="D114" s="25"/>
-      <c r="E114" s="26"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="26"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="D115" s="25"/>
-      <c r="E115" s="26"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="26"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="D116" s="25"/>
-      <c r="E116" s="26"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="26"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="D117" s="25"/>
-      <c r="E117" s="26"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="26"/>
-      <c r="B118" s="26"/>
-      <c r="C118" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="D118" s="25"/>
-      <c r="E118" s="26"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="26"/>
-      <c r="B119" s="26"/>
-      <c r="C119" s="26" t="s">
-        <v>297</v>
-      </c>
-      <c r="D119" s="25"/>
-      <c r="E119" s="26"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="26"/>
-      <c r="B120" s="26"/>
-      <c r="C120" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="D120" s="25"/>
-      <c r="E120" s="26"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="26"/>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D121" s="25"/>
-      <c r="E121" s="26"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="26"/>
-      <c r="B122" s="26"/>
-      <c r="C122" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="D122" s="25"/>
-      <c r="E122" s="26"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="26"/>
-      <c r="B123" s="26"/>
-      <c r="C123" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="26"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="26"/>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="26"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="26"/>
-      <c r="B125" s="26"/>
-      <c r="C125" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="26"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="26"/>
-      <c r="B126" s="26"/>
-      <c r="C126" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="D126" s="25"/>
-      <c r="E126" s="26"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="26"/>
-      <c r="B127" s="26"/>
-      <c r="C127" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="25"/>
-      <c r="E127" s="26"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="26"/>
-      <c r="B128" s="26"/>
-      <c r="C128" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="26"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="26"/>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="D129" s="25"/>
-      <c r="E129" s="26"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="26"/>
-      <c r="B130" s="26"/>
-      <c r="C130" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="26"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="26"/>
-      <c r="B131" s="26"/>
-      <c r="C131" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="26"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="24"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="26"/>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="D132" s="25"/>
-      <c r="E132" s="26"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="24"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26"/>
-      <c r="C133" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="26"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="24"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="26"/>
-      <c r="B134" s="26"/>
-      <c r="C134" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="26"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" s="24"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="26"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="26"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="26"/>
-      <c r="B136" s="26"/>
-      <c r="C136" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="D136" s="25"/>
-      <c r="E136" s="26"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" s="24"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="26"/>
-      <c r="B137" s="26"/>
-      <c r="C137" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="D137" s="25"/>
-      <c r="E137" s="26"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="24"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="26"/>
-      <c r="B138" s="26"/>
-      <c r="C138" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="D138" s="25"/>
-      <c r="E138" s="26"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="26"/>
-      <c r="B139" s="26"/>
-      <c r="C139" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="26"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D139" s="24"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="26"/>
-      <c r="B140" s="26"/>
-      <c r="C140" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="D140" s="25"/>
-      <c r="E140" s="26"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" s="24"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="26"/>
-      <c r="B141" s="26"/>
-      <c r="C141" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="26"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D141" s="24"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="26"/>
-      <c r="B142" s="26"/>
-      <c r="C142" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="26"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D142" s="24"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="26"/>
-      <c r="B143" s="26"/>
-      <c r="C143" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="26"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="26"/>
-      <c r="B144" s="26"/>
-      <c r="C144" s="26" t="s">
-        <v>322</v>
-      </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="26"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D144" s="24"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="26"/>
-      <c r="B145" s="26"/>
-      <c r="C145" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="D145" s="25"/>
-      <c r="E145" s="26"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="26"/>
-      <c r="B146" s="26"/>
-      <c r="C146" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D146" s="25"/>
-      <c r="E146" s="26"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="26"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="26" t="s">
-        <v>325</v>
-      </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="26"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="D148" s="25"/>
-      <c r="E148" s="26"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="26"/>
-      <c r="B149" s="26"/>
-      <c r="C149" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="D149" s="25"/>
-      <c r="E149" s="26"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="26"/>
-      <c r="B150" s="26"/>
-      <c r="C150" s="26" t="s">
-        <v>328</v>
-      </c>
-      <c r="D150" s="25"/>
-      <c r="E150" s="26"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="26"/>
-      <c r="B151" s="26"/>
-      <c r="C151" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="D151" s="25"/>
-      <c r="E151" s="26"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" s="24"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="26"/>
-      <c r="B152" s="26"/>
-      <c r="C152" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="D152" s="25"/>
-      <c r="E152" s="26"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="24"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="26"/>
-      <c r="B153" s="26"/>
-      <c r="C153" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="D153" s="25"/>
-      <c r="E153" s="26"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D153" s="24"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="26"/>
-      <c r="B154" s="26"/>
-      <c r="C154" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="D154" s="25"/>
-      <c r="E154" s="26"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D154" s="24"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="26"/>
-      <c r="B155" s="26"/>
-      <c r="C155" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="D155" s="25"/>
-      <c r="E155" s="26"/>
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="24"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="26"/>
-      <c r="B156" s="26"/>
-      <c r="C156" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="D156" s="25"/>
-      <c r="E156" s="26"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="24"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="26"/>
-      <c r="B157" s="26"/>
-      <c r="C157" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="D157" s="25"/>
-      <c r="E157" s="26"/>
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="24"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="26"/>
-      <c r="B158" s="26"/>
-      <c r="C158" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="D158" s="25"/>
-      <c r="E158" s="26"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D158" s="24"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="26"/>
-      <c r="B159" s="26"/>
-      <c r="C159" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D159" s="25"/>
-      <c r="E159" s="26"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" s="24"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="26"/>
-      <c r="B160" s="26"/>
-      <c r="C160" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D160" s="25"/>
-      <c r="E160" s="26"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D160" s="24"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="26"/>
-      <c r="B161" s="26"/>
-      <c r="C161" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="D161" s="25"/>
-      <c r="E161" s="26"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="26"/>
-      <c r="B162" s="26"/>
-      <c r="C162" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="D162" s="25"/>
-      <c r="E162" s="26"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D162" s="24"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="26"/>
-      <c r="B163" s="26"/>
-      <c r="C163" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="D163" s="25"/>
-      <c r="E163" s="26"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="24"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="26"/>
-      <c r="B164" s="26"/>
-      <c r="C164" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="D164" s="25"/>
-      <c r="E164" s="26"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D164" s="24"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="26"/>
-      <c r="B165" s="26"/>
-      <c r="C165" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="D165" s="25"/>
-      <c r="E165" s="26"/>
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D165" s="24"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="26"/>
-      <c r="B166" s="26"/>
-      <c r="C166" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="D166" s="25"/>
-      <c r="E166" s="26"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="24"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="26"/>
-      <c r="B167" s="26"/>
-      <c r="C167" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="D167" s="25"/>
-      <c r="E167" s="26"/>
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167" s="24"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="26"/>
-      <c r="B168" s="26"/>
-      <c r="C168" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="D168" s="25"/>
-      <c r="E168" s="26"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168" s="24"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="26"/>
-      <c r="B169" s="26"/>
-      <c r="C169" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="D169" s="25"/>
-      <c r="E169" s="26"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" s="24"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="26"/>
-      <c r="B170" s="26"/>
-      <c r="C170" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D170" s="25"/>
-      <c r="E170" s="26"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="24"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="26"/>
-      <c r="B171" s="26"/>
-      <c r="C171" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="D171" s="25"/>
-      <c r="E171" s="26"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="26"/>
-      <c r="B172" s="26"/>
-      <c r="C172" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="D172" s="25"/>
-      <c r="E172" s="26"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="26"/>
-      <c r="B173" s="26"/>
-      <c r="C173" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="D173" s="25"/>
-      <c r="E173" s="26"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" s="24"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="26"/>
-      <c r="B174" s="26"/>
-      <c r="C174" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="D174" s="25"/>
-      <c r="E174" s="26"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="24"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="26"/>
-      <c r="B175" s="26"/>
-      <c r="C175" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="D175" s="25"/>
-      <c r="E175" s="26"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D175" s="24"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="26"/>
-      <c r="B176" s="26"/>
-      <c r="C176" s="26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D176" s="25"/>
-      <c r="E176" s="26"/>
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D176" s="24"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="26"/>
-      <c r="B177" s="26"/>
-      <c r="C177" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="D177" s="25"/>
-      <c r="E177" s="26"/>
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" s="24"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="26"/>
-      <c r="B178" s="26"/>
-      <c r="C178" s="26" t="s">
-        <v>356</v>
-      </c>
-      <c r="D178" s="25"/>
-      <c r="E178" s="26"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" s="24"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="26"/>
-      <c r="B179" s="26"/>
-      <c r="C179" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="D179" s="25"/>
-      <c r="E179" s="26"/>
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="26"/>
-      <c r="B180" s="26"/>
-      <c r="C180" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="26"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" s="24"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="26"/>
-      <c r="B181" s="26"/>
-      <c r="C181" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="26"/>
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D181" s="24"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="26"/>
-      <c r="B182" s="26"/>
-      <c r="C182" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="26"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" s="24"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="26"/>
-      <c r="B183" s="26"/>
-      <c r="C183" s="26" t="s">
-        <v>361</v>
-      </c>
-      <c r="D183" s="25"/>
-      <c r="E183" s="26"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D183" s="24"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="26"/>
-      <c r="B184" s="26"/>
-      <c r="C184" s="26" t="s">
-        <v>362</v>
-      </c>
-      <c r="D184" s="25"/>
-      <c r="E184" s="26"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="26"/>
-      <c r="B185" s="26"/>
-      <c r="C185" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="D185" s="25"/>
-      <c r="E185" s="26"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="26"/>
-      <c r="B186" s="26"/>
-      <c r="C186" s="26" t="s">
-        <v>364</v>
-      </c>
-      <c r="D186" s="25"/>
-      <c r="E186" s="26"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="26"/>
-      <c r="B187" s="26"/>
-      <c r="C187" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="D187" s="25"/>
-      <c r="E187" s="26"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="26"/>
-      <c r="B188" s="26"/>
-      <c r="C188" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="D188" s="25"/>
-      <c r="E188" s="26"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="26"/>
-      <c r="B189" s="26"/>
-      <c r="C189" s="26" t="s">
-        <v>367</v>
-      </c>
-      <c r="D189" s="25"/>
-      <c r="E189" s="26"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="26"/>
-      <c r="B190" s="26"/>
-      <c r="C190" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="D190" s="25"/>
-      <c r="E190" s="26"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="26"/>
-      <c r="B191" s="26"/>
-      <c r="C191" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="D191" s="25"/>
-      <c r="E191" s="26"/>
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" s="24"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="26"/>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="D192" s="25"/>
-      <c r="E192" s="26"/>
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="26"/>
-      <c r="B193" s="26"/>
-      <c r="C193" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="D193" s="25"/>
-      <c r="E193" s="26"/>
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="26"/>
-      <c r="B194" s="26"/>
-      <c r="C194" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="D194" s="25"/>
-      <c r="E194" s="26"/>
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D194" s="24"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="26"/>
-      <c r="B195" s="26"/>
-      <c r="C195" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="D195" s="25"/>
-      <c r="E195" s="26"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D195" s="24"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="26"/>
-      <c r="B196" s="26"/>
-      <c r="C196" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="D196" s="25"/>
-      <c r="E196" s="26"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="26"/>
-      <c r="B197" s="26"/>
-      <c r="C197" s="26" t="s">
-        <v>375</v>
-      </c>
-      <c r="D197" s="25"/>
-      <c r="E197" s="26"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="26"/>
-      <c r="B198" s="26"/>
-      <c r="C198" s="26" t="s">
-        <v>376</v>
-      </c>
-      <c r="D198" s="25"/>
-      <c r="E198" s="26"/>
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D198" s="24"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="26"/>
-      <c r="B199" s="26"/>
-      <c r="C199" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="D199" s="25"/>
-      <c r="E199" s="26"/>
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D199" s="24"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="26"/>
-      <c r="B200" s="26"/>
-      <c r="C200" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="D200" s="25"/>
-      <c r="E200" s="26"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D200" s="24"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="26"/>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D201" s="25"/>
-      <c r="E201" s="26"/>
+      <c r="A201" s="25"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D201" s="24"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="26"/>
-      <c r="B202" s="26"/>
-      <c r="C202" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="D202" s="25"/>
-      <c r="E202" s="26"/>
+      <c r="A202" s="25"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D202" s="24"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="26"/>
-      <c r="B203" s="26"/>
-      <c r="C203" s="26" t="s">
-        <v>381</v>
-      </c>
-      <c r="D203" s="25"/>
-      <c r="E203" s="26"/>
+      <c r="A203" s="25"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203" s="24"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="26"/>
-      <c r="B204" s="26"/>
-      <c r="C204" s="26" t="s">
-        <v>382</v>
-      </c>
-      <c r="D204" s="25"/>
-      <c r="E204" s="26"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D204" s="24"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="26"/>
-      <c r="B205" s="26"/>
-      <c r="C205" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="D205" s="25"/>
-      <c r="E205" s="26"/>
+      <c r="A205" s="25"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" s="24"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="26"/>
-      <c r="B206" s="26"/>
-      <c r="C206" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="D206" s="25"/>
-      <c r="E206" s="26"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D206" s="24"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="26"/>
-      <c r="B207" s="26"/>
-      <c r="C207" s="26" t="s">
-        <v>385</v>
-      </c>
-      <c r="D207" s="25"/>
-      <c r="E207" s="26"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D207" s="24"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="26"/>
-      <c r="B208" s="26"/>
-      <c r="C208" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="D208" s="25"/>
-      <c r="E208" s="26"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D208" s="24"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="26"/>
-      <c r="B209" s="26"/>
-      <c r="C209" s="26" t="s">
-        <v>387</v>
-      </c>
-      <c r="D209" s="25"/>
-      <c r="E209" s="26"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D209" s="24"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="26"/>
-      <c r="B210" s="26"/>
-      <c r="C210" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="D210" s="25"/>
-      <c r="E210" s="26"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D210" s="24"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="26"/>
-      <c r="B211" s="26"/>
-      <c r="C211" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="D211" s="25"/>
-      <c r="E211" s="26"/>
+      <c r="A211" s="25"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D211" s="24"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="26"/>
-      <c r="B212" s="26"/>
-      <c r="C212" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="D212" s="25"/>
-      <c r="E212" s="26"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D212" s="24"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="26"/>
-      <c r="B213" s="26"/>
-      <c r="C213" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="D213" s="25"/>
-      <c r="E213" s="26"/>
+      <c r="A213" s="25"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D213" s="24"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="26"/>
-      <c r="B214" s="26"/>
-      <c r="C214" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="D214" s="25"/>
-      <c r="E214" s="26"/>
+      <c r="A214" s="25"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" s="24"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="26"/>
-      <c r="B215" s="26"/>
-      <c r="C215" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="D215" s="25"/>
-      <c r="E215" s="26"/>
+      <c r="A215" s="25"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D215" s="24"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="26"/>
-      <c r="B216" s="26"/>
-      <c r="C216" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="D216" s="25"/>
-      <c r="E216" s="26"/>
+      <c r="A216" s="25"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D216" s="24"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="26"/>
-      <c r="B217" s="26"/>
-      <c r="C217" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="D217" s="25"/>
-      <c r="E217" s="26"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D217" s="24"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="26"/>
-      <c r="B218" s="26"/>
-      <c r="C218" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="D218" s="25"/>
-      <c r="E218" s="26"/>
+      <c r="A218" s="25"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D218" s="24"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="26"/>
-      <c r="B219" s="26"/>
-      <c r="C219" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="D219" s="25"/>
-      <c r="E219" s="26"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D219" s="24"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="26"/>
-      <c r="B220" s="26"/>
-      <c r="C220" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="D220" s="25"/>
-      <c r="E220" s="26"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D220" s="24"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="26"/>
-      <c r="B221" s="26"/>
-      <c r="C221" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="D221" s="25"/>
-      <c r="E221" s="26"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D221" s="24"/>
+      <c r="E221" s="25"/>
     </row>
     <row r="222" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="26"/>
-      <c r="B222" s="26"/>
-      <c r="C222" s="26" t="s">
-        <v>400</v>
-      </c>
-      <c r="D222" s="25"/>
-      <c r="E222" s="26"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D222" s="24"/>
+      <c r="E222" s="25"/>
     </row>
     <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="26"/>
-      <c r="B223" s="26"/>
-      <c r="C223" s="26" t="s">
-        <v>401</v>
-      </c>
-      <c r="D223" s="25"/>
-      <c r="E223" s="26"/>
+      <c r="A223" s="25"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D223" s="24"/>
+      <c r="E223" s="25"/>
     </row>
     <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="26"/>
-      <c r="B224" s="26"/>
-      <c r="C224" s="26" t="s">
-        <v>402</v>
-      </c>
-      <c r="D224" s="25"/>
-      <c r="E224" s="26"/>
+      <c r="A224" s="25"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D224" s="24"/>
+      <c r="E224" s="25"/>
     </row>
     <row r="225" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="26"/>
-      <c r="B225" s="26"/>
-      <c r="C225" s="26" t="s">
-        <v>403</v>
-      </c>
-      <c r="D225" s="25"/>
-      <c r="E225" s="26"/>
+      <c r="A225" s="25"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D225" s="24"/>
+      <c r="E225" s="25"/>
     </row>
     <row r="226" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="26"/>
-      <c r="B226" s="26"/>
-      <c r="C226" s="26" t="s">
-        <v>404</v>
-      </c>
-      <c r="D226" s="25"/>
-      <c r="E226" s="26"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D226" s="24"/>
+      <c r="E226" s="25"/>
     </row>
     <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="26"/>
-      <c r="B227" s="26"/>
-      <c r="C227" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="D227" s="25"/>
-      <c r="E227" s="26"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D227" s="24"/>
+      <c r="E227" s="25"/>
     </row>
     <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="26"/>
-      <c r="B228" s="26"/>
-      <c r="C228" s="26" t="s">
-        <v>406</v>
-      </c>
-      <c r="D228" s="25"/>
-      <c r="E228" s="26"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D228" s="24"/>
+      <c r="E228" s="25"/>
     </row>
     <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="26"/>
-      <c r="B229" s="26"/>
-      <c r="C229" s="26" t="s">
-        <v>407</v>
-      </c>
-      <c r="D229" s="25"/>
-      <c r="E229" s="26"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D229" s="24"/>
+      <c r="E229" s="25"/>
     </row>
     <row r="230" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="26"/>
-      <c r="B230" s="26"/>
-      <c r="C230" s="26" t="s">
-        <v>408</v>
-      </c>
-      <c r="D230" s="25"/>
-      <c r="E230" s="26"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D230" s="24"/>
+      <c r="E230" s="25"/>
     </row>
     <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="26"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="26" t="s">
-        <v>409</v>
-      </c>
-      <c r="D231" s="25"/>
-      <c r="E231" s="26"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D231" s="24"/>
+      <c r="E231" s="25"/>
     </row>
     <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="26"/>
-      <c r="B232" s="26"/>
-      <c r="C232" s="26" t="s">
-        <v>410</v>
-      </c>
-      <c r="D232" s="25"/>
-      <c r="E232" s="26"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D232" s="24"/>
+      <c r="E232" s="25"/>
     </row>
     <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
-      <c r="C233" s="26" t="s">
-        <v>411</v>
-      </c>
-      <c r="D233" s="25"/>
-      <c r="E233" s="26"/>
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D233" s="24"/>
+      <c r="E233" s="25"/>
     </row>
     <row r="234" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="26"/>
-      <c r="B234" s="26"/>
-      <c r="C234" s="26" t="s">
-        <v>412</v>
-      </c>
-      <c r="D234" s="25"/>
-      <c r="E234" s="26"/>
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D234" s="24"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="26"/>
-      <c r="B235" s="26"/>
-      <c r="C235" s="26" t="s">
-        <v>413</v>
-      </c>
-      <c r="D235" s="25"/>
-      <c r="E235" s="26"/>
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D235" s="24"/>
+      <c r="E235" s="25"/>
     </row>
     <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="26"/>
-      <c r="B236" s="26"/>
-      <c r="C236" s="26" t="s">
-        <v>414</v>
-      </c>
-      <c r="D236" s="25"/>
-      <c r="E236" s="26"/>
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D236" s="24"/>
+      <c r="E236" s="25"/>
     </row>
     <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="26"/>
-      <c r="B237" s="26"/>
-      <c r="C237" s="26" t="s">
-        <v>415</v>
-      </c>
-      <c r="D237" s="25"/>
-      <c r="E237" s="26"/>
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D237" s="24"/>
+      <c r="E237" s="25"/>
     </row>
     <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="26"/>
-      <c r="B238" s="26"/>
-      <c r="C238" s="26" t="s">
-        <v>416</v>
-      </c>
-      <c r="D238" s="25"/>
-      <c r="E238" s="26"/>
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D238" s="24"/>
+      <c r="E238" s="25"/>
     </row>
     <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="26"/>
-      <c r="B239" s="26"/>
-      <c r="C239" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="D239" s="25"/>
-      <c r="E239" s="26"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D239" s="24"/>
+      <c r="E239" s="25"/>
     </row>
     <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="26"/>
-      <c r="B240" s="26"/>
-      <c r="C240" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="D240" s="25"/>
-      <c r="E240" s="26"/>
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D240" s="24"/>
+      <c r="E240" s="25"/>
     </row>
     <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="26"/>
-      <c r="B241" s="26"/>
-      <c r="C241" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="D241" s="25"/>
-      <c r="E241" s="26"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D241" s="24"/>
+      <c r="E241" s="25"/>
     </row>
     <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="26"/>
-      <c r="B242" s="26"/>
-      <c r="C242" s="26" t="s">
-        <v>420</v>
-      </c>
-      <c r="D242" s="25"/>
-      <c r="E242" s="26"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D242" s="24"/>
+      <c r="E242" s="25"/>
     </row>
     <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="26"/>
-      <c r="B243" s="26"/>
-      <c r="C243" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="D243" s="25"/>
-      <c r="E243" s="26"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D243" s="24"/>
+      <c r="E243" s="25"/>
     </row>
     <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="26"/>
-      <c r="B244" s="26"/>
-      <c r="C244" s="26" t="s">
-        <v>422</v>
-      </c>
-      <c r="D244" s="25"/>
-      <c r="E244" s="26"/>
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D244" s="24"/>
+      <c r="E244" s="25"/>
     </row>
     <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="26"/>
-      <c r="B245" s="26"/>
-      <c r="C245" s="26" t="s">
-        <v>423</v>
-      </c>
-      <c r="D245" s="25"/>
-      <c r="E245" s="26"/>
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D245" s="24"/>
+      <c r="E245" s="25"/>
     </row>
     <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="26"/>
-      <c r="B246" s="26"/>
-      <c r="C246" s="26" t="s">
-        <v>424</v>
-      </c>
-      <c r="D246" s="25"/>
-      <c r="E246" s="26"/>
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D246" s="24"/>
+      <c r="E246" s="25"/>
     </row>
     <row r="247" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="26"/>
-      <c r="B247" s="26"/>
-      <c r="C247" s="26" t="s">
-        <v>425</v>
-      </c>
-      <c r="D247" s="25"/>
-      <c r="E247" s="26"/>
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D247" s="24"/>
+      <c r="E247" s="25"/>
     </row>
     <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="26"/>
-      <c r="B248" s="26"/>
-      <c r="C248" s="26" t="s">
-        <v>426</v>
-      </c>
-      <c r="D248" s="25"/>
-      <c r="E248" s="26"/>
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D248" s="24"/>
+      <c r="E248" s="25"/>
     </row>
     <row r="249" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="26"/>
-      <c r="B249" s="26"/>
-      <c r="C249" s="26" t="s">
-        <v>427</v>
-      </c>
-      <c r="D249" s="25"/>
-      <c r="E249" s="26"/>
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D249" s="24"/>
+      <c r="E249" s="25"/>
     </row>
     <row r="250" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="26"/>
-      <c r="B250" s="26"/>
-      <c r="C250" s="26" t="s">
-        <v>428</v>
-      </c>
-      <c r="D250" s="25"/>
-      <c r="E250" s="26"/>
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D250" s="24"/>
+      <c r="E250" s="25"/>
     </row>
     <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="26"/>
-      <c r="B251" s="26"/>
-      <c r="C251" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="D251" s="25"/>
-      <c r="E251" s="26"/>
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D251" s="24"/>
+      <c r="E251" s="25"/>
     </row>
     <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="26"/>
-      <c r="B252" s="26"/>
-      <c r="C252" s="26" t="s">
-        <v>430</v>
-      </c>
-      <c r="D252" s="25"/>
-      <c r="E252" s="26"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D252" s="24"/>
+      <c r="E252" s="25"/>
     </row>
     <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="26"/>
-      <c r="B253" s="26"/>
-      <c r="C253" s="26" t="s">
-        <v>431</v>
-      </c>
-      <c r="D253" s="25"/>
-      <c r="E253" s="26"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D253" s="24"/>
+      <c r="E253" s="25"/>
     </row>
     <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="26"/>
-      <c r="B254" s="26"/>
-      <c r="C254" s="26" t="s">
-        <v>432</v>
-      </c>
-      <c r="D254" s="25"/>
-      <c r="E254" s="26"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D254" s="24"/>
+      <c r="E254" s="25"/>
     </row>
     <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="26"/>
-      <c r="B255" s="26"/>
-      <c r="C255" s="26" t="s">
-        <v>433</v>
-      </c>
-      <c r="D255" s="25"/>
-      <c r="E255" s="26"/>
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D255" s="24"/>
+      <c r="E255" s="25"/>
     </row>
     <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="26"/>
-      <c r="B256" s="26"/>
-      <c r="C256" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="D256" s="25"/>
-      <c r="E256" s="26"/>
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D256" s="24"/>
+      <c r="E256" s="25"/>
     </row>
     <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="437">
   <si>
     <t xml:space="preserve">Film Library Metadata</t>
   </si>
@@ -216,6 +216,42 @@
 (list of choice)</t>
   </si>
   <si>
+    <t xml:space="preserve">Screener link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo reel link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trailer link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitch teaser link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scenario link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Production status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theatrical release ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image bannière (rectangulaire) link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Agent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sales Agent logo (image URL) link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved territories</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENRES</t>
   </si>
   <si>
@@ -1368,7 +1404,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MM/DD/YYYY"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1467,7 +1503,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1490,6 +1526,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
         <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00864B"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1569,7 +1611,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1642,6 +1684,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1698,7 +1744,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00864B"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1751,10 +1797,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE10"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X13" activeCellId="0" sqref="X13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AI11" activeCellId="0" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1776,10 +1822,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="26" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="29.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="31" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="34" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="37" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="31" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="18.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="35" style="0" width="22.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="39" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1854,6 +1900,7 @@
       <c r="AC9" s="11"/>
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
@@ -1948,6 +1995,42 @@
       </c>
       <c r="AE10" s="15" t="s">
         <v>42</v>
+      </c>
+      <c r="AF10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG10" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI10" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK10" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM10" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN10" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ10" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2000,2550 +2083,2550 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="19" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="19" width="34.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="34.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>47</v>
+      <c r="A1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>52</v>
+      <c r="A2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>57</v>
+      <c r="A3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24" t="s">
-        <v>61</v>
+      <c r="A4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>65</v>
+      <c r="A5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>69</v>
+      <c r="A6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>73</v>
+      <c r="A7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>77</v>
+      <c r="A8" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>81</v>
+      <c r="A9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>85</v>
+      <c r="A10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>89</v>
+      <c r="A11" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>93</v>
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>97</v>
+      <c r="A13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>101</v>
+      <c r="A14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>105</v>
+      <c r="A15" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>109</v>
+      <c r="A16" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>113</v>
+      <c r="A17" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>117</v>
+      <c r="A18" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>121</v>
+      <c r="A19" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24"/>
-      <c r="B20" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>124</v>
+      <c r="A20" s="25"/>
+      <c r="B20" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>127</v>
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>129</v>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24" t="s">
-        <v>131</v>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24" t="s">
-        <v>133</v>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24" t="s">
-        <v>135</v>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24" t="s">
-        <v>137</v>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24" t="s">
-        <v>139</v>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24" t="s">
-        <v>141</v>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24" t="s">
-        <v>143</v>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24" t="s">
-        <v>145</v>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24" t="s">
-        <v>147</v>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24" t="s">
-        <v>149</v>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24" t="s">
-        <v>151</v>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24" t="s">
-        <v>153</v>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24" t="s">
-        <v>155</v>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24" t="s">
-        <v>157</v>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24" t="s">
-        <v>159</v>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24" t="s">
-        <v>161</v>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24" t="s">
-        <v>163</v>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24" t="s">
-        <v>165</v>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24" t="s">
-        <v>167</v>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="25" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24" t="s">
-        <v>169</v>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24"/>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24" t="s">
-        <v>171</v>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24" t="s">
-        <v>173</v>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24" t="s">
-        <v>175</v>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24" t="s">
-        <v>177</v>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24" t="s">
-        <v>179</v>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24" t="s">
-        <v>181</v>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24" t="s">
-        <v>183</v>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24" t="s">
-        <v>185</v>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24" t="s">
-        <v>187</v>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24" t="s">
-        <v>189</v>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24" t="s">
-        <v>191</v>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24" t="s">
-        <v>193</v>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24" t="s">
-        <v>195</v>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24" t="s">
-        <v>197</v>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24" t="s">
-        <v>199</v>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24" t="s">
-        <v>201</v>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24" t="s">
-        <v>203</v>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24" t="s">
-        <v>205</v>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24" t="s">
-        <v>207</v>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24" t="s">
-        <v>209</v>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24" t="s">
-        <v>211</v>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24" t="s">
-        <v>213</v>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24" t="s">
-        <v>215</v>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24" t="s">
-        <v>217</v>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24" t="s">
-        <v>219</v>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24" t="s">
-        <v>221</v>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24" t="s">
-        <v>223</v>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="24"/>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24" t="s">
-        <v>225</v>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D70" s="24"/>
+      <c r="E70" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="24"/>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24" t="s">
-        <v>227</v>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="24"/>
+      <c r="E71" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="24"/>
-      <c r="B72" s="24"/>
-      <c r="C72" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24" t="s">
-        <v>229</v>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="24"/>
+      <c r="E72" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="24"/>
-      <c r="B73" s="24"/>
-      <c r="C73" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24" t="s">
-        <v>231</v>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D73" s="24"/>
+      <c r="E73" s="25" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="24"/>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24" t="s">
-        <v>233</v>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="24"/>
+      <c r="E74" s="25" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24" t="s">
-        <v>235</v>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="24"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24" t="s">
-        <v>237</v>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="24"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="D77" s="23"/>
-      <c r="E77" s="24" t="s">
-        <v>239</v>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="24"/>
-      <c r="B78" s="24"/>
-      <c r="C78" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="23"/>
-      <c r="E78" s="24" t="s">
-        <v>241</v>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24"/>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="24" t="s">
-        <v>243</v>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24" t="s">
-        <v>244</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24" t="s">
-        <v>245</v>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
-      <c r="C81" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24" t="s">
-        <v>247</v>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="24"/>
-      <c r="B82" s="24"/>
-      <c r="C82" s="24" t="s">
-        <v>248</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24" t="s">
-        <v>249</v>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="24"/>
-      <c r="B83" s="24"/>
-      <c r="C83" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24" t="s">
-        <v>251</v>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="24"/>
+      <c r="E83" s="25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="24"/>
-      <c r="B84" s="24"/>
-      <c r="C84" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="D84" s="23"/>
-      <c r="E84" s="24"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="24"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" s="23"/>
-      <c r="E85" s="24"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D86" s="23"/>
-      <c r="E86" s="24"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="24"/>
-      <c r="B87" s="24"/>
-      <c r="C87" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="D87" s="23"/>
-      <c r="E87" s="24"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="24"/>
-      <c r="B88" s="24"/>
-      <c r="C88" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="D88" s="23"/>
-      <c r="E88" s="24"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24"/>
-      <c r="C89" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="D89" s="23"/>
-      <c r="E89" s="24"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24"/>
-      <c r="C90" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D90" s="23"/>
-      <c r="E90" s="24"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="24"/>
-      <c r="B91" s="24"/>
-      <c r="C91" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" s="23"/>
-      <c r="E91" s="24"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="24"/>
-      <c r="B92" s="24"/>
-      <c r="C92" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="D92" s="23"/>
-      <c r="E92" s="24"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="24"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="24"/>
-      <c r="B93" s="24"/>
-      <c r="C93" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="D93" s="23"/>
-      <c r="E93" s="24"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="24"/>
-      <c r="B94" s="24"/>
-      <c r="C94" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="23"/>
-      <c r="E94" s="24"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" s="24"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="24"/>
-      <c r="B95" s="24"/>
-      <c r="C95" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="D95" s="23"/>
-      <c r="E95" s="24"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="24"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="24"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="D96" s="23"/>
-      <c r="E96" s="24"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="24"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="D97" s="23"/>
-      <c r="E97" s="24"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="D97" s="24"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="D98" s="23"/>
-      <c r="E98" s="24"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" s="24"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="24"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="D99" s="23"/>
-      <c r="E99" s="24"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="24"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="D100" s="23"/>
-      <c r="E100" s="24"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="24"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D101" s="23"/>
-      <c r="E101" s="24"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="C101" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="24"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="D102" s="23"/>
-      <c r="E102" s="24"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="C102" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="24"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D103" s="23"/>
-      <c r="E103" s="24"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="C103" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="24"/>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="24"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="24"/>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24" t="s">
-        <v>273</v>
-      </c>
-      <c r="D105" s="23"/>
-      <c r="E105" s="24"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="D105" s="24"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="24"/>
-      <c r="B106" s="24"/>
-      <c r="C106" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D106" s="23"/>
-      <c r="E106" s="24"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="24"/>
-      <c r="B107" s="24"/>
-      <c r="C107" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D107" s="24"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="24"/>
-      <c r="B108" s="24"/>
-      <c r="C108" s="24" t="s">
-        <v>276</v>
-      </c>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D108" s="24"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="24"/>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="C109" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="24"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="24"/>
-      <c r="B110" s="24"/>
-      <c r="C110" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="D110" s="23"/>
-      <c r="E110" s="24"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="D110" s="24"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="24"/>
-      <c r="B111" s="24"/>
-      <c r="C111" s="24" t="s">
-        <v>279</v>
-      </c>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="24"/>
-      <c r="B112" s="24"/>
-      <c r="C112" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="24"/>
-      <c r="B113" s="24"/>
-      <c r="C113" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" s="24"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="24"/>
-      <c r="B114" s="24"/>
-      <c r="C114" s="24" t="s">
-        <v>282</v>
-      </c>
-      <c r="D114" s="23"/>
-      <c r="E114" s="24"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="C114" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="24"/>
-      <c r="B115" s="24"/>
-      <c r="C115" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="C115" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D115" s="24"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="24"/>
-      <c r="B116" s="24"/>
-      <c r="C116" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D116" s="24"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="24"/>
-      <c r="B117" s="24"/>
-      <c r="C117" s="24" t="s">
-        <v>285</v>
-      </c>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="C117" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="24"/>
-      <c r="B118" s="24"/>
-      <c r="C118" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D118" s="23"/>
-      <c r="E118" s="24"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D118" s="24"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="24"/>
-      <c r="B119" s="24"/>
-      <c r="C119" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="24"/>
-      <c r="B120" s="24"/>
-      <c r="C120" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="24"/>
-      <c r="B121" s="24"/>
-      <c r="C121" s="24" t="s">
-        <v>289</v>
-      </c>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="C121" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="D121" s="24"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="24"/>
-      <c r="B122" s="24"/>
-      <c r="C122" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="D122" s="23"/>
-      <c r="E122" s="24"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="C122" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="D122" s="24"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="24"/>
-      <c r="B123" s="24"/>
-      <c r="C123" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="D123" s="24"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="24"/>
-      <c r="B124" s="24"/>
-      <c r="C124" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D124" s="24"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="24"/>
-      <c r="B125" s="24"/>
-      <c r="C125" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="C125" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="24"/>
-      <c r="B126" s="24"/>
-      <c r="C126" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="D126" s="23"/>
-      <c r="E126" s="24"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="C126" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D126" s="24"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="24"/>
-      <c r="B127" s="24"/>
-      <c r="C127" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="D127" s="23"/>
-      <c r="E127" s="24"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="24"/>
-      <c r="B128" s="24"/>
-      <c r="C128" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D128" s="24"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="24"/>
-      <c r="B129" s="24"/>
-      <c r="C129" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="C129" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="D129" s="24"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="24"/>
-      <c r="B130" s="24"/>
-      <c r="C130" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="D130" s="23"/>
-      <c r="E130" s="24"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="C130" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="24"/>
-      <c r="B131" s="24"/>
-      <c r="C131" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="D131" s="23"/>
-      <c r="E131" s="24"/>
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="C131" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="24"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="24"/>
-      <c r="B132" s="24"/>
-      <c r="C132" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="D132" s="23"/>
-      <c r="E132" s="24"/>
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="D132" s="24"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="24"/>
-      <c r="B133" s="24"/>
-      <c r="C133" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="D133" s="23"/>
-      <c r="E133" s="24"/>
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="C133" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="24"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="24"/>
-      <c r="B134" s="24"/>
-      <c r="C134" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="D134" s="23"/>
-      <c r="E134" s="24"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="D134" s="24"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="24"/>
-      <c r="B135" s="24"/>
-      <c r="C135" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="D135" s="23"/>
-      <c r="E135" s="24"/>
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="D135" s="24"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="24"/>
-      <c r="B136" s="24"/>
-      <c r="C136" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="D136" s="23"/>
-      <c r="E136" s="24"/>
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="D136" s="24"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="24"/>
-      <c r="B137" s="24"/>
-      <c r="C137" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="D137" s="23"/>
-      <c r="E137" s="24"/>
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="24"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="24"/>
-      <c r="B138" s="24"/>
-      <c r="C138" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="D138" s="23"/>
-      <c r="E138" s="24"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="24"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="24"/>
-      <c r="B139" s="24"/>
-      <c r="C139" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D139" s="23"/>
-      <c r="E139" s="24"/>
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="D139" s="24"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="24"/>
-      <c r="B140" s="24"/>
-      <c r="C140" s="24" t="s">
-        <v>308</v>
-      </c>
-      <c r="D140" s="23"/>
-      <c r="E140" s="24"/>
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="D140" s="24"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="24"/>
-      <c r="B141" s="24"/>
-      <c r="C141" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="D141" s="23"/>
-      <c r="E141" s="24"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D141" s="24"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="24"/>
-      <c r="B142" s="24"/>
-      <c r="C142" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="D142" s="23"/>
-      <c r="E142" s="24"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D142" s="24"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="24"/>
-      <c r="B143" s="24"/>
-      <c r="C143" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="D143" s="23"/>
-      <c r="E143" s="24"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="D143" s="24"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="24"/>
-      <c r="B144" s="24"/>
-      <c r="C144" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="D144" s="23"/>
-      <c r="E144" s="24"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D144" s="24"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="24"/>
-      <c r="B145" s="24"/>
-      <c r="C145" s="24" t="s">
-        <v>313</v>
-      </c>
-      <c r="D145" s="23"/>
-      <c r="E145" s="24"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="24"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="24"/>
-      <c r="B146" s="24"/>
-      <c r="C146" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="D146" s="23"/>
-      <c r="E146" s="24"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="D146" s="24"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="24"/>
-      <c r="B147" s="24"/>
-      <c r="C147" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="D147" s="23"/>
-      <c r="E147" s="24"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="D147" s="24"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="24"/>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148" s="23"/>
-      <c r="E148" s="24"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="D148" s="24"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="24"/>
-      <c r="B149" s="24"/>
-      <c r="C149" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="D149" s="23"/>
-      <c r="E149" s="24"/>
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="D149" s="24"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="24"/>
-      <c r="B150" s="24"/>
-      <c r="C150" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D150" s="23"/>
-      <c r="E150" s="24"/>
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="C150" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D150" s="24"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="24"/>
-      <c r="B151" s="24"/>
-      <c r="C151" s="24" t="s">
-        <v>319</v>
-      </c>
-      <c r="D151" s="23"/>
-      <c r="E151" s="24"/>
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="C151" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D151" s="24"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="24"/>
-      <c r="B152" s="24"/>
-      <c r="C152" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="D152" s="23"/>
-      <c r="E152" s="24"/>
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="C152" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="D152" s="24"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="24"/>
-      <c r="B153" s="24"/>
-      <c r="C153" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="D153" s="23"/>
-      <c r="E153" s="24"/>
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="C153" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="D153" s="24"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="24"/>
-      <c r="B154" s="24"/>
-      <c r="C154" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="D154" s="23"/>
-      <c r="E154" s="24"/>
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="C154" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D154" s="24"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="24"/>
-      <c r="B155" s="24"/>
-      <c r="C155" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="24"/>
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="C155" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="D155" s="24"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="D156" s="23"/>
-      <c r="E156" s="24"/>
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="C156" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="D156" s="24"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D157" s="23"/>
-      <c r="E157" s="24"/>
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="C157" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="D157" s="24"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="D158" s="23"/>
-      <c r="E158" s="24"/>
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="C158" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D158" s="24"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="D159" s="23"/>
-      <c r="E159" s="24"/>
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="C159" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D159" s="24"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D160" s="23"/>
-      <c r="E160" s="24"/>
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="C160" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D160" s="24"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="D161" s="23"/>
-      <c r="E161" s="24"/>
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" s="24"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="D162" s="23"/>
-      <c r="E162" s="24"/>
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="C162" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D162" s="24"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="24"/>
-      <c r="B163" s="24"/>
-      <c r="C163" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="D163" s="23"/>
-      <c r="E163" s="24"/>
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D163" s="24"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="24"/>
-      <c r="B164" s="24"/>
-      <c r="C164" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D164" s="23"/>
-      <c r="E164" s="24"/>
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="C164" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D164" s="24"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="D165" s="23"/>
-      <c r="E165" s="24"/>
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="C165" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D165" s="24"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="24"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="D166" s="23"/>
-      <c r="E166" s="24"/>
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="C166" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D166" s="24"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D167" s="23"/>
-      <c r="E167" s="24"/>
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="C167" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="D167" s="24"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D168" s="23"/>
-      <c r="E168" s="24"/>
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="C168" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="D168" s="24"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="24" t="s">
-        <v>337</v>
-      </c>
-      <c r="D169" s="23"/>
-      <c r="E169" s="24"/>
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="C169" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="D169" s="24"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="24"/>
-      <c r="B170" s="24"/>
-      <c r="C170" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="D170" s="23"/>
-      <c r="E170" s="24"/>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="C170" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="D170" s="24"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="24"/>
-      <c r="B171" s="24"/>
-      <c r="C171" s="24" t="s">
-        <v>339</v>
-      </c>
-      <c r="D171" s="23"/>
-      <c r="E171" s="24"/>
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="C171" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D171" s="24"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="24"/>
-      <c r="B172" s="24"/>
-      <c r="C172" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="D172" s="23"/>
-      <c r="E172" s="24"/>
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="C172" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="D172" s="24"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="24"/>
-      <c r="B173" s="24"/>
-      <c r="C173" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="D173" s="23"/>
-      <c r="E173" s="24"/>
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="D173" s="24"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="24"/>
-      <c r="B174" s="24"/>
-      <c r="C174" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="D174" s="23"/>
-      <c r="E174" s="24"/>
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="C174" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="D174" s="24"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="24"/>
-      <c r="B175" s="24"/>
-      <c r="C175" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D175" s="23"/>
-      <c r="E175" s="24"/>
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="C175" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="D175" s="24"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="24"/>
-      <c r="B176" s="24"/>
-      <c r="C176" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="D176" s="23"/>
-      <c r="E176" s="24"/>
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="C176" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="D176" s="24"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="24"/>
-      <c r="B177" s="24"/>
-      <c r="C177" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="D177" s="23"/>
-      <c r="E177" s="24"/>
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="C177" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D177" s="24"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="24"/>
-      <c r="B178" s="24"/>
-      <c r="C178" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="D178" s="23"/>
-      <c r="E178" s="24"/>
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="C178" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="D178" s="24"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="24"/>
-      <c r="B179" s="24"/>
-      <c r="C179" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="D179" s="23"/>
-      <c r="E179" s="24"/>
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="C179" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D179" s="24"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="24"/>
-      <c r="B180" s="24"/>
-      <c r="C180" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D180" s="23"/>
-      <c r="E180" s="24"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="C180" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D180" s="24"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="24"/>
-      <c r="B181" s="24"/>
-      <c r="C181" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="D181" s="23"/>
-      <c r="E181" s="24"/>
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="D181" s="24"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="24"/>
-      <c r="B182" s="24"/>
-      <c r="C182" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="D182" s="23"/>
-      <c r="E182" s="24"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="C182" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D182" s="24"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="24"/>
-      <c r="B183" s="24"/>
-      <c r="C183" s="24" t="s">
-        <v>351</v>
-      </c>
-      <c r="D183" s="23"/>
-      <c r="E183" s="24"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="C183" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D183" s="24"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="24"/>
-      <c r="B184" s="24"/>
-      <c r="C184" s="24" t="s">
-        <v>352</v>
-      </c>
-      <c r="D184" s="23"/>
-      <c r="E184" s="24"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="C184" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D184" s="24"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="24"/>
-      <c r="B185" s="24"/>
-      <c r="C185" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="D185" s="23"/>
-      <c r="E185" s="24"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="C185" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="D185" s="24"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="24"/>
-      <c r="B186" s="24"/>
-      <c r="C186" s="24" t="s">
-        <v>354</v>
-      </c>
-      <c r="D186" s="23"/>
-      <c r="E186" s="24"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="C186" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D186" s="24"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="24"/>
-      <c r="B187" s="24"/>
-      <c r="C187" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="D187" s="23"/>
-      <c r="E187" s="24"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="C187" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D187" s="24"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="24"/>
-      <c r="B188" s="24"/>
-      <c r="C188" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="D188" s="23"/>
-      <c r="E188" s="24"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="C188" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="D188" s="24"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="24"/>
-      <c r="B189" s="24"/>
-      <c r="C189" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="D189" s="23"/>
-      <c r="E189" s="24"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="C189" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="D189" s="24"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="24"/>
-      <c r="B190" s="24"/>
-      <c r="C190" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D190" s="23"/>
-      <c r="E190" s="24"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="C190" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D190" s="24"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="24"/>
-      <c r="B191" s="24"/>
-      <c r="C191" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="D191" s="23"/>
-      <c r="E191" s="24"/>
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="C191" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" s="24"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="24"/>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="D192" s="23"/>
-      <c r="E192" s="24"/>
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="C192" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D192" s="24"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="24"/>
-      <c r="B193" s="24"/>
-      <c r="C193" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="D193" s="23"/>
-      <c r="E193" s="24"/>
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="C193" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D193" s="24"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="24"/>
-      <c r="B194" s="24"/>
-      <c r="C194" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="D194" s="23"/>
-      <c r="E194" s="24"/>
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="D194" s="24"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="24"/>
-      <c r="B195" s="24"/>
-      <c r="C195" s="24" t="s">
-        <v>363</v>
-      </c>
-      <c r="D195" s="23"/>
-      <c r="E195" s="24"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="C195" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="D195" s="24"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="24"/>
-      <c r="B196" s="24"/>
-      <c r="C196" s="24" t="s">
-        <v>364</v>
-      </c>
-      <c r="D196" s="23"/>
-      <c r="E196" s="24"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="C196" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D196" s="24"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="24"/>
-      <c r="B197" s="24"/>
-      <c r="C197" s="24" t="s">
-        <v>365</v>
-      </c>
-      <c r="D197" s="23"/>
-      <c r="E197" s="24"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="C197" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D197" s="24"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="24"/>
-      <c r="B198" s="24"/>
-      <c r="C198" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="D198" s="23"/>
-      <c r="E198" s="24"/>
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="C198" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="D198" s="24"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="24"/>
-      <c r="B199" s="24"/>
-      <c r="C199" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D199" s="23"/>
-      <c r="E199" s="24"/>
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="C199" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D199" s="24"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="24"/>
-      <c r="B200" s="24"/>
-      <c r="C200" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="D200" s="23"/>
-      <c r="E200" s="24"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
+      <c r="C200" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D200" s="24"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="24"/>
-      <c r="B201" s="24"/>
-      <c r="C201" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="D201" s="23"/>
-      <c r="E201" s="24"/>
+      <c r="A201" s="25"/>
+      <c r="B201" s="25"/>
+      <c r="C201" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D201" s="24"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="24"/>
-      <c r="B202" s="24"/>
-      <c r="C202" s="24" t="s">
-        <v>370</v>
-      </c>
-      <c r="D202" s="23"/>
-      <c r="E202" s="24"/>
+      <c r="A202" s="25"/>
+      <c r="B202" s="25"/>
+      <c r="C202" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D202" s="24"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="24"/>
-      <c r="B203" s="24"/>
-      <c r="C203" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D203" s="23"/>
-      <c r="E203" s="24"/>
+      <c r="A203" s="25"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D203" s="24"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="24"/>
-      <c r="B204" s="24"/>
-      <c r="C204" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="D204" s="23"/>
-      <c r="E204" s="24"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
+      <c r="C204" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D204" s="24"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="24"/>
-      <c r="B205" s="24"/>
-      <c r="C205" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D205" s="23"/>
-      <c r="E205" s="24"/>
+      <c r="A205" s="25"/>
+      <c r="B205" s="25"/>
+      <c r="C205" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" s="24"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="24"/>
-      <c r="B206" s="24"/>
-      <c r="C206" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D206" s="23"/>
-      <c r="E206" s="24"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
+      <c r="C206" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D206" s="24"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="24"/>
-      <c r="B207" s="24"/>
-      <c r="C207" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="D207" s="23"/>
-      <c r="E207" s="24"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
+      <c r="C207" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="D207" s="24"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="24"/>
-      <c r="B208" s="24"/>
-      <c r="C208" s="24" t="s">
-        <v>376</v>
-      </c>
-      <c r="D208" s="23"/>
-      <c r="E208" s="24"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
+      <c r="C208" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D208" s="24"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="24"/>
-      <c r="B209" s="24"/>
-      <c r="C209" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="D209" s="23"/>
-      <c r="E209" s="24"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
+      <c r="C209" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D209" s="24"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="24"/>
-      <c r="B210" s="24"/>
-      <c r="C210" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="D210" s="23"/>
-      <c r="E210" s="24"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
+      <c r="C210" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="D210" s="24"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="24"/>
-      <c r="B211" s="24"/>
-      <c r="C211" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="D211" s="23"/>
-      <c r="E211" s="24"/>
+      <c r="A211" s="25"/>
+      <c r="B211" s="25"/>
+      <c r="C211" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D211" s="24"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="24"/>
-      <c r="B212" s="24"/>
-      <c r="C212" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D212" s="23"/>
-      <c r="E212" s="24"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="25"/>
+      <c r="C212" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D212" s="24"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="24"/>
-      <c r="B213" s="24"/>
-      <c r="C213" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="D213" s="23"/>
-      <c r="E213" s="24"/>
+      <c r="A213" s="25"/>
+      <c r="B213" s="25"/>
+      <c r="C213" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="D213" s="24"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="24"/>
-      <c r="B214" s="24"/>
-      <c r="C214" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="D214" s="23"/>
-      <c r="E214" s="24"/>
+      <c r="A214" s="25"/>
+      <c r="B214" s="25"/>
+      <c r="C214" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D214" s="24"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="24"/>
-      <c r="B215" s="24"/>
-      <c r="C215" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D215" s="23"/>
-      <c r="E215" s="24"/>
+      <c r="A215" s="25"/>
+      <c r="B215" s="25"/>
+      <c r="C215" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="D215" s="24"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="24"/>
-      <c r="B216" s="24"/>
-      <c r="C216" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="D216" s="23"/>
-      <c r="E216" s="24"/>
+      <c r="A216" s="25"/>
+      <c r="B216" s="25"/>
+      <c r="C216" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D216" s="24"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="24"/>
-      <c r="B217" s="24"/>
-      <c r="C217" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D217" s="23"/>
-      <c r="E217" s="24"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="25"/>
+      <c r="C217" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D217" s="24"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="24"/>
-      <c r="B218" s="24"/>
-      <c r="C218" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D218" s="23"/>
-      <c r="E218" s="24"/>
+      <c r="A218" s="25"/>
+      <c r="B218" s="25"/>
+      <c r="C218" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D218" s="24"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="24"/>
-      <c r="B219" s="24"/>
-      <c r="C219" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="D219" s="23"/>
-      <c r="E219" s="24"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="25"/>
+      <c r="C219" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D219" s="24"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="24"/>
-      <c r="B220" s="24"/>
-      <c r="C220" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="D220" s="23"/>
-      <c r="E220" s="24"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="25"/>
+      <c r="C220" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D220" s="24"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="24"/>
-      <c r="B221" s="24"/>
-      <c r="C221" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D221" s="23"/>
-      <c r="E221" s="24"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="25"/>
+      <c r="C221" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D221" s="24"/>
+      <c r="E221" s="25"/>
     </row>
     <row r="222" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="24"/>
-      <c r="B222" s="24"/>
-      <c r="C222" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D222" s="23"/>
-      <c r="E222" s="24"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="25"/>
+      <c r="C222" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D222" s="24"/>
+      <c r="E222" s="25"/>
     </row>
     <row r="223" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="24"/>
-      <c r="B223" s="24"/>
-      <c r="C223" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="D223" s="23"/>
-      <c r="E223" s="24"/>
+      <c r="A223" s="25"/>
+      <c r="B223" s="25"/>
+      <c r="C223" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D223" s="24"/>
+      <c r="E223" s="25"/>
     </row>
     <row r="224" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="24"/>
-      <c r="B224" s="24"/>
-      <c r="C224" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="D224" s="23"/>
-      <c r="E224" s="24"/>
+      <c r="A224" s="25"/>
+      <c r="B224" s="25"/>
+      <c r="C224" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="D224" s="24"/>
+      <c r="E224" s="25"/>
     </row>
     <row r="225" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="24"/>
-      <c r="B225" s="24"/>
-      <c r="C225" s="24" t="s">
-        <v>393</v>
-      </c>
-      <c r="D225" s="23"/>
-      <c r="E225" s="24"/>
+      <c r="A225" s="25"/>
+      <c r="B225" s="25"/>
+      <c r="C225" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D225" s="24"/>
+      <c r="E225" s="25"/>
     </row>
     <row r="226" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="24"/>
-      <c r="B226" s="24"/>
-      <c r="C226" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="D226" s="23"/>
-      <c r="E226" s="24"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="25"/>
+      <c r="C226" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D226" s="24"/>
+      <c r="E226" s="25"/>
     </row>
     <row r="227" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="24"/>
-      <c r="B227" s="24"/>
-      <c r="C227" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D227" s="23"/>
-      <c r="E227" s="24"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="25"/>
+      <c r="C227" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="D227" s="24"/>
+      <c r="E227" s="25"/>
     </row>
     <row r="228" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="24"/>
-      <c r="B228" s="24"/>
-      <c r="C228" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="D228" s="23"/>
-      <c r="E228" s="24"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="25"/>
+      <c r="C228" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="D228" s="24"/>
+      <c r="E228" s="25"/>
     </row>
     <row r="229" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="24"/>
-      <c r="B229" s="24"/>
-      <c r="C229" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="D229" s="23"/>
-      <c r="E229" s="24"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D229" s="24"/>
+      <c r="E229" s="25"/>
     </row>
     <row r="230" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="24"/>
-      <c r="B230" s="24"/>
-      <c r="C230" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="D230" s="23"/>
-      <c r="E230" s="24"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="25"/>
+      <c r="C230" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="D230" s="24"/>
+      <c r="E230" s="25"/>
     </row>
     <row r="231" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="24"/>
-      <c r="B231" s="24"/>
-      <c r="C231" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D231" s="23"/>
-      <c r="E231" s="24"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="25"/>
+      <c r="C231" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="D231" s="24"/>
+      <c r="E231" s="25"/>
     </row>
     <row r="232" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="24"/>
-      <c r="B232" s="24"/>
-      <c r="C232" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="D232" s="23"/>
-      <c r="E232" s="24"/>
+      <c r="A232" s="25"/>
+      <c r="B232" s="25"/>
+      <c r="C232" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D232" s="24"/>
+      <c r="E232" s="25"/>
     </row>
     <row r="233" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="24"/>
-      <c r="B233" s="24"/>
-      <c r="C233" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="D233" s="23"/>
-      <c r="E233" s="24"/>
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
+      <c r="C233" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="D233" s="24"/>
+      <c r="E233" s="25"/>
     </row>
     <row r="234" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="24"/>
-      <c r="B234" s="24"/>
-      <c r="C234" s="24" t="s">
-        <v>402</v>
-      </c>
-      <c r="D234" s="23"/>
-      <c r="E234" s="24"/>
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
+      <c r="C234" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D234" s="24"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="24"/>
-      <c r="B235" s="24"/>
-      <c r="C235" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="D235" s="23"/>
-      <c r="E235" s="24"/>
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
+      <c r="C235" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D235" s="24"/>
+      <c r="E235" s="25"/>
     </row>
     <row r="236" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="24"/>
-      <c r="B236" s="24"/>
-      <c r="C236" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="D236" s="23"/>
-      <c r="E236" s="24"/>
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
+      <c r="C236" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="D236" s="24"/>
+      <c r="E236" s="25"/>
     </row>
     <row r="237" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="24"/>
-      <c r="B237" s="24"/>
-      <c r="C237" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="D237" s="23"/>
-      <c r="E237" s="24"/>
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
+      <c r="C237" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="D237" s="24"/>
+      <c r="E237" s="25"/>
     </row>
     <row r="238" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="24"/>
-      <c r="B238" s="24"/>
-      <c r="C238" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D238" s="23"/>
-      <c r="E238" s="24"/>
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
+      <c r="C238" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D238" s="24"/>
+      <c r="E238" s="25"/>
     </row>
     <row r="239" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="24"/>
-      <c r="B239" s="24"/>
-      <c r="C239" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="D239" s="23"/>
-      <c r="E239" s="24"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
+      <c r="C239" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="D239" s="24"/>
+      <c r="E239" s="25"/>
     </row>
     <row r="240" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="24"/>
-      <c r="B240" s="24"/>
-      <c r="C240" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="D240" s="23"/>
-      <c r="E240" s="24"/>
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
+      <c r="C240" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="D240" s="24"/>
+      <c r="E240" s="25"/>
     </row>
     <row r="241" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="24"/>
-      <c r="B241" s="24"/>
-      <c r="C241" s="24" t="s">
-        <v>409</v>
-      </c>
-      <c r="D241" s="23"/>
-      <c r="E241" s="24"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
+      <c r="C241" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D241" s="24"/>
+      <c r="E241" s="25"/>
     </row>
     <row r="242" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="24"/>
-      <c r="B242" s="24"/>
-      <c r="C242" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="D242" s="23"/>
-      <c r="E242" s="24"/>
+      <c r="A242" s="25"/>
+      <c r="B242" s="25"/>
+      <c r="C242" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="D242" s="24"/>
+      <c r="E242" s="25"/>
     </row>
     <row r="243" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="24"/>
-      <c r="B243" s="24"/>
-      <c r="C243" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="D243" s="23"/>
-      <c r="E243" s="24"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
+      <c r="C243" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D243" s="24"/>
+      <c r="E243" s="25"/>
     </row>
     <row r="244" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="24"/>
-      <c r="B244" s="24"/>
-      <c r="C244" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="D244" s="23"/>
-      <c r="E244" s="24"/>
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
+      <c r="C244" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D244" s="24"/>
+      <c r="E244" s="25"/>
     </row>
     <row r="245" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="24"/>
-      <c r="B245" s="24"/>
-      <c r="C245" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="D245" s="23"/>
-      <c r="E245" s="24"/>
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
+      <c r="C245" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="D245" s="24"/>
+      <c r="E245" s="25"/>
     </row>
     <row r="246" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="24"/>
-      <c r="B246" s="24"/>
-      <c r="C246" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="D246" s="23"/>
-      <c r="E246" s="24"/>
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
+      <c r="C246" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="D246" s="24"/>
+      <c r="E246" s="25"/>
     </row>
     <row r="247" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="24"/>
-      <c r="B247" s="24"/>
-      <c r="C247" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="D247" s="23"/>
-      <c r="E247" s="24"/>
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
+      <c r="C247" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D247" s="24"/>
+      <c r="E247" s="25"/>
     </row>
     <row r="248" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="24"/>
-      <c r="B248" s="24"/>
-      <c r="C248" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D248" s="23"/>
-      <c r="E248" s="24"/>
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
+      <c r="C248" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D248" s="24"/>
+      <c r="E248" s="25"/>
     </row>
     <row r="249" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="24"/>
-      <c r="B249" s="24"/>
-      <c r="C249" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="D249" s="23"/>
-      <c r="E249" s="24"/>
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
+      <c r="C249" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D249" s="24"/>
+      <c r="E249" s="25"/>
     </row>
     <row r="250" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="24"/>
-      <c r="B250" s="24"/>
-      <c r="C250" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="D250" s="23"/>
-      <c r="E250" s="24"/>
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
+      <c r="C250" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D250" s="24"/>
+      <c r="E250" s="25"/>
     </row>
     <row r="251" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="24"/>
-      <c r="B251" s="24"/>
-      <c r="C251" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="D251" s="23"/>
-      <c r="E251" s="24"/>
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
+      <c r="C251" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="D251" s="24"/>
+      <c r="E251" s="25"/>
     </row>
     <row r="252" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="24"/>
-      <c r="B252" s="24"/>
-      <c r="C252" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D252" s="23"/>
-      <c r="E252" s="24"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
+      <c r="C252" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D252" s="24"/>
+      <c r="E252" s="25"/>
     </row>
     <row r="253" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="24"/>
-      <c r="B253" s="24"/>
-      <c r="C253" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D253" s="23"/>
-      <c r="E253" s="24"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
+      <c r="C253" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D253" s="24"/>
+      <c r="E253" s="25"/>
     </row>
     <row r="254" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="24"/>
-      <c r="B254" s="24"/>
-      <c r="C254" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="D254" s="23"/>
-      <c r="E254" s="24"/>
+      <c r="A254" s="25"/>
+      <c r="B254" s="25"/>
+      <c r="C254" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D254" s="24"/>
+      <c r="E254" s="25"/>
     </row>
     <row r="255" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="24"/>
-      <c r="B255" s="24"/>
-      <c r="C255" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="D255" s="23"/>
-      <c r="E255" s="24"/>
+      <c r="A255" s="25"/>
+      <c r="B255" s="25"/>
+      <c r="C255" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D255" s="24"/>
+      <c r="E255" s="25"/>
     </row>
     <row r="256" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="24"/>
-      <c r="B256" s="24"/>
-      <c r="C256" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="D256" s="23"/>
-      <c r="E256" s="24"/>
+      <c r="A256" s="25"/>
+      <c r="B256" s="25"/>
+      <c r="C256" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D256" s="24"/>
+      <c r="E256" s="25"/>
     </row>
     <row r="257" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="258" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -194,7 +194,7 @@
   </si>
   <si>
     <t xml:space="preserve">Festival Prizes 
-(Festival name, Year, Selection/Prize)</t>
+(Festival name, Year, Selection/Prize, Festival Logo)</t>
   </si>
   <si>
     <t xml:space="preserve">Key Assets 
@@ -1799,8 +1799,8 @@
   </sheetPr>
   <dimension ref="A1:AQ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AI11" activeCellId="0" sqref="AI11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z14" activeCellId="0" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t xml:space="preserve">Stakeholders
-(name, role)</t>
+(name, rôle, [country])</t>
   </si>
   <si>
     <t xml:space="preserve">Color / Black &amp; White 
@@ -167,7 +167,8 @@
     <t xml:space="preserve">European Qualification (Yes or No)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rating</t>
+    <t xml:space="preserve">Ratings
+ (country, value, [system], [reason])</t>
   </si>
   <si>
     <t xml:space="preserve">Certifications 
@@ -189,7 +190,7 @@
   </si>
   <si>
     <t xml:space="preserve">Festival Prizes 
-(Festival name, Year, Selection/Prize, Premiere)</t>
+(Festival name, Year, Selection/Prize, Premiere, [logo])</t>
   </si>
   <si>
     <t xml:space="preserve">Key Assets 
@@ -1397,13 +1398,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
-    <numFmt numFmtId="167" formatCode="D/M/YYYY;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1477,29 +1476,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0563C1"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1523,7 +1499,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0B5394"/>
-        <bgColor rgb="FF0563C1"/>
+        <bgColor rgb="FF003366"/>
       </patternFill>
     </fill>
     <fill>
@@ -1584,7 +1560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1608,11 +1584,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1681,74 +1654,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1774,14 +1679,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1807,7 +1711,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FF0B5394"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1833,7 +1737,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF0B5394"/>
+      <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -1851,10 +1755,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO23"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="11:23"/>
+      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2082,402 +1986,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="17"/>
-      <c r="F11" s="19"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="25"/>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="26"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="21"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="21"/>
-      <c r="AO11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="F12" s="19"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="21"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="26"/>
-      <c r="AI12" s="25"/>
-      <c r="AJ12" s="17"/>
-      <c r="AK12" s="27"/>
-      <c r="AL12" s="21"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="25"/>
-      <c r="AO12" s="17"/>
-    </row>
-    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="17"/>
-      <c r="F13" s="19"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="26"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="17"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="21"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="17"/>
-    </row>
-    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="17"/>
-      <c r="F14" s="19"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="21"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
-      <c r="X14" s="17"/>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="17"/>
-      <c r="AK14" s="27"/>
-      <c r="AL14" s="21"/>
-      <c r="AM14" s="27"/>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="27"/>
-    </row>
-    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="F15" s="19"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="21"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="22"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="17"/>
-      <c r="AK15" s="27"/>
-      <c r="AL15" s="21"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="F16" s="19"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="21"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AK16" s="17"/>
-      <c r="AL16" s="21"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="F17" s="19"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="21"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="F18" s="19"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="27"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="17"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="21"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="25"/>
-      <c r="AO18" s="17"/>
-    </row>
-    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="F19" s="19"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="22"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="25"/>
-      <c r="AF19" s="25"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
-      <c r="AK19" s="17"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="25"/>
-      <c r="AO19" s="17"/>
-    </row>
-    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="F20" s="19"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="27"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="22"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="27"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
-      <c r="AK20" s="17"/>
-      <c r="AL20" s="21"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="17"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="I21" s="20"/>
-      <c r="L21" s="17"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="32"/>
-      <c r="AA21" s="17"/>
-      <c r="AJ21" s="17"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="33"/>
-      <c r="F22" s="19"/>
-      <c r="I22" s="20"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="32"/>
-      <c r="AA22" s="17"/>
-      <c r="AJ22" s="17"/>
-    </row>
+    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B2"/>
@@ -2523,2555 +2047,2555 @@
   <dimension ref="A1:E256"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C121" activeCellId="1" sqref="11:23 C121"/>
+      <selection pane="topLeft" activeCell="C121" activeCellId="0" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="34" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="35" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="34.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39" t="s">
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="22" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="22" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="22" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="22" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="22" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="22" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="22" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="22" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="22" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="22" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="22" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="22" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="22" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="39" t="s">
+      <c r="D23" s="21"/>
+      <c r="E23" s="22" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="39" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="39" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="22" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="39" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="22" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39" t="s">
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="22" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="22" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39" t="s">
+      <c r="D30" s="21"/>
+      <c r="E30" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39" t="s">
+      <c r="D31" s="21"/>
+      <c r="E31" s="22" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="D32" s="38"/>
-      <c r="E32" s="39" t="s">
+      <c r="D32" s="21"/>
+      <c r="E32" s="22" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39" t="s">
+      <c r="D33" s="21"/>
+      <c r="E33" s="22" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39" t="s">
+      <c r="D36" s="21"/>
+      <c r="E36" s="22" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="38"/>
-      <c r="E37" s="39" t="s">
+      <c r="D37" s="21"/>
+      <c r="E37" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="38"/>
-      <c r="E38" s="39" t="s">
+      <c r="D38" s="21"/>
+      <c r="E38" s="22" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="39" t="s">
+      <c r="D39" s="21"/>
+      <c r="E39" s="22" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39" t="s">
+      <c r="D41" s="21"/>
+      <c r="E41" s="22" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="38"/>
-      <c r="E42" s="39" t="s">
+      <c r="D42" s="21"/>
+      <c r="E42" s="22" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="22" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="39" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="22" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="39" t="s">
+      <c r="D45" s="21"/>
+      <c r="E45" s="22" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="38"/>
-      <c r="E46" s="39" t="s">
+      <c r="D46" s="21"/>
+      <c r="E46" s="22" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="39" t="s">
+      <c r="D47" s="21"/>
+      <c r="E47" s="22" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39" t="s">
+      <c r="D48" s="21"/>
+      <c r="E48" s="22" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39" t="s">
+      <c r="D49" s="21"/>
+      <c r="E49" s="22" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D50" s="38"/>
-      <c r="E50" s="39" t="s">
+      <c r="D50" s="21"/>
+      <c r="E50" s="22" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39" t="s">
+      <c r="D51" s="21"/>
+      <c r="E51" s="22" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22" t="s">
         <v>198</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39" t="s">
+      <c r="D52" s="21"/>
+      <c r="E52" s="22" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22" t="s">
         <v>200</v>
       </c>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39" t="s">
+      <c r="D53" s="21"/>
+      <c r="E53" s="22" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22" t="s">
         <v>202</v>
       </c>
-      <c r="D54" s="38"/>
-      <c r="E54" s="39" t="s">
+      <c r="D54" s="21"/>
+      <c r="E54" s="22" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39" t="s">
+      <c r="D55" s="21"/>
+      <c r="E55" s="22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22" t="s">
         <v>206</v>
       </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39" t="s">
+      <c r="D56" s="21"/>
+      <c r="E56" s="22" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39" t="s">
+      <c r="D57" s="21"/>
+      <c r="E57" s="22" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="39"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="39" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D58" s="38"/>
-      <c r="E58" s="39" t="s">
+      <c r="D58" s="21"/>
+      <c r="E58" s="22" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="39" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="39" t="s">
+      <c r="D59" s="21"/>
+      <c r="E59" s="22" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39"/>
-      <c r="C60" s="39" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39" t="s">
+      <c r="D60" s="21"/>
+      <c r="E60" s="22" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39"/>
-      <c r="C61" s="39" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="39" t="s">
+      <c r="D61" s="21"/>
+      <c r="E61" s="22" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="39" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="39" t="s">
+      <c r="D62" s="21"/>
+      <c r="E62" s="22" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39"/>
-      <c r="C63" s="39" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="39" t="s">
+      <c r="D63" s="21"/>
+      <c r="E63" s="22" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="39" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="39" t="s">
+      <c r="D64" s="21"/>
+      <c r="E64" s="22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39"/>
-      <c r="C65" s="39" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39" t="s">
+      <c r="D65" s="21"/>
+      <c r="E65" s="22" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="39" t="s">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="39" t="s">
+      <c r="D66" s="21"/>
+      <c r="E66" s="22" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39" t="s">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="39" t="s">
+      <c r="D67" s="21"/>
+      <c r="E67" s="22" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39" t="s">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="38"/>
-      <c r="E68" s="39" t="s">
+      <c r="D68" s="21"/>
+      <c r="E68" s="22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39"/>
-      <c r="C69" s="39" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="D69" s="38"/>
-      <c r="E69" s="39" t="s">
+      <c r="D69" s="21"/>
+      <c r="E69" s="22" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="39" t="s">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="38"/>
-      <c r="E70" s="39" t="s">
+      <c r="D70" s="21"/>
+      <c r="E70" s="22" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39"/>
-      <c r="C71" s="39" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="D71" s="38"/>
-      <c r="E71" s="39" t="s">
+      <c r="D71" s="21"/>
+      <c r="E71" s="22" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39"/>
-      <c r="C72" s="39" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="D72" s="38"/>
-      <c r="E72" s="39" t="s">
+      <c r="D72" s="21"/>
+      <c r="E72" s="22" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39"/>
-      <c r="C73" s="39" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="D73" s="38"/>
-      <c r="E73" s="39" t="s">
+      <c r="D73" s="21"/>
+      <c r="E73" s="22" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="39" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="D74" s="38"/>
-      <c r="E74" s="39" t="s">
+      <c r="D74" s="21"/>
+      <c r="E74" s="22" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D75" s="38"/>
-      <c r="E75" s="39" t="s">
+      <c r="D75" s="21"/>
+      <c r="E75" s="22" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="39" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="38"/>
-      <c r="E76" s="39" t="s">
+      <c r="D76" s="21"/>
+      <c r="E76" s="22" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39"/>
-      <c r="C77" s="39" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D77" s="38"/>
-      <c r="E77" s="39" t="s">
+      <c r="D77" s="21"/>
+      <c r="E77" s="22" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="39" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="D78" s="38"/>
-      <c r="E78" s="39" t="s">
+      <c r="D78" s="21"/>
+      <c r="E78" s="22" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="D79" s="38"/>
-      <c r="E79" s="39" t="s">
+      <c r="D79" s="21"/>
+      <c r="E79" s="22" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39"/>
-      <c r="C80" s="39" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="D80" s="38"/>
-      <c r="E80" s="39" t="s">
+      <c r="D80" s="21"/>
+      <c r="E80" s="22" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="39" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="39" t="s">
+      <c r="D81" s="21"/>
+      <c r="E81" s="22" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39"/>
-      <c r="C82" s="39" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="39" t="s">
+      <c r="D82" s="21"/>
+      <c r="E82" s="22" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39" t="s">
+      <c r="D83" s="21"/>
+      <c r="E83" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="39" t="s">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="D84" s="38"/>
-      <c r="E84" s="39"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="22"/>
     </row>
     <row r="85" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39"/>
-      <c r="C85" s="39" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="D85" s="38"/>
-      <c r="E85" s="39"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="22"/>
     </row>
     <row r="86" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="39"/>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="39"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="22"/>
     </row>
     <row r="87" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="39"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="39" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="38"/>
-      <c r="E87" s="39"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="22"/>
     </row>
     <row r="88" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="39"/>
-      <c r="B88" s="39"/>
-      <c r="C88" s="39" t="s">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="38"/>
-      <c r="E88" s="39"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="22"/>
     </row>
     <row r="89" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="39"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="39" t="s">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="D89" s="38"/>
-      <c r="E89" s="39"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="22"/>
     </row>
     <row r="90" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="39" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="22"/>
     </row>
     <row r="91" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="39"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39" t="s">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="D91" s="38"/>
-      <c r="E91" s="39"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="22"/>
     </row>
     <row r="92" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39"/>
-      <c r="B92" s="39"/>
-      <c r="C92" s="39" t="s">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="39"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="22"/>
     </row>
     <row r="93" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="39" t="s">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="38"/>
-      <c r="E93" s="39"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="22"/>
     </row>
     <row r="94" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="39"/>
-      <c r="B94" s="39"/>
-      <c r="C94" s="39" t="s">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="D94" s="38"/>
-      <c r="E94" s="39"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="22"/>
     </row>
     <row r="95" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="39"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39" t="s">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="D95" s="38"/>
-      <c r="E95" s="39"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="22"/>
     </row>
     <row r="96" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="39"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="39" t="s">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="D96" s="38"/>
-      <c r="E96" s="39"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="22"/>
     </row>
     <row r="97" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="39"/>
-      <c r="B97" s="39"/>
-      <c r="C97" s="39" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="D97" s="38"/>
-      <c r="E97" s="39"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="22"/>
     </row>
     <row r="98" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="39"/>
-      <c r="B98" s="39"/>
-      <c r="C98" s="39" t="s">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="D98" s="38"/>
-      <c r="E98" s="39"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="22"/>
     </row>
     <row r="99" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="39"/>
-      <c r="B99" s="39"/>
-      <c r="C99" s="39" t="s">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="D99" s="38"/>
-      <c r="E99" s="39"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="22"/>
     </row>
     <row r="100" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="39"/>
-      <c r="B100" s="39"/>
-      <c r="C100" s="39" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D100" s="38"/>
-      <c r="E100" s="39"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="22"/>
     </row>
     <row r="101" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="39"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="39" t="s">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="38"/>
-      <c r="E101" s="39"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="22"/>
     </row>
     <row r="102" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="39"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39" t="s">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="D102" s="38"/>
-      <c r="E102" s="39"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="22"/>
     </row>
     <row r="103" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="39"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39" t="s">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="39"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="22"/>
     </row>
     <row r="104" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="39"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="39" t="s">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="39"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="22"/>
     </row>
     <row r="105" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="39"/>
-      <c r="B105" s="39"/>
-      <c r="C105" s="39" t="s">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22" t="s">
         <v>283</v>
       </c>
-      <c r="D105" s="38"/>
-      <c r="E105" s="39"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="22"/>
     </row>
     <row r="106" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="39"/>
-      <c r="B106" s="39"/>
-      <c r="C106" s="39" t="s">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="D106" s="38"/>
-      <c r="E106" s="39"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="22"/>
     </row>
     <row r="107" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="39"/>
-      <c r="B107" s="39"/>
-      <c r="C107" s="39" t="s">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="38"/>
-      <c r="E107" s="39"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="22"/>
     </row>
     <row r="108" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="39"/>
-      <c r="B108" s="39"/>
-      <c r="C108" s="39" t="s">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="D108" s="38"/>
-      <c r="E108" s="39"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="22"/>
     </row>
     <row r="109" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="39"/>
-      <c r="B109" s="39"/>
-      <c r="C109" s="39" t="s">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="D109" s="38"/>
-      <c r="E109" s="39"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="22"/>
     </row>
     <row r="110" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="39"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="39" t="s">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22" t="s">
         <v>288</v>
       </c>
-      <c r="D110" s="38"/>
-      <c r="E110" s="39"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="22"/>
     </row>
     <row r="111" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="39"/>
-      <c r="B111" s="39"/>
-      <c r="C111" s="39" t="s">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="D111" s="38"/>
-      <c r="E111" s="39"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="22"/>
     </row>
     <row r="112" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="39"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="39" t="s">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="D112" s="38"/>
-      <c r="E112" s="39"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="22"/>
     </row>
     <row r="113" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="39"/>
-      <c r="B113" s="39"/>
-      <c r="C113" s="39" t="s">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="D113" s="38"/>
-      <c r="E113" s="39"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="22"/>
     </row>
     <row r="114" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="39"/>
-      <c r="B114" s="39"/>
-      <c r="C114" s="39" t="s">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="D114" s="38"/>
-      <c r="E114" s="39"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="22"/>
     </row>
     <row r="115" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="39"/>
-      <c r="B115" s="39"/>
-      <c r="C115" s="39" t="s">
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="D115" s="38"/>
-      <c r="E115" s="39"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="22"/>
     </row>
     <row r="116" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="39"/>
-      <c r="B116" s="39"/>
-      <c r="C116" s="39" t="s">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="D116" s="38"/>
-      <c r="E116" s="39"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="22"/>
     </row>
     <row r="117" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="39"/>
-      <c r="B117" s="39"/>
-      <c r="C117" s="39" t="s">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="D117" s="38"/>
-      <c r="E117" s="39"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="22"/>
     </row>
     <row r="118" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="39"/>
-      <c r="B118" s="39"/>
-      <c r="C118" s="39" t="s">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="D118" s="38"/>
-      <c r="E118" s="39"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="22"/>
     </row>
     <row r="119" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="39"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="39" t="s">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="D119" s="38"/>
-      <c r="E119" s="39"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="22"/>
     </row>
     <row r="120" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="39"/>
-      <c r="B120" s="39"/>
-      <c r="C120" s="39" t="s">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="39"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="22"/>
     </row>
     <row r="121" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="39"/>
-      <c r="B121" s="39"/>
-      <c r="C121" s="39" t="s">
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="D121" s="38"/>
-      <c r="E121" s="39"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="22"/>
     </row>
     <row r="122" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="39"/>
-      <c r="B122" s="39"/>
-      <c r="C122" s="39" t="s">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="D122" s="38"/>
-      <c r="E122" s="39"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="22"/>
     </row>
     <row r="123" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="39"/>
-      <c r="B123" s="39"/>
-      <c r="C123" s="39" t="s">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="D123" s="38"/>
-      <c r="E123" s="39"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="22"/>
     </row>
     <row r="124" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="39"/>
-      <c r="B124" s="39"/>
-      <c r="C124" s="39" t="s">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="D124" s="38"/>
-      <c r="E124" s="39"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="22"/>
     </row>
     <row r="125" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="39"/>
-      <c r="B125" s="39"/>
-      <c r="C125" s="39" t="s">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="39"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="22"/>
     </row>
     <row r="126" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="39"/>
-      <c r="B126" s="39"/>
-      <c r="C126" s="39" t="s">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="39"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="22"/>
     </row>
     <row r="127" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="39"/>
-      <c r="B127" s="39"/>
-      <c r="C127" s="39" t="s">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22" t="s">
         <v>305</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="39"/>
+      <c r="D127" s="21"/>
+      <c r="E127" s="22"/>
     </row>
     <row r="128" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="39"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="39" t="s">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="D128" s="38"/>
-      <c r="E128" s="39"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="22"/>
     </row>
     <row r="129" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="39"/>
-      <c r="B129" s="39"/>
-      <c r="C129" s="39" t="s">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22" t="s">
         <v>307</v>
       </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="39"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="22"/>
     </row>
     <row r="130" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="39"/>
-      <c r="B130" s="39"/>
-      <c r="C130" s="39" t="s">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="39"/>
+      <c r="D130" s="21"/>
+      <c r="E130" s="22"/>
     </row>
     <row r="131" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="39"/>
-      <c r="B131" s="39"/>
-      <c r="C131" s="39" t="s">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="D131" s="38"/>
-      <c r="E131" s="39"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="22"/>
     </row>
     <row r="132" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="39"/>
-      <c r="B132" s="39"/>
-      <c r="C132" s="39" t="s">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D132" s="38"/>
-      <c r="E132" s="39"/>
+      <c r="D132" s="21"/>
+      <c r="E132" s="22"/>
     </row>
     <row r="133" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="39"/>
-      <c r="B133" s="39"/>
-      <c r="C133" s="39" t="s">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="D133" s="38"/>
-      <c r="E133" s="39"/>
+      <c r="D133" s="21"/>
+      <c r="E133" s="22"/>
     </row>
     <row r="134" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="39"/>
-      <c r="B134" s="39"/>
-      <c r="C134" s="39" t="s">
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="D134" s="38"/>
-      <c r="E134" s="39"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="22"/>
     </row>
     <row r="135" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="39"/>
-      <c r="B135" s="39"/>
-      <c r="C135" s="39" t="s">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="D135" s="38"/>
-      <c r="E135" s="39"/>
+      <c r="D135" s="21"/>
+      <c r="E135" s="22"/>
     </row>
     <row r="136" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="39"/>
-      <c r="B136" s="39"/>
-      <c r="C136" s="39" t="s">
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="D136" s="38"/>
-      <c r="E136" s="39"/>
+      <c r="D136" s="21"/>
+      <c r="E136" s="22"/>
     </row>
     <row r="137" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="39"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39" t="s">
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22" t="s">
         <v>315</v>
       </c>
-      <c r="D137" s="38"/>
-      <c r="E137" s="39"/>
+      <c r="D137" s="21"/>
+      <c r="E137" s="22"/>
     </row>
     <row r="138" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="39"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39" t="s">
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="D138" s="38"/>
-      <c r="E138" s="39"/>
+      <c r="D138" s="21"/>
+      <c r="E138" s="22"/>
     </row>
     <row r="139" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="39"/>
-      <c r="B139" s="39"/>
-      <c r="C139" s="39" t="s">
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="D139" s="38"/>
-      <c r="E139" s="39"/>
+      <c r="D139" s="21"/>
+      <c r="E139" s="22"/>
     </row>
     <row r="140" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="39"/>
-      <c r="B140" s="39"/>
-      <c r="C140" s="39" t="s">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="D140" s="38"/>
-      <c r="E140" s="39"/>
+      <c r="D140" s="21"/>
+      <c r="E140" s="22"/>
     </row>
     <row r="141" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="39"/>
-      <c r="B141" s="39"/>
-      <c r="C141" s="39" t="s">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D141" s="38"/>
-      <c r="E141" s="39"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="22"/>
     </row>
     <row r="142" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="39"/>
-      <c r="B142" s="39"/>
-      <c r="C142" s="39" t="s">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="D142" s="38"/>
-      <c r="E142" s="39"/>
+      <c r="D142" s="21"/>
+      <c r="E142" s="22"/>
     </row>
     <row r="143" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="39"/>
-      <c r="B143" s="39"/>
-      <c r="C143" s="39" t="s">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="D143" s="38"/>
-      <c r="E143" s="39"/>
+      <c r="D143" s="21"/>
+      <c r="E143" s="22"/>
     </row>
     <row r="144" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="39"/>
-      <c r="B144" s="39"/>
-      <c r="C144" s="39" t="s">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="D144" s="38"/>
-      <c r="E144" s="39"/>
+      <c r="D144" s="21"/>
+      <c r="E144" s="22"/>
     </row>
     <row r="145" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="39"/>
-      <c r="B145" s="39"/>
-      <c r="C145" s="39" t="s">
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="D145" s="38"/>
-      <c r="E145" s="39"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="22"/>
     </row>
     <row r="146" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="39"/>
-      <c r="B146" s="39"/>
-      <c r="C146" s="39" t="s">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="D146" s="38"/>
-      <c r="E146" s="39"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="22"/>
     </row>
     <row r="147" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="39"/>
-      <c r="B147" s="39"/>
-      <c r="C147" s="39" t="s">
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="D147" s="38"/>
-      <c r="E147" s="39"/>
+      <c r="D147" s="21"/>
+      <c r="E147" s="22"/>
     </row>
     <row r="148" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="39"/>
-      <c r="B148" s="39"/>
-      <c r="C148" s="39" t="s">
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22" t="s">
         <v>326</v>
       </c>
-      <c r="D148" s="38"/>
-      <c r="E148" s="39"/>
+      <c r="D148" s="21"/>
+      <c r="E148" s="22"/>
     </row>
     <row r="149" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="39"/>
-      <c r="B149" s="39"/>
-      <c r="C149" s="39" t="s">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="38"/>
-      <c r="E149" s="39"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="22"/>
     </row>
     <row r="150" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="39"/>
-      <c r="B150" s="39"/>
-      <c r="C150" s="39" t="s">
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="D150" s="38"/>
-      <c r="E150" s="39"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="39"/>
-      <c r="B151" s="39"/>
-      <c r="C151" s="39" t="s">
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="D151" s="38"/>
-      <c r="E151" s="39"/>
+      <c r="D151" s="21"/>
+      <c r="E151" s="22"/>
     </row>
     <row r="152" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="39"/>
-      <c r="B152" s="39"/>
-      <c r="C152" s="39" t="s">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="39"/>
+      <c r="D152" s="21"/>
+      <c r="E152" s="22"/>
     </row>
     <row r="153" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="39"/>
-      <c r="B153" s="39"/>
-      <c r="C153" s="39" t="s">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D153" s="38"/>
-      <c r="E153" s="39"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="22"/>
     </row>
     <row r="154" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="39"/>
-      <c r="B154" s="39"/>
-      <c r="C154" s="39" t="s">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D154" s="38"/>
-      <c r="E154" s="39"/>
+      <c r="D154" s="21"/>
+      <c r="E154" s="22"/>
     </row>
     <row r="155" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="39"/>
-      <c r="B155" s="39"/>
-      <c r="C155" s="39" t="s">
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="D155" s="38"/>
-      <c r="E155" s="39"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="22"/>
     </row>
     <row r="156" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="39"/>
-      <c r="B156" s="39"/>
-      <c r="C156" s="39" t="s">
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="D156" s="38"/>
-      <c r="E156" s="39"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="39"/>
-      <c r="B157" s="39"/>
-      <c r="C157" s="39" t="s">
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22" t="s">
         <v>335</v>
       </c>
-      <c r="D157" s="38"/>
-      <c r="E157" s="39"/>
+      <c r="D157" s="21"/>
+      <c r="E157" s="22"/>
     </row>
     <row r="158" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="39"/>
-      <c r="B158" s="39"/>
-      <c r="C158" s="39" t="s">
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22" t="s">
         <v>336</v>
       </c>
-      <c r="D158" s="38"/>
-      <c r="E158" s="39"/>
+      <c r="D158" s="21"/>
+      <c r="E158" s="22"/>
     </row>
     <row r="159" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="39"/>
-      <c r="B159" s="39"/>
-      <c r="C159" s="39" t="s">
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="D159" s="38"/>
-      <c r="E159" s="39"/>
+      <c r="D159" s="21"/>
+      <c r="E159" s="22"/>
     </row>
     <row r="160" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="39"/>
-      <c r="B160" s="39"/>
-      <c r="C160" s="39" t="s">
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="D160" s="38"/>
-      <c r="E160" s="39"/>
+      <c r="D160" s="21"/>
+      <c r="E160" s="22"/>
     </row>
     <row r="161" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="39"/>
-      <c r="B161" s="39"/>
-      <c r="C161" s="39" t="s">
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D161" s="38"/>
-      <c r="E161" s="39"/>
+      <c r="D161" s="21"/>
+      <c r="E161" s="22"/>
     </row>
     <row r="162" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="39"/>
-      <c r="B162" s="39"/>
-      <c r="C162" s="39" t="s">
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="D162" s="38"/>
-      <c r="E162" s="39"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="22"/>
     </row>
     <row r="163" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="39"/>
-      <c r="B163" s="39"/>
-      <c r="C163" s="39" t="s">
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="D163" s="38"/>
-      <c r="E163" s="39"/>
+      <c r="D163" s="21"/>
+      <c r="E163" s="22"/>
     </row>
     <row r="164" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="39"/>
-      <c r="B164" s="39"/>
-      <c r="C164" s="39" t="s">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="D164" s="38"/>
-      <c r="E164" s="39"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="39"/>
-      <c r="B165" s="39"/>
-      <c r="C165" s="39" t="s">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="D165" s="38"/>
-      <c r="E165" s="39"/>
+      <c r="D165" s="21"/>
+      <c r="E165" s="22"/>
     </row>
     <row r="166" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="39"/>
-      <c r="B166" s="39"/>
-      <c r="C166" s="39" t="s">
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D166" s="38"/>
-      <c r="E166" s="39"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="22"/>
     </row>
     <row r="167" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="39"/>
-      <c r="B167" s="39"/>
-      <c r="C167" s="39" t="s">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="D167" s="38"/>
-      <c r="E167" s="39"/>
+      <c r="D167" s="21"/>
+      <c r="E167" s="22"/>
     </row>
     <row r="168" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="39"/>
-      <c r="B168" s="39"/>
-      <c r="C168" s="39" t="s">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="D168" s="38"/>
-      <c r="E168" s="39"/>
+      <c r="D168" s="21"/>
+      <c r="E168" s="22"/>
     </row>
     <row r="169" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="39"/>
-      <c r="B169" s="39"/>
-      <c r="C169" s="39" t="s">
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="D169" s="38"/>
-      <c r="E169" s="39"/>
+      <c r="D169" s="21"/>
+      <c r="E169" s="22"/>
     </row>
     <row r="170" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="39"/>
-      <c r="B170" s="39"/>
-      <c r="C170" s="39" t="s">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D170" s="38"/>
-      <c r="E170" s="39"/>
+      <c r="D170" s="21"/>
+      <c r="E170" s="22"/>
     </row>
     <row r="171" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="39"/>
-      <c r="B171" s="39"/>
-      <c r="C171" s="39" t="s">
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="D171" s="38"/>
-      <c r="E171" s="39"/>
+      <c r="D171" s="21"/>
+      <c r="E171" s="22"/>
     </row>
     <row r="172" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="39"/>
-      <c r="B172" s="39"/>
-      <c r="C172" s="39" t="s">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="D172" s="38"/>
-      <c r="E172" s="39"/>
+      <c r="D172" s="21"/>
+      <c r="E172" s="22"/>
     </row>
     <row r="173" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="39"/>
-      <c r="B173" s="39"/>
-      <c r="C173" s="39" t="s">
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="38"/>
-      <c r="E173" s="39"/>
+      <c r="D173" s="21"/>
+      <c r="E173" s="22"/>
     </row>
     <row r="174" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="39"/>
-      <c r="B174" s="39"/>
-      <c r="C174" s="39" t="s">
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="D174" s="38"/>
-      <c r="E174" s="39"/>
+      <c r="D174" s="21"/>
+      <c r="E174" s="22"/>
     </row>
     <row r="175" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="39"/>
-      <c r="B175" s="39"/>
-      <c r="C175" s="39" t="s">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="D175" s="38"/>
-      <c r="E175" s="39"/>
+      <c r="D175" s="21"/>
+      <c r="E175" s="22"/>
     </row>
     <row r="176" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="39"/>
-      <c r="B176" s="39"/>
-      <c r="C176" s="39" t="s">
+      <c r="A176" s="22"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="D176" s="38"/>
-      <c r="E176" s="39"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="22"/>
     </row>
     <row r="177" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="39"/>
-      <c r="B177" s="39"/>
-      <c r="C177" s="39" t="s">
+      <c r="A177" s="22"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22" t="s">
         <v>355</v>
       </c>
-      <c r="D177" s="38"/>
-      <c r="E177" s="39"/>
+      <c r="D177" s="21"/>
+      <c r="E177" s="22"/>
     </row>
     <row r="178" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="39"/>
-      <c r="B178" s="39"/>
-      <c r="C178" s="39" t="s">
+      <c r="A178" s="22"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="D178" s="38"/>
-      <c r="E178" s="39"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="22"/>
     </row>
     <row r="179" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="39"/>
-      <c r="B179" s="39"/>
-      <c r="C179" s="39" t="s">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="D179" s="38"/>
-      <c r="E179" s="39"/>
+      <c r="D179" s="21"/>
+      <c r="E179" s="22"/>
     </row>
     <row r="180" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="39"/>
-      <c r="B180" s="39"/>
-      <c r="C180" s="39" t="s">
+      <c r="A180" s="22"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22" t="s">
         <v>358</v>
       </c>
-      <c r="D180" s="38"/>
-      <c r="E180" s="39"/>
+      <c r="D180" s="21"/>
+      <c r="E180" s="22"/>
     </row>
     <row r="181" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="39"/>
-      <c r="B181" s="39"/>
-      <c r="C181" s="39" t="s">
+      <c r="A181" s="22"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="D181" s="38"/>
-      <c r="E181" s="39"/>
+      <c r="D181" s="21"/>
+      <c r="E181" s="22"/>
     </row>
     <row r="182" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="39"/>
-      <c r="B182" s="39"/>
-      <c r="C182" s="39" t="s">
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="D182" s="38"/>
-      <c r="E182" s="39"/>
+      <c r="D182" s="21"/>
+      <c r="E182" s="22"/>
     </row>
     <row r="183" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="39"/>
-      <c r="B183" s="39"/>
-      <c r="C183" s="39" t="s">
+      <c r="A183" s="22"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="D183" s="38"/>
-      <c r="E183" s="39"/>
+      <c r="D183" s="21"/>
+      <c r="E183" s="22"/>
     </row>
     <row r="184" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="39"/>
-      <c r="B184" s="39"/>
-      <c r="C184" s="39" t="s">
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="D184" s="38"/>
-      <c r="E184" s="39"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="22"/>
     </row>
     <row r="185" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="39"/>
-      <c r="B185" s="39"/>
-      <c r="C185" s="39" t="s">
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="D185" s="38"/>
-      <c r="E185" s="39"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="22"/>
     </row>
     <row r="186" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="39"/>
-      <c r="B186" s="39"/>
-      <c r="C186" s="39" t="s">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22" t="s">
         <v>364</v>
       </c>
-      <c r="D186" s="38"/>
-      <c r="E186" s="39"/>
+      <c r="D186" s="21"/>
+      <c r="E186" s="22"/>
     </row>
     <row r="187" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="39"/>
-      <c r="B187" s="39"/>
-      <c r="C187" s="39" t="s">
+      <c r="A187" s="22"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="D187" s="38"/>
-      <c r="E187" s="39"/>
+      <c r="D187" s="21"/>
+      <c r="E187" s="22"/>
     </row>
     <row r="188" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="39"/>
-      <c r="B188" s="39"/>
-      <c r="C188" s="39" t="s">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="D188" s="38"/>
-      <c r="E188" s="39"/>
+      <c r="D188" s="21"/>
+      <c r="E188" s="22"/>
     </row>
     <row r="189" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="39"/>
-      <c r="B189" s="39"/>
-      <c r="C189" s="39" t="s">
+      <c r="A189" s="22"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D189" s="38"/>
-      <c r="E189" s="39"/>
+      <c r="D189" s="21"/>
+      <c r="E189" s="22"/>
     </row>
     <row r="190" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="39"/>
-      <c r="B190" s="39"/>
-      <c r="C190" s="39" t="s">
+      <c r="A190" s="22"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="D190" s="38"/>
-      <c r="E190" s="39"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="22"/>
     </row>
     <row r="191" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="39"/>
-      <c r="B191" s="39"/>
-      <c r="C191" s="39" t="s">
+      <c r="A191" s="22"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="D191" s="38"/>
-      <c r="E191" s="39"/>
+      <c r="D191" s="21"/>
+      <c r="E191" s="22"/>
     </row>
     <row r="192" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="39"/>
-      <c r="B192" s="39"/>
-      <c r="C192" s="39" t="s">
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="D192" s="38"/>
-      <c r="E192" s="39"/>
+      <c r="D192" s="21"/>
+      <c r="E192" s="22"/>
     </row>
     <row r="193" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="39"/>
-      <c r="B193" s="39"/>
-      <c r="C193" s="39" t="s">
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="D193" s="38"/>
-      <c r="E193" s="39"/>
+      <c r="D193" s="21"/>
+      <c r="E193" s="22"/>
     </row>
     <row r="194" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="39"/>
-      <c r="B194" s="39"/>
-      <c r="C194" s="39" t="s">
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="D194" s="38"/>
-      <c r="E194" s="39"/>
+      <c r="D194" s="21"/>
+      <c r="E194" s="22"/>
     </row>
     <row r="195" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="39"/>
-      <c r="B195" s="39"/>
-      <c r="C195" s="39" t="s">
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="D195" s="38"/>
-      <c r="E195" s="39"/>
+      <c r="D195" s="21"/>
+      <c r="E195" s="22"/>
     </row>
     <row r="196" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="39"/>
-      <c r="B196" s="39"/>
-      <c r="C196" s="39" t="s">
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D196" s="38"/>
-      <c r="E196" s="39"/>
+      <c r="D196" s="21"/>
+      <c r="E196" s="22"/>
     </row>
     <row r="197" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="39"/>
-      <c r="B197" s="39"/>
-      <c r="C197" s="39" t="s">
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D197" s="38"/>
-      <c r="E197" s="39"/>
+      <c r="D197" s="21"/>
+      <c r="E197" s="22"/>
     </row>
     <row r="198" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="39"/>
-      <c r="B198" s="39"/>
-      <c r="C198" s="39" t="s">
+      <c r="A198" s="22"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="D198" s="38"/>
-      <c r="E198" s="39"/>
+      <c r="D198" s="21"/>
+      <c r="E198" s="22"/>
     </row>
     <row r="199" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="39"/>
-      <c r="B199" s="39"/>
-      <c r="C199" s="39" t="s">
+      <c r="A199" s="22"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D199" s="38"/>
-      <c r="E199" s="39"/>
+      <c r="D199" s="21"/>
+      <c r="E199" s="22"/>
     </row>
     <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="39"/>
-      <c r="B200" s="39"/>
-      <c r="C200" s="39" t="s">
+      <c r="A200" s="22"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="D200" s="38"/>
-      <c r="E200" s="39"/>
+      <c r="D200" s="21"/>
+      <c r="E200" s="22"/>
     </row>
     <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="39"/>
-      <c r="B201" s="39"/>
-      <c r="C201" s="39" t="s">
+      <c r="A201" s="22"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="D201" s="38"/>
-      <c r="E201" s="39"/>
+      <c r="D201" s="21"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="39"/>
-      <c r="B202" s="39"/>
-      <c r="C202" s="39" t="s">
+      <c r="A202" s="22"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22" t="s">
         <v>380</v>
       </c>
-      <c r="D202" s="38"/>
-      <c r="E202" s="39"/>
+      <c r="D202" s="21"/>
+      <c r="E202" s="22"/>
     </row>
     <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="39"/>
-      <c r="B203" s="39"/>
-      <c r="C203" s="39" t="s">
+      <c r="A203" s="22"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="D203" s="38"/>
-      <c r="E203" s="39"/>
+      <c r="D203" s="21"/>
+      <c r="E203" s="22"/>
     </row>
     <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="39"/>
-      <c r="B204" s="39"/>
-      <c r="C204" s="39" t="s">
+      <c r="A204" s="22"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="D204" s="38"/>
-      <c r="E204" s="39"/>
+      <c r="D204" s="21"/>
+      <c r="E204" s="22"/>
     </row>
     <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="39"/>
-      <c r="B205" s="39"/>
-      <c r="C205" s="39" t="s">
+      <c r="A205" s="22"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="D205" s="38"/>
-      <c r="E205" s="39"/>
+      <c r="D205" s="21"/>
+      <c r="E205" s="22"/>
     </row>
     <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="39"/>
-      <c r="B206" s="39"/>
-      <c r="C206" s="39" t="s">
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22" t="s">
         <v>384</v>
       </c>
-      <c r="D206" s="38"/>
-      <c r="E206" s="39"/>
+      <c r="D206" s="21"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="39"/>
-      <c r="B207" s="39"/>
-      <c r="C207" s="39" t="s">
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="D207" s="38"/>
-      <c r="E207" s="39"/>
+      <c r="D207" s="21"/>
+      <c r="E207" s="22"/>
     </row>
     <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="39"/>
-      <c r="B208" s="39"/>
-      <c r="C208" s="39" t="s">
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D208" s="38"/>
-      <c r="E208" s="39"/>
+      <c r="D208" s="21"/>
+      <c r="E208" s="22"/>
     </row>
     <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="39"/>
-      <c r="B209" s="39"/>
-      <c r="C209" s="39" t="s">
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22" t="s">
         <v>387</v>
       </c>
-      <c r="D209" s="38"/>
-      <c r="E209" s="39"/>
+      <c r="D209" s="21"/>
+      <c r="E209" s="22"/>
     </row>
     <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="39"/>
-      <c r="B210" s="39"/>
-      <c r="C210" s="39" t="s">
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D210" s="38"/>
-      <c r="E210" s="39"/>
+      <c r="D210" s="21"/>
+      <c r="E210" s="22"/>
     </row>
     <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="39"/>
-      <c r="B211" s="39"/>
-      <c r="C211" s="39" t="s">
+      <c r="A211" s="22"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="D211" s="38"/>
-      <c r="E211" s="39"/>
+      <c r="D211" s="21"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="39"/>
-      <c r="B212" s="39"/>
-      <c r="C212" s="39" t="s">
+      <c r="A212" s="22"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D212" s="38"/>
-      <c r="E212" s="39"/>
+      <c r="D212" s="21"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="39"/>
-      <c r="B213" s="39"/>
-      <c r="C213" s="39" t="s">
+      <c r="A213" s="22"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="D213" s="38"/>
-      <c r="E213" s="39"/>
+      <c r="D213" s="21"/>
+      <c r="E213" s="22"/>
     </row>
     <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="39"/>
-      <c r="B214" s="39"/>
-      <c r="C214" s="39" t="s">
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D214" s="38"/>
-      <c r="E214" s="39"/>
+      <c r="D214" s="21"/>
+      <c r="E214" s="22"/>
     </row>
     <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="39"/>
-      <c r="B215" s="39"/>
-      <c r="C215" s="39" t="s">
+      <c r="A215" s="22"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D215" s="38"/>
-      <c r="E215" s="39"/>
+      <c r="D215" s="21"/>
+      <c r="E215" s="22"/>
     </row>
     <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="39"/>
-      <c r="B216" s="39"/>
-      <c r="C216" s="39" t="s">
+      <c r="A216" s="22"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D216" s="38"/>
-      <c r="E216" s="39"/>
+      <c r="D216" s="21"/>
+      <c r="E216" s="22"/>
     </row>
     <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="39"/>
-      <c r="B217" s="39"/>
-      <c r="C217" s="39" t="s">
+      <c r="A217" s="22"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="D217" s="38"/>
-      <c r="E217" s="39"/>
+      <c r="D217" s="21"/>
+      <c r="E217" s="22"/>
     </row>
     <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="39"/>
-      <c r="B218" s="39"/>
-      <c r="C218" s="39" t="s">
+      <c r="A218" s="22"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D218" s="38"/>
-      <c r="E218" s="39"/>
+      <c r="D218" s="21"/>
+      <c r="E218" s="22"/>
     </row>
     <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="39"/>
-      <c r="B219" s="39"/>
-      <c r="C219" s="39" t="s">
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="D219" s="38"/>
-      <c r="E219" s="39"/>
+      <c r="D219" s="21"/>
+      <c r="E219" s="22"/>
     </row>
     <row r="220" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="39"/>
-      <c r="B220" s="39"/>
-      <c r="C220" s="39" t="s">
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D220" s="38"/>
-      <c r="E220" s="39"/>
+      <c r="D220" s="21"/>
+      <c r="E220" s="22"/>
     </row>
     <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="39"/>
-      <c r="B221" s="39"/>
-      <c r="C221" s="39" t="s">
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="D221" s="38"/>
-      <c r="E221" s="39"/>
+      <c r="D221" s="21"/>
+      <c r="E221" s="22"/>
     </row>
     <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="39"/>
-      <c r="B222" s="39"/>
-      <c r="C222" s="39" t="s">
+      <c r="A222" s="22"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="D222" s="38"/>
-      <c r="E222" s="39"/>
+      <c r="D222" s="21"/>
+      <c r="E222" s="22"/>
     </row>
     <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="39"/>
-      <c r="B223" s="39"/>
-      <c r="C223" s="39" t="s">
+      <c r="A223" s="22"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="D223" s="38"/>
-      <c r="E223" s="39"/>
+      <c r="D223" s="21"/>
+      <c r="E223" s="22"/>
     </row>
     <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="39"/>
-      <c r="B224" s="39"/>
-      <c r="C224" s="39" t="s">
+      <c r="A224" s="22"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D224" s="38"/>
-      <c r="E224" s="39"/>
+      <c r="D224" s="21"/>
+      <c r="E224" s="22"/>
     </row>
     <row r="225" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="39"/>
-      <c r="B225" s="39"/>
-      <c r="C225" s="39" t="s">
+      <c r="A225" s="22"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="D225" s="38"/>
-      <c r="E225" s="39"/>
+      <c r="D225" s="21"/>
+      <c r="E225" s="22"/>
     </row>
     <row r="226" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="39"/>
-      <c r="B226" s="39"/>
-      <c r="C226" s="39" t="s">
+      <c r="A226" s="22"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D226" s="38"/>
-      <c r="E226" s="39"/>
+      <c r="D226" s="21"/>
+      <c r="E226" s="22"/>
     </row>
     <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="39"/>
-      <c r="B227" s="39"/>
-      <c r="C227" s="39" t="s">
+      <c r="A227" s="22"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="D227" s="38"/>
-      <c r="E227" s="39"/>
+      <c r="D227" s="21"/>
+      <c r="E227" s="22"/>
     </row>
     <row r="228" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="39"/>
-      <c r="B228" s="39"/>
-      <c r="C228" s="39" t="s">
+      <c r="A228" s="22"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D228" s="38"/>
-      <c r="E228" s="39"/>
+      <c r="D228" s="21"/>
+      <c r="E228" s="22"/>
     </row>
     <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="39"/>
-      <c r="B229" s="39"/>
-      <c r="C229" s="39" t="s">
+      <c r="A229" s="22"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="D229" s="38"/>
-      <c r="E229" s="39"/>
+      <c r="D229" s="21"/>
+      <c r="E229" s="22"/>
     </row>
     <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="39"/>
-      <c r="B230" s="39"/>
-      <c r="C230" s="39" t="s">
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D230" s="38"/>
-      <c r="E230" s="39"/>
+      <c r="D230" s="21"/>
+      <c r="E230" s="22"/>
     </row>
     <row r="231" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="39"/>
-      <c r="B231" s="39"/>
-      <c r="C231" s="39" t="s">
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="D231" s="38"/>
-      <c r="E231" s="39"/>
+      <c r="D231" s="21"/>
+      <c r="E231" s="22"/>
     </row>
     <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="39"/>
-      <c r="B232" s="39"/>
-      <c r="C232" s="39" t="s">
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D232" s="38"/>
-      <c r="E232" s="39"/>
+      <c r="D232" s="21"/>
+      <c r="E232" s="22"/>
     </row>
     <row r="233" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="39"/>
-      <c r="B233" s="39"/>
-      <c r="C233" s="39" t="s">
+      <c r="A233" s="22"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="D233" s="38"/>
-      <c r="E233" s="39"/>
+      <c r="D233" s="21"/>
+      <c r="E233" s="22"/>
     </row>
     <row r="234" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="39"/>
-      <c r="B234" s="39"/>
-      <c r="C234" s="39" t="s">
+      <c r="A234" s="22"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D234" s="38"/>
-      <c r="E234" s="39"/>
+      <c r="D234" s="21"/>
+      <c r="E234" s="22"/>
     </row>
     <row r="235" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="39"/>
-      <c r="B235" s="39"/>
-      <c r="C235" s="39" t="s">
+      <c r="A235" s="22"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="22" t="s">
         <v>413</v>
       </c>
-      <c r="D235" s="38"/>
-      <c r="E235" s="39"/>
+      <c r="D235" s="21"/>
+      <c r="E235" s="22"/>
     </row>
     <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="39"/>
-      <c r="B236" s="39"/>
-      <c r="C236" s="39" t="s">
+      <c r="A236" s="22"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="D236" s="38"/>
-      <c r="E236" s="39"/>
+      <c r="D236" s="21"/>
+      <c r="E236" s="22"/>
     </row>
     <row r="237" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="39"/>
-      <c r="B237" s="39"/>
-      <c r="C237" s="39" t="s">
+      <c r="A237" s="22"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="22" t="s">
         <v>415</v>
       </c>
-      <c r="D237" s="38"/>
-      <c r="E237" s="39"/>
+      <c r="D237" s="21"/>
+      <c r="E237" s="22"/>
     </row>
     <row r="238" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="39"/>
-      <c r="B238" s="39"/>
-      <c r="C238" s="39" t="s">
+      <c r="A238" s="22"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22" t="s">
         <v>416</v>
       </c>
-      <c r="D238" s="38"/>
-      <c r="E238" s="39"/>
+      <c r="D238" s="21"/>
+      <c r="E238" s="22"/>
     </row>
     <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="39"/>
-      <c r="B239" s="39"/>
-      <c r="C239" s="39" t="s">
+      <c r="A239" s="22"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="D239" s="38"/>
-      <c r="E239" s="39"/>
+      <c r="D239" s="21"/>
+      <c r="E239" s="22"/>
     </row>
     <row r="240" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="39"/>
-      <c r="B240" s="39"/>
-      <c r="C240" s="39" t="s">
+      <c r="A240" s="22"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="D240" s="38"/>
-      <c r="E240" s="39"/>
+      <c r="D240" s="21"/>
+      <c r="E240" s="22"/>
     </row>
     <row r="241" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="39"/>
-      <c r="B241" s="39"/>
-      <c r="C241" s="39" t="s">
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="D241" s="38"/>
-      <c r="E241" s="39"/>
+      <c r="D241" s="21"/>
+      <c r="E241" s="22"/>
     </row>
     <row r="242" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="39"/>
-      <c r="B242" s="39"/>
-      <c r="C242" s="39" t="s">
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="D242" s="38"/>
-      <c r="E242" s="39"/>
+      <c r="D242" s="21"/>
+      <c r="E242" s="22"/>
     </row>
     <row r="243" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="39"/>
-      <c r="B243" s="39"/>
-      <c r="C243" s="39" t="s">
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="D243" s="38"/>
-      <c r="E243" s="39"/>
+      <c r="D243" s="21"/>
+      <c r="E243" s="22"/>
     </row>
     <row r="244" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="39"/>
-      <c r="B244" s="39"/>
-      <c r="C244" s="39" t="s">
+      <c r="A244" s="22"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D244" s="38"/>
-      <c r="E244" s="39"/>
+      <c r="D244" s="21"/>
+      <c r="E244" s="22"/>
     </row>
     <row r="245" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="39"/>
-      <c r="B245" s="39"/>
-      <c r="C245" s="39" t="s">
+      <c r="A245" s="22"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="D245" s="38"/>
-      <c r="E245" s="39"/>
+      <c r="D245" s="21"/>
+      <c r="E245" s="22"/>
     </row>
     <row r="246" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="39"/>
-      <c r="B246" s="39"/>
-      <c r="C246" s="39" t="s">
+      <c r="A246" s="22"/>
+      <c r="B246" s="22"/>
+      <c r="C246" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="D246" s="38"/>
-      <c r="E246" s="39"/>
+      <c r="D246" s="21"/>
+      <c r="E246" s="22"/>
     </row>
     <row r="247" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="39"/>
-      <c r="B247" s="39"/>
-      <c r="C247" s="39" t="s">
+      <c r="A247" s="22"/>
+      <c r="B247" s="22"/>
+      <c r="C247" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="D247" s="38"/>
-      <c r="E247" s="39"/>
+      <c r="D247" s="21"/>
+      <c r="E247" s="22"/>
     </row>
     <row r="248" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="39"/>
-      <c r="B248" s="39"/>
-      <c r="C248" s="39" t="s">
+      <c r="A248" s="22"/>
+      <c r="B248" s="22"/>
+      <c r="C248" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D248" s="38"/>
-      <c r="E248" s="39"/>
+      <c r="D248" s="21"/>
+      <c r="E248" s="22"/>
     </row>
     <row r="249" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="39"/>
-      <c r="B249" s="39"/>
-      <c r="C249" s="39" t="s">
+      <c r="A249" s="22"/>
+      <c r="B249" s="22"/>
+      <c r="C249" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="D249" s="38"/>
-      <c r="E249" s="39"/>
+      <c r="D249" s="21"/>
+      <c r="E249" s="22"/>
     </row>
     <row r="250" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="39"/>
-      <c r="B250" s="39"/>
-      <c r="C250" s="39" t="s">
+      <c r="A250" s="22"/>
+      <c r="B250" s="22"/>
+      <c r="C250" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="D250" s="38"/>
-      <c r="E250" s="39"/>
+      <c r="D250" s="21"/>
+      <c r="E250" s="22"/>
     </row>
     <row r="251" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="39"/>
-      <c r="B251" s="39"/>
-      <c r="C251" s="39" t="s">
+      <c r="A251" s="22"/>
+      <c r="B251" s="22"/>
+      <c r="C251" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="D251" s="38"/>
-      <c r="E251" s="39"/>
+      <c r="D251" s="21"/>
+      <c r="E251" s="22"/>
     </row>
     <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="39"/>
-      <c r="B252" s="39"/>
-      <c r="C252" s="39" t="s">
+      <c r="A252" s="22"/>
+      <c r="B252" s="22"/>
+      <c r="C252" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D252" s="38"/>
-      <c r="E252" s="39"/>
+      <c r="D252" s="21"/>
+      <c r="E252" s="22"/>
     </row>
     <row r="253" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="39"/>
-      <c r="B253" s="39"/>
-      <c r="C253" s="39" t="s">
+      <c r="A253" s="22"/>
+      <c r="B253" s="22"/>
+      <c r="C253" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="D253" s="38"/>
-      <c r="E253" s="39"/>
+      <c r="D253" s="21"/>
+      <c r="E253" s="22"/>
     </row>
     <row r="254" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="39"/>
-      <c r="B254" s="39"/>
-      <c r="C254" s="39" t="s">
+      <c r="A254" s="22"/>
+      <c r="B254" s="22"/>
+      <c r="C254" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D254" s="38"/>
-      <c r="E254" s="39"/>
+      <c r="D254" s="21"/>
+      <c r="E254" s="22"/>
     </row>
     <row r="255" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="39"/>
-      <c r="B255" s="39"/>
-      <c r="C255" s="39" t="s">
+      <c r="A255" s="22"/>
+      <c r="B255" s="22"/>
+      <c r="C255" s="22" t="s">
         <v>433</v>
       </c>
-      <c r="D255" s="38"/>
-      <c r="E255" s="39"/>
+      <c r="D255" s="21"/>
+      <c r="E255" s="22"/>
     </row>
     <row r="256" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="39"/>
-      <c r="B256" s="39"/>
-      <c r="C256" s="39" t="s">
+      <c r="A256" s="22"/>
+      <c r="B256" s="22"/>
+      <c r="C256" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="D256" s="38"/>
-      <c r="E256" s="39"/>
+      <c r="D256" s="21"/>
+      <c r="E256" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
+++ b/libs/ui/src/lib/assets/templates/import-movie-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="518">
   <si>
     <t xml:space="preserve">Film Library Metadata</t>
   </si>
@@ -133,7 +133,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Director(s)
@@ -145,7 +145,7 @@
         <sz val="10"/>
         <color rgb="FFED7D31"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Filmography</t>
@@ -156,7 +156,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
@@ -222,7 +222,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Budget </t>
@@ -233,7 +233,7 @@
         <sz val="10"/>
         <color rgb="FFED7D31"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">range
@@ -279,7 +279,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Available </t>
@@ -290,7 +290,7 @@
         <sz val="10"/>
         <color rgb="FFED7D31"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">version</t>
@@ -301,7 +301,7 @@
         <sz val="10"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(s)
@@ -313,7 +313,7 @@
         <sz val="10"/>
         <color rgb="FFED7D31"/>
         <rFont val="Arial"/>
-        <family val="0"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(language, 
@@ -427,9 +427,6 @@
     <t xml:space="preserve">Less than $1 million</t>
   </si>
   <si>
-    <t xml:space="preserve">Production Company</t>
-  </si>
-  <si>
     <t xml:space="preserve">Executive Producer</t>
   </si>
   <si>
@@ -466,7 +463,7 @@
     <t xml:space="preserve">$1 - 2 millions</t>
   </si>
   <si>
-    <t xml:space="preserve">Co-production Company</t>
+    <t xml:space="preserve">Co-Producer</t>
   </si>
   <si>
     <t xml:space="preserve">Line Producer</t>
@@ -505,7 +502,7 @@
     <t xml:space="preserve">$2 - 3.5 millions</t>
   </si>
   <si>
-    <t xml:space="preserve">National Distributor</t>
+    <t xml:space="preserve">Distributor</t>
   </si>
   <si>
     <t xml:space="preserve">Associate Producer</t>
@@ -595,7 +592,7 @@
     <t xml:space="preserve">A-VOD</t>
   </si>
   <si>
-    <t xml:space="preserve">Andaman and Nicobar Islands (India)</t>
+    <t xml:space="preserve">Andorra</t>
   </si>
   <si>
     <t xml:space="preserve">Bambara</t>
@@ -625,7 +622,7 @@
     <t xml:space="preserve">T-VOD, ER, DTR, Streaming</t>
   </si>
   <si>
-    <t xml:space="preserve">Andorra</t>
+    <t xml:space="preserve">Angola</t>
   </si>
   <si>
     <t xml:space="preserve">Basque</t>
@@ -652,7 +649,7 @@
     <t xml:space="preserve">EST, DTO, Download</t>
   </si>
   <si>
-    <t xml:space="preserve">Angola</t>
+    <t xml:space="preserve">Anguilla</t>
   </si>
   <si>
     <t xml:space="preserve">Belarussian</t>
@@ -673,7 +670,7 @@
     <t xml:space="preserve">N-VOD</t>
   </si>
   <si>
-    <t xml:space="preserve">Anguilla (UK)</t>
+    <t xml:space="preserve">Antarctica</t>
   </si>
   <si>
     <t xml:space="preserve">Bengali</t>
@@ -694,7 +691,7 @@
     <t xml:space="preserve">F-VOD</t>
   </si>
   <si>
-    <t xml:space="preserve">Antigua &amp; Barbuda</t>
+    <t xml:space="preserve">Antigua and Barbuda</t>
   </si>
   <si>
     <t xml:space="preserve">Bosnian</t>
@@ -739,7 +736,7 @@
     <t xml:space="preserve">Boats</t>
   </si>
   <si>
-    <t xml:space="preserve">Aruba (Netherlands)</t>
+    <t xml:space="preserve">Aruba</t>
   </si>
   <si>
     <t xml:space="preserve">Cantonese</t>
@@ -754,7 +751,7 @@
     <t xml:space="preserve">Hotels</t>
   </si>
   <si>
-    <t xml:space="preserve">Ashmore and Cartier Islands</t>
+    <t xml:space="preserve">Australia</t>
   </si>
   <si>
     <t xml:space="preserve">Catalan</t>
@@ -769,7 +766,7 @@
     <t xml:space="preserve">Trains</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">Croatian</t>
@@ -778,7 +775,7 @@
     <t xml:space="preserve">Animation</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
+    <t xml:space="preserve">Azerbaijan</t>
   </si>
   <si>
     <t xml:space="preserve">Czech</t>
@@ -787,7 +784,7 @@
     <t xml:space="preserve">Documentary</t>
   </si>
   <si>
-    <t xml:space="preserve">Azerbaidjan</t>
+    <t xml:space="preserve">Bahamas (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Danish</t>
@@ -796,7 +793,7 @@
     <t xml:space="preserve">Erotic</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahamas</t>
+    <t xml:space="preserve">Bahrain</t>
   </si>
   <si>
     <t xml:space="preserve">Dutch</t>
@@ -805,408 +802,402 @@
     <t xml:space="preserve">Other: (specify)</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahrain</t>
+    <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
   </si>
   <si>
-    <t xml:space="preserve">Baker Island (USA)</t>
+    <t xml:space="preserve">Barbados</t>
   </si>
   <si>
     <t xml:space="preserve">Estonian</t>
   </si>
   <si>
-    <t xml:space="preserve">Bangladesh</t>
+    <t xml:space="preserve">Belarus</t>
   </si>
   <si>
     <t xml:space="preserve">Filipino</t>
   </si>
   <si>
-    <t xml:space="preserve">Barbados</t>
+    <t xml:space="preserve">Belgium</t>
   </si>
   <si>
     <t xml:space="preserve">Finnish</t>
   </si>
   <si>
-    <t xml:space="preserve">Belarus</t>
+    <t xml:space="preserve">Belize</t>
   </si>
   <si>
     <t xml:space="preserve">Flemish</t>
   </si>
   <si>
-    <t xml:space="preserve">Belgium</t>
+    <t xml:space="preserve">Benin</t>
   </si>
   <si>
     <t xml:space="preserve">French</t>
   </si>
   <si>
-    <t xml:space="preserve">Belize</t>
+    <t xml:space="preserve">Bermuda</t>
   </si>
   <si>
     <t xml:space="preserve">Gaelic</t>
   </si>
   <si>
-    <t xml:space="preserve">Benin</t>
+    <t xml:space="preserve">Bhutan</t>
   </si>
   <si>
     <t xml:space="preserve">Galician</t>
   </si>
   <si>
-    <t xml:space="preserve">Bermuda</t>
+    <t xml:space="preserve">Bolivia (Plurinational State of)</t>
   </si>
   <si>
     <t xml:space="preserve">Georgian</t>
   </si>
   <si>
-    <t xml:space="preserve">Bhutan</t>
+    <t xml:space="preserve">Bonaire, Sint Eustatius and Saba</t>
   </si>
   <si>
     <t xml:space="preserve">German</t>
   </si>
   <si>
-    <t xml:space="preserve">Bolivia</t>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
     <t xml:space="preserve">Greek</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonaire</t>
+    <t xml:space="preserve">Botswana</t>
   </si>
   <si>
     <t xml:space="preserve">Gujarati</t>
   </si>
   <si>
-    <t xml:space="preserve">Bosnia &amp; Herzegovina</t>
+    <t xml:space="preserve">Bouvet Island</t>
   </si>
   <si>
     <t xml:space="preserve">Hebrew</t>
   </si>
   <si>
-    <t xml:space="preserve">Botswana</t>
+    <t xml:space="preserve">Brazil</t>
   </si>
   <si>
     <t xml:space="preserve">Hindi</t>
   </si>
   <si>
-    <t xml:space="preserve">Brazil</t>
+    <t xml:space="preserve">British Indian Ocean Territory (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Hungarian</t>
   </si>
   <si>
-    <t xml:space="preserve">British Virgin Islands</t>
+    <t xml:space="preserve">Brunei Darussalam</t>
   </si>
   <si>
     <t xml:space="preserve">Icelandic</t>
   </si>
   <si>
-    <t xml:space="preserve">Brunei</t>
+    <t xml:space="preserve">Bulgaria</t>
   </si>
   <si>
     <t xml:space="preserve">Indonesian</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulgaria</t>
+    <t xml:space="preserve">Burkina Faso</t>
   </si>
   <si>
     <t xml:space="preserve">Italian</t>
   </si>
   <si>
-    <t xml:space="preserve">Burkina Faso</t>
+    <t xml:space="preserve">Burundi</t>
   </si>
   <si>
     <t xml:space="preserve">Japanese</t>
   </si>
   <si>
-    <t xml:space="preserve">Burundi</t>
+    <t xml:space="preserve">Cabo Verde</t>
   </si>
   <si>
     <t xml:space="preserve">Javanese</t>
   </si>
   <si>
-    <t xml:space="preserve">Cabo Verde</t>
+    <t xml:space="preserve">Cambodia</t>
   </si>
   <si>
     <t xml:space="preserve">Kannada</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambodia</t>
+    <t xml:space="preserve">Cameroon</t>
   </si>
   <si>
     <t xml:space="preserve">Kazakh</t>
   </si>
   <si>
-    <t xml:space="preserve">Cameroon</t>
+    <t xml:space="preserve">Canada</t>
   </si>
   <si>
     <t xml:space="preserve">Khmer</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada</t>
+    <t xml:space="preserve">Cayman Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Korean</t>
   </si>
   <si>
-    <t xml:space="preserve">Cayman Islands</t>
+    <t xml:space="preserve">Central African Republic (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Kosovan</t>
   </si>
   <si>
-    <t xml:space="preserve">Central African Republic</t>
+    <t xml:space="preserve">Chad</t>
   </si>
   <si>
     <t xml:space="preserve">Kurdish</t>
   </si>
   <si>
-    <t xml:space="preserve">Chad</t>
+    <t xml:space="preserve">Chile</t>
   </si>
   <si>
     <t xml:space="preserve">Kyrgyz</t>
   </si>
   <si>
-    <t xml:space="preserve">Channel Islands</t>
+    <t xml:space="preserve">China</t>
   </si>
   <si>
     <t xml:space="preserve">Laotian</t>
   </si>
   <si>
-    <t xml:space="preserve">Chile</t>
+    <t xml:space="preserve">Christmas Island</t>
   </si>
   <si>
     <t xml:space="preserve">Latvian</t>
   </si>
   <si>
-    <t xml:space="preserve">China</t>
+    <t xml:space="preserve">Cocos (Keeling) Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Lingala</t>
   </si>
   <si>
-    <t xml:space="preserve">Christmas Island (Australia)</t>
+    <t xml:space="preserve">Colombia</t>
   </si>
   <si>
     <t xml:space="preserve">Lithuanian</t>
   </si>
   <si>
-    <t xml:space="preserve">Cocos Islands (Australia)</t>
+    <t xml:space="preserve">Comoros (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Macedonian</t>
   </si>
   <si>
-    <t xml:space="preserve">Colombia</t>
+    <t xml:space="preserve">Congo (the Democratic Republic of the)</t>
   </si>
   <si>
     <t xml:space="preserve">Magyar</t>
   </si>
   <si>
-    <t xml:space="preserve">Comoros</t>
+    <t xml:space="preserve">Congo (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Malayalam</t>
   </si>
   <si>
-    <t xml:space="preserve">Conakry</t>
+    <t xml:space="preserve">Cook Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Maltese</t>
   </si>
   <si>
-    <t xml:space="preserve">Congo Brazzaville</t>
+    <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
     <t xml:space="preserve">Mandarin Chinese</t>
   </si>
   <si>
-    <t xml:space="preserve">Congo Democratic Republic Of The</t>
+    <t xml:space="preserve">Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">Marathi</t>
   </si>
   <si>
-    <t xml:space="preserve">Cook Islands</t>
+    <t xml:space="preserve">Cuba</t>
   </si>
   <si>
     <t xml:space="preserve">Moldavian</t>
   </si>
   <si>
-    <t xml:space="preserve">Corsica</t>
+    <t xml:space="preserve">Curaçao</t>
   </si>
   <si>
     <t xml:space="preserve">Montenegrin</t>
   </si>
   <si>
-    <t xml:space="preserve">Costa Rica</t>
+    <t xml:space="preserve">Cyprus</t>
   </si>
   <si>
     <t xml:space="preserve">Norwegian</t>
   </si>
   <si>
-    <t xml:space="preserve">Cote D'ivoire</t>
+    <t xml:space="preserve">Czechia</t>
   </si>
   <si>
     <t xml:space="preserve">Oriya</t>
   </si>
   <si>
-    <t xml:space="preserve">Croatia</t>
+    <t xml:space="preserve">Côte d'Ivoire</t>
   </si>
   <si>
     <t xml:space="preserve">Panjabi</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuba</t>
+    <t xml:space="preserve">Denmark</t>
   </si>
   <si>
     <t xml:space="preserve">Persian</t>
   </si>
   <si>
-    <t xml:space="preserve">Curaçao</t>
+    <t xml:space="preserve">Djibouti</t>
   </si>
   <si>
     <t xml:space="preserve">Polish</t>
   </si>
   <si>
-    <t xml:space="preserve">Cyprus</t>
+    <t xml:space="preserve">Dominica</t>
   </si>
   <si>
     <t xml:space="preserve">Portuguese</t>
   </si>
   <si>
-    <t xml:space="preserve">Czech Republic</t>
+    <t xml:space="preserve">Dominican Republic (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Romanian</t>
   </si>
   <si>
-    <t xml:space="preserve">Denmark</t>
+    <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
     <t xml:space="preserve">Russian</t>
   </si>
   <si>
-    <t xml:space="preserve">Djibouti</t>
+    <t xml:space="preserve">Egypt</t>
   </si>
   <si>
     <t xml:space="preserve">Serbian</t>
   </si>
   <si>
-    <t xml:space="preserve">Dominica</t>
+    <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
     <t xml:space="preserve">Slovak</t>
   </si>
   <si>
-    <t xml:space="preserve">Dominican Republic</t>
+    <t xml:space="preserve">Equatorial Guinea</t>
   </si>
   <si>
     <t xml:space="preserve">Slovene</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecuador</t>
+    <t xml:space="preserve">Eritrea</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish</t>
   </si>
   <si>
-    <t xml:space="preserve">Egypt</t>
+    <t xml:space="preserve">Estonia</t>
   </si>
   <si>
     <t xml:space="preserve">Swahili</t>
   </si>
   <si>
-    <t xml:space="preserve">El Salvador</t>
+    <t xml:space="preserve">Eswatini</t>
   </si>
   <si>
     <t xml:space="preserve">Swedish</t>
   </si>
   <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
+    <t xml:space="preserve">Ethiopia</t>
   </si>
   <si>
     <t xml:space="preserve">Tajiki</t>
   </si>
   <si>
-    <t xml:space="preserve">Eritrea</t>
+    <t xml:space="preserve">Falkland Islands (the) [Malvinas]</t>
   </si>
   <si>
     <t xml:space="preserve">Tamil</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonia</t>
+    <t xml:space="preserve">Faroe Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Telugu</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethiopia</t>
+    <t xml:space="preserve">Fiji</t>
   </si>
   <si>
     <t xml:space="preserve">Tetum</t>
   </si>
   <si>
-    <t xml:space="preserve">Falkland Islands</t>
+    <t xml:space="preserve">Finland</t>
   </si>
   <si>
     <t xml:space="preserve">Thai</t>
   </si>
   <si>
-    <t xml:space="preserve">Federated States Of Micronesia</t>
+    <t xml:space="preserve">France</t>
   </si>
   <si>
     <t xml:space="preserve">Turkish</t>
   </si>
   <si>
-    <t xml:space="preserve">Fiji</t>
+    <t xml:space="preserve">French Guiana</t>
   </si>
   <si>
     <t xml:space="preserve">Turkmen</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland</t>
+    <t xml:space="preserve">French Polynesia</t>
   </si>
   <si>
     <t xml:space="preserve">Ukrainian</t>
   </si>
   <si>
-    <t xml:space="preserve">France</t>
+    <t xml:space="preserve">French Southern Territories (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Urdu</t>
   </si>
   <si>
-    <t xml:space="preserve">French Guiana (French DROM)</t>
+    <t xml:space="preserve">Gabon</t>
   </si>
   <si>
     <t xml:space="preserve">Uzbek</t>
   </si>
   <si>
-    <t xml:space="preserve">French Polynesia (French POM COM)</t>
+    <t xml:space="preserve">Gambia (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Valencian</t>
   </si>
   <si>
-    <t xml:space="preserve">Gabon</t>
+    <t xml:space="preserve">Georgia</t>
   </si>
   <si>
     <t xml:space="preserve">Vietnamese</t>
   </si>
   <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">Germany</t>
   </si>
   <si>
     <t xml:space="preserve">Welsh</t>
   </si>
   <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ghana</t>
   </si>
   <si>
@@ -1216,18 +1207,27 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">Greenland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grenada</t>
   </si>
   <si>
-    <t xml:space="preserve">Guadeloupe (French DROM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guam (USA)</t>
+    <t xml:space="preserve">Guadeloupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guam</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">Guernsey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guinea-Bissau</t>
   </si>
   <si>
@@ -1237,6 +1237,12 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holy See (the)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
@@ -1255,19 +1261,16 @@
     <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Irak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
+    <t xml:space="preserve">Iran (Islamic Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
   </si>
   <si>
     <t xml:space="preserve">Ireland</t>
   </si>
   <si>
-    <t xml:space="preserve">Islands of the Saints (French DROM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isle of Man (UK)</t>
+    <t xml:space="preserve">Isle of Man</t>
   </si>
   <si>
     <t xml:space="preserve">Israel</t>
@@ -1282,6 +1285,9 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Jersey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jordan</t>
   </si>
   <si>
@@ -1294,10 +1300,10 @@
     <t xml:space="preserve">Kiribati</t>
   </si>
   <si>
-    <t xml:space="preserve">Koper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
+    <t xml:space="preserve">Korea (the Democratic People's Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea (the Republic of)</t>
   </si>
   <si>
     <t xml:space="preserve">Kuwait</t>
@@ -1306,10 +1312,7 @@
     <t xml:space="preserve">Kyrgyzstan</t>
   </si>
   <si>
-    <t xml:space="preserve">La Désirade (French DROM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laos</t>
+    <t xml:space="preserve">Lao People's Democratic Republic (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Latvia</t>
@@ -1318,9 +1321,6 @@
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
-    <t xml:space="preserve">Leeward Islands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lesotho</t>
   </si>
   <si>
@@ -1342,9 +1342,6 @@
     <t xml:space="preserve">Macao</t>
   </si>
   <si>
-    <t xml:space="preserve">Macedonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
@@ -1363,16 +1360,10 @@
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
-    <t xml:space="preserve">Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marie-Galante (French DROM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinique (French DROM)</t>
+    <t xml:space="preserve">Marshall Islands (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinique</t>
   </si>
   <si>
     <t xml:space="preserve">Mauritania</t>
@@ -1381,16 +1372,16 @@
     <t xml:space="preserve">Mauritius</t>
   </si>
   <si>
-    <t xml:space="preserve">Mayotte (French DROM)</t>
+    <t xml:space="preserve">Mayotte</t>
   </si>
   <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Millennium Island (USA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
+    <t xml:space="preserve">Micronesia (Federated States of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova (the Republic of)</t>
   </si>
   <si>
     <t xml:space="preserve">Monaco</t>
@@ -1423,13 +1414,10 @@
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands Antilles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Caledonia (French POM)</t>
+    <t xml:space="preserve">Netherlands (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Caledonia</t>
   </si>
   <si>
     <t xml:space="preserve">New Zealand</t>
@@ -1438,7 +1426,7 @@
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
-    <t xml:space="preserve">Niger</t>
+    <t xml:space="preserve">Niger (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Nigeria</t>
@@ -1450,7 +1438,10 @@
     <t xml:space="preserve">Norfolk Island</t>
   </si>
   <si>
-    <t xml:space="preserve">North Korea</t>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Mariana Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Norway</t>
@@ -1465,7 +1456,7 @@
     <t xml:space="preserve">Palau</t>
   </si>
   <si>
-    <t xml:space="preserve">Palestine</t>
+    <t xml:space="preserve">Palestine, State of</t>
   </si>
   <si>
     <t xml:space="preserve">Panama</t>
@@ -1480,10 +1471,10 @@
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitcairn Islands</t>
+    <t xml:space="preserve">Philippines (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitcairn</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
@@ -1498,46 +1489,37 @@
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
-    <t xml:space="preserve">Réunion (French DROM)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
+    <t xml:space="preserve">Russian Federation (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Rwanda</t>
   </si>
   <si>
-    <t xml:space="preserve">Saba Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sahara Occidental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Barthélemy (French COM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Helena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts &amp; Nevis</t>
+    <t xml:space="preserve">Réunion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Barthélemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena, Ascension and Tristan da Cunha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saint Martin (Dutch Part)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Martin (French COM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Pierre and Miquelon (French COM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent &amp; The Grenadines</t>
+    <t xml:space="preserve">Saint Martin (French part)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
   </si>
   <si>
     <t xml:space="preserve">Samoa</t>
@@ -1546,7 +1528,7 @@
     <t xml:space="preserve">San Marino</t>
   </si>
   <si>
-    <t xml:space="preserve">Sao Tome &amp; Principe</t>
+    <t xml:space="preserve">Sao Tome and Principe</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -1567,7 +1549,7 @@
     <t xml:space="preserve">Singapore</t>
   </si>
   <si>
-    <t xml:space="preserve">Sint Eustatius</t>
+    <t xml:space="preserve">Sint Maarten (Dutch part)</t>
   </si>
   <si>
     <t xml:space="preserve">Slovakia</t>
@@ -1585,7 +1567,7 @@
     <t xml:space="preserve">South Africa</t>
   </si>
   <si>
-    <t xml:space="preserve">South Korea</t>
+    <t xml:space="preserve">South Georgia and the South Sandwich Islands</t>
   </si>
   <si>
     <t xml:space="preserve">South Sudan</t>
@@ -1597,13 +1579,13 @@
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">Sudan</t>
+    <t xml:space="preserve">Sudan (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Suriname</t>
   </si>
   <si>
-    <t xml:space="preserve">Swaziland</t>
+    <t xml:space="preserve">Svalbard and Jan Mayen</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
@@ -1612,16 +1594,16 @@
     <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
-    <t xml:space="preserve">Syria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tadjikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taiwan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t xml:space="preserve">Syrian Arab Republic (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan (Province of China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania, the United Republic of</t>
   </si>
   <si>
     <t xml:space="preserve">Thailand</t>
@@ -1633,15 +1615,12 @@
     <t xml:space="preserve">Togo</t>
   </si>
   <si>
-    <t xml:space="preserve">Tokelau Islands</t>
+    <t xml:space="preserve">Tokelau</t>
   </si>
   <si>
     <t xml:space="preserve">Tonga</t>
   </si>
   <si>
-    <t xml:space="preserve">Trentino-Alto Adige (Italy)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
@@ -1654,7 +1633,7 @@
     <t xml:space="preserve">Turkmenistan</t>
   </si>
   <si>
-    <t xml:space="preserve">Turks and Caicos Islands</t>
+    <t xml:space="preserve">Turks and Caicos Islands (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvalu</t>
@@ -1666,16 +1645,16 @@
     <t xml:space="preserve">Ukraine</t>
   </si>
   <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States Virgin Islands</t>
+    <t xml:space="preserve">United Arab Emirates (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom of Great Britain and Northern Ireland (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States Minor Outlying Islands (the)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States of America (the)</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
@@ -1687,31 +1666,40 @@
     <t xml:space="preserve">Vanuatu</t>
   </si>
   <si>
-    <t xml:space="preserve">Vatican City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallis and Futuna (French COM)</t>
+    <t xml:space="preserve">Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands (British)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virgin Islands (U.S.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Åland Islands</t>
   </si>
   <si>
     <t xml:space="preserve">Windward Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zanzibar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1710,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1750,7 +1738,7 @@
       <sz val="18"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1759,7 +1747,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1767,7 +1755,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1775,14 +1763,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFE2EFD9"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1790,7 +1778,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1798,7 +1786,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1806,7 +1794,7 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1814,7 +1802,14 @@
       <sz val="10"/>
       <color rgb="FFED7D31"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2001,7 +1996,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2174,6 +2169,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2251,7 +2250,143 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>317160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11851920" cy="12947040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>317160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11851920" cy="12947040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1269720</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>317160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11851920" cy="12947040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2262,14 +2397,14 @@
   <dimension ref="A1:AW1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="V5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="V45" activeCellId="0" sqref="15:45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
@@ -2293,7 +2428,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="17.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="42" style="0" width="14.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3706,11 +3841,11 @@
     <row r="993" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="994" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A14:AN45"/>
   <mergeCells count="7">
@@ -3741,14 +3876,14 @@
   <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="15:45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="4" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="15" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="14.5"/>
@@ -3820,342 +3955,342 @@
       <c r="G2" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="43" t="s">
         <v>93</v>
       </c>
       <c r="I2" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="K2" s="42" t="s">
         <v>95</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>96</v>
       </c>
       <c r="L2" s="42" t="n">
         <v>1.33</v>
       </c>
       <c r="M2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="42" t="s">
         <v>97</v>
-      </c>
-      <c r="N2" s="42" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="C3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="E3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="G3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="H3" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="I3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="J3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="K3" s="42" t="s">
         <v>108</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>109</v>
       </c>
       <c r="L3" s="42" t="n">
         <v>1.37</v>
       </c>
       <c r="M3" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="42" t="s">
         <v>110</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="D4" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="F4" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="G4" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="H4" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="I4" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="J4" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="K4" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>122</v>
       </c>
       <c r="L4" s="42" t="n">
         <v>1.66</v>
       </c>
       <c r="M4" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="42" t="s">
         <v>123</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="C5" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="E5" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="F5" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="G5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="H5" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="42" t="s">
+      <c r="I5" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="J5" s="42" t="s">
         <v>133</v>
-      </c>
-      <c r="J5" s="42" t="s">
-        <v>134</v>
       </c>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="n">
         <v>1.77</v>
       </c>
       <c r="M5" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="42" t="s">
         <v>135</v>
-      </c>
-      <c r="N5" s="42" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="D6" s="41" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="42" t="s">
         <v>142</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>143</v>
       </c>
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="n">
         <v>1.85</v>
       </c>
       <c r="M6" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="42" t="s">
         <v>145</v>
-      </c>
-      <c r="N6" s="42" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="C7" s="42" t="s">
         <v>148</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>149</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="G7" s="42" t="s">
         <v>151</v>
-      </c>
-      <c r="G7" s="42" t="s">
-        <v>152</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="M7" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="42" t="s">
+      <c r="N7" s="42" t="s">
         <v>155</v>
-      </c>
-      <c r="N7" s="42" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="C8" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="E8" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="F8" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="G8" s="42" t="s">
         <v>161</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>162</v>
       </c>
       <c r="H8" s="42"/>
       <c r="I8" s="42"/>
       <c r="J8" s="42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="42" t="s">
         <v>164</v>
-      </c>
-      <c r="N8" s="42" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="C9" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="E9" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="F9" s="42" t="s">
         <v>169</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>170</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="42"/>
       <c r="I9" s="42"/>
       <c r="J9" s="42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="C10" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="E10" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="42" t="s">
         <v>176</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>177</v>
       </c>
       <c r="G10" s="42"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="C11" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="E11" s="42" t="s">
         <v>182</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>183</v>
       </c>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K11" s="42"/>
       <c r="L11" s="42"/>
@@ -4164,23 +4299,23 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="C12" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="E12" s="42" t="s">
         <v>187</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>188</v>
       </c>
       <c r="F12" s="42"/>
       <c r="G12" s="42"/>
       <c r="H12" s="42"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" s="42"/>
       <c r="L12" s="42"/>
@@ -4189,23 +4324,23 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="C13" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="E13" s="42" t="s">
         <v>192</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>193</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
       <c r="H13" s="42"/>
       <c r="I13" s="42"/>
       <c r="J13" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K13" s="42"/>
       <c r="L13" s="42"/>
@@ -4214,23 +4349,23 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="C14" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="E14" s="42" t="s">
         <v>197</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>198</v>
       </c>
       <c r="F14" s="42"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="42"/>
       <c r="J14" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K14" s="42"/>
       <c r="L14" s="42"/>
@@ -4239,23 +4374,23 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="C15" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="E15" s="42" t="s">
         <v>202</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>203</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="42"/>
       <c r="H15" s="42"/>
       <c r="I15" s="42"/>
       <c r="J15" s="42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K15" s="42"/>
       <c r="L15" s="42"/>
@@ -4264,16 +4399,16 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="C16" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="E16" s="42" t="s">
         <v>207</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>208</v>
       </c>
       <c r="F16" s="42"/>
       <c r="G16" s="42"/>
@@ -4287,14 +4422,14 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>210</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>211</v>
       </c>
       <c r="F17" s="42"/>
       <c r="G17" s="42"/>
@@ -4308,14 +4443,14 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="41" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>213</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>214</v>
       </c>
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
@@ -4329,14 +4464,14 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E19" s="42" t="s">
         <v>216</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>217</v>
       </c>
       <c r="F19" s="42"/>
       <c r="G19" s="42"/>
@@ -4350,14 +4485,14 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="42" t="s">
         <v>219</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>220</v>
       </c>
       <c r="F20" s="42"/>
       <c r="G20" s="42"/>
@@ -4373,10 +4508,10 @@
       <c r="A21" s="42"/>
       <c r="B21" s="42"/>
       <c r="C21" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>221</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>222</v>
       </c>
       <c r="F21" s="42"/>
       <c r="G21" s="42"/>
@@ -4392,10 +4527,10 @@
       <c r="A22" s="42"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="E22" s="42" t="s">
         <v>223</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>224</v>
       </c>
       <c r="F22" s="42"/>
       <c r="G22" s="42"/>
@@ -4411,11 +4546,11 @@
       <c r="A23" s="42"/>
       <c r="B23" s="42"/>
       <c r="C23" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="41"/>
       <c r="E23" s="42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F23" s="42"/>
       <c r="G23" s="42"/>
@@ -4431,11 +4566,11 @@
       <c r="A24" s="42"/>
       <c r="B24" s="42"/>
       <c r="C24" s="42" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
@@ -4451,11 +4586,11 @@
       <c r="A25" s="42"/>
       <c r="B25" s="42"/>
       <c r="C25" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="42" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F25" s="42"/>
       <c r="G25" s="42"/>
@@ -4471,11 +4606,11 @@
       <c r="A26" s="42"/>
       <c r="B26" s="42"/>
       <c r="C26" s="42" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F26" s="42"/>
       <c r="G26" s="42"/>
@@ -4491,11 +4626,11 @@
       <c r="A27" s="42"/>
       <c r="B27" s="42"/>
       <c r="C27" s="42" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
@@ -4511,11 +4646,11 @@
       <c r="A28" s="42"/>
       <c r="B28" s="42"/>
       <c r="C28" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="42"/>
@@ -4531,11 +4666,11 @@
       <c r="A29" s="42"/>
       <c r="B29" s="42"/>
       <c r="C29" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
@@ -4551,11 +4686,11 @@
       <c r="A30" s="42"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
@@ -4571,11 +4706,11 @@
       <c r="A31" s="42"/>
       <c r="B31" s="42"/>
       <c r="C31" s="42" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D31" s="41"/>
       <c r="E31" s="42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
@@ -4591,11 +4726,11 @@
       <c r="A32" s="42"/>
       <c r="B32" s="42"/>
       <c r="C32" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D32" s="41"/>
       <c r="E32" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
@@ -4611,11 +4746,11 @@
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D33" s="41"/>
       <c r="E33" s="42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
@@ -4631,11 +4766,11 @@
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="41"/>
       <c r="E34" s="42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
@@ -4651,11 +4786,11 @@
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D35" s="41"/>
       <c r="E35" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
@@ -4671,11 +4806,11 @@
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D36" s="41"/>
       <c r="E36" s="42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -4691,11 +4826,11 @@
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D37" s="41"/>
       <c r="E37" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -4711,11 +4846,11 @@
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="41"/>
       <c r="E38" s="42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -4731,11 +4866,11 @@
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="41"/>
       <c r="E39" s="42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F39" s="42"/>
       <c r="G39" s="42"/>
@@ -4751,11 +4886,11 @@
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D40" s="41"/>
       <c r="E40" s="42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" s="42"/>
       <c r="G40" s="42"/>
@@ -4771,11 +4906,11 @@
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D41" s="41"/>
       <c r="E41" s="42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F41" s="42"/>
       <c r="G41" s="42"/>
@@ -4791,11 +4926,11 @@
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D42" s="41"/>
       <c r="E42" s="42" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F42" s="42"/>
       <c r="G42" s="42"/>
@@ -4811,11 +4946,11 @@
       <c r="A43" s="42"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" s="41"/>
       <c r="E43" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F43" s="42"/>
       <c r="G43" s="42"/>
@@ -4831,11 +4966,11 @@
       <c r="A44" s="42"/>
       <c r="B44" s="42"/>
       <c r="C44" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F44" s="42"/>
       <c r="G44" s="42"/>
@@ -4851,11 +4986,11 @@
       <c r="A45" s="42"/>
       <c r="B45" s="42"/>
       <c r="C45" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F45" s="42"/>
       <c r="G45" s="42"/>
@@ -4871,11 +5006,11 @@
       <c r="A46" s="42"/>
       <c r="B46" s="42"/>
       <c r="C46" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F46" s="42"/>
       <c r="G46" s="42"/>
@@ -4891,11 +5026,11 @@
       <c r="A47" s="42"/>
       <c r="B47" s="42"/>
       <c r="C47" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F47" s="42"/>
       <c r="G47" s="42"/>
@@ -4911,11 +5046,11 @@
       <c r="A48" s="42"/>
       <c r="B48" s="42"/>
       <c r="C48" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F48" s="42"/>
       <c r="G48" s="42"/>
@@ -4931,11 +5066,11 @@
       <c r="A49" s="42"/>
       <c r="B49" s="42"/>
       <c r="C49" s="42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F49" s="42"/>
       <c r="G49" s="42"/>
@@ -4951,11 +5086,11 @@
       <c r="A50" s="42"/>
       <c r="B50" s="42"/>
       <c r="C50" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F50" s="42"/>
       <c r="G50" s="42"/>
@@ -4971,11 +5106,11 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D51" s="41"/>
       <c r="E51" s="42" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F51" s="42"/>
       <c r="G51" s="42"/>
@@ -4991,11 +5126,11 @@
       <c r="A52" s="42"/>
       <c r="B52" s="42"/>
       <c r="C52" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D52" s="41"/>
       <c r="E52" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F52" s="42"/>
       <c r="G52" s="42"/>
@@ -5011,11 +5146,11 @@
       <c r="A53" s="42"/>
       <c r="B53" s="42"/>
       <c r="C53" s="42" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D53" s="41"/>
       <c r="E53" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F53" s="42"/>
       <c r="G53" s="42"/>
@@ -5031,11 +5166,11 @@
       <c r="A54" s="42"/>
       <c r="B54" s="42"/>
       <c r="C54" s="42" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D54" s="41"/>
       <c r="E54" s="42" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F54" s="42"/>
       <c r="G54" s="42"/>
@@ -5051,11 +5186,11 @@
       <c r="A55" s="42"/>
       <c r="B55" s="42"/>
       <c r="C55" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D55" s="41"/>
       <c r="E55" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F55" s="42"/>
       <c r="G55" s="42"/>
@@ -5071,11 +5206,11 @@
       <c r="A56" s="42"/>
       <c r="B56" s="42"/>
       <c r="C56" s="42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D56" s="41"/>
       <c r="E56" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F56" s="42"/>
       <c r="G56" s="42"/>
@@ -5091,11 +5226,11 @@
       <c r="A57" s="42"/>
       <c r="B57" s="42"/>
       <c r="C57" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D57" s="41"/>
       <c r="E57" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F57" s="42"/>
       <c r="G57" s="42"/>
@@ -5111,11 +5246,11 @@
       <c r="A58" s="42"/>
       <c r="B58" s="42"/>
       <c r="C58" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D58" s="41"/>
       <c r="E58" s="42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F58" s="42"/>
       <c r="G58" s="42"/>
@@ -5131,11 +5266,11 @@
       <c r="A59" s="42"/>
       <c r="B59" s="42"/>
       <c r="C59" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D59" s="41"/>
       <c r="E59" s="42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F59" s="42"/>
       <c r="G59" s="42"/>
@@ -5151,11 +5286,11 @@
       <c r="A60" s="42"/>
       <c r="B60" s="42"/>
       <c r="C60" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D60" s="41"/>
       <c r="E60" s="42" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F60" s="42"/>
       <c r="G60" s="42"/>
@@ -5171,11 +5306,11 @@
       <c r="A61" s="42"/>
       <c r="B61" s="42"/>
       <c r="C61" s="42" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D61" s="41"/>
       <c r="E61" s="42" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="42"/>
@@ -5191,11 +5326,11 @@
       <c r="A62" s="42"/>
       <c r="B62" s="42"/>
       <c r="C62" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D62" s="41"/>
       <c r="E62" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="42"/>
@@ -5211,11 +5346,11 @@
       <c r="A63" s="42"/>
       <c r="B63" s="42"/>
       <c r="C63" s="42" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D63" s="41"/>
       <c r="E63" s="42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F63" s="42"/>
       <c r="G63" s="42"/>
@@ -5231,11 +5366,11 @@
       <c r="A64" s="42"/>
       <c r="B64" s="42"/>
       <c r="C64" s="42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D64" s="41"/>
       <c r="E64" s="42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F64" s="42"/>
       <c r="G64" s="42"/>
@@ -5251,11 +5386,11 @@
       <c r="A65" s="42"/>
       <c r="B65" s="42"/>
       <c r="C65" s="42" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D65" s="41"/>
       <c r="E65" s="42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F65" s="42"/>
       <c r="G65" s="42"/>
@@ -5271,11 +5406,11 @@
       <c r="A66" s="42"/>
       <c r="B66" s="42"/>
       <c r="C66" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D66" s="41"/>
       <c r="E66" s="42" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F66" s="42"/>
       <c r="G66" s="42"/>
@@ -5291,11 +5426,11 @@
       <c r="A67" s="42"/>
       <c r="B67" s="42"/>
       <c r="C67" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D67" s="41"/>
       <c r="E67" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F67" s="42"/>
       <c r="G67" s="42"/>
@@ -5311,11 +5446,11 @@
       <c r="A68" s="42"/>
       <c r="B68" s="42"/>
       <c r="C68" s="42" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D68" s="41"/>
       <c r="E68" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F68" s="42"/>
       <c r="G68" s="42"/>
@@ -5331,11 +5466,11 @@
       <c r="A69" s="42"/>
       <c r="B69" s="42"/>
       <c r="C69" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D69" s="41"/>
       <c r="E69" s="42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F69" s="42"/>
       <c r="G69" s="42"/>
@@ -5351,11 +5486,11 @@
       <c r="A70" s="42"/>
       <c r="B70" s="42"/>
       <c r="C70" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" s="41"/>
       <c r="E70" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F70" s="42"/>
       <c r="G70" s="42"/>
@@ -5371,11 +5506,11 @@
       <c r="A71" s="42"/>
       <c r="B71" s="42"/>
       <c r="C71" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D71" s="41"/>
       <c r="E71" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F71" s="42"/>
       <c r="G71" s="42"/>
@@ -5391,11 +5526,11 @@
       <c r="A72" s="42"/>
       <c r="B72" s="42"/>
       <c r="C72" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D72" s="41"/>
       <c r="E72" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="42"/>
@@ -5411,11 +5546,11 @@
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D73" s="41"/>
       <c r="E73" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="42"/>
@@ -5431,11 +5566,11 @@
       <c r="A74" s="42"/>
       <c r="B74" s="42"/>
       <c r="C74" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D74" s="41"/>
       <c r="E74" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="42"/>
@@ -5451,11 +5586,11 @@
       <c r="A75" s="42"/>
       <c r="B75" s="42"/>
       <c r="C75" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D75" s="41"/>
       <c r="E75" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F75" s="42"/>
       <c r="G75" s="42"/>
@@ -5471,11 +5606,11 @@
       <c r="A76" s="42"/>
       <c r="B76" s="42"/>
       <c r="C76" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D76" s="41"/>
       <c r="E76" s="42" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="42"/>
@@ -5491,11 +5626,11 @@
       <c r="A77" s="42"/>
       <c r="B77" s="42"/>
       <c r="C77" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D77" s="41"/>
       <c r="E77" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="42"/>
@@ -5511,11 +5646,11 @@
       <c r="A78" s="42"/>
       <c r="B78" s="42"/>
       <c r="C78" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="41"/>
       <c r="E78" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="42"/>
@@ -5531,11 +5666,11 @@
       <c r="A79" s="42"/>
       <c r="B79" s="42"/>
       <c r="C79" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="41"/>
       <c r="E79" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F79" s="42"/>
       <c r="G79" s="42"/>
@@ -5551,11 +5686,11 @@
       <c r="A80" s="42"/>
       <c r="B80" s="42"/>
       <c r="C80" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D80" s="41"/>
       <c r="E80" s="42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="42"/>
@@ -5571,11 +5706,11 @@
       <c r="A81" s="42"/>
       <c r="B81" s="42"/>
       <c r="C81" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D81" s="41"/>
       <c r="E81" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F81" s="42"/>
       <c r="G81" s="42"/>
@@ -5591,11 +5726,11 @@
       <c r="A82" s="42"/>
       <c r="B82" s="42"/>
       <c r="C82" s="42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D82" s="41"/>
       <c r="E82" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F82" s="42"/>
       <c r="G82" s="42"/>
@@ -5611,11 +5746,11 @@
       <c r="A83" s="42"/>
       <c r="B83" s="42"/>
       <c r="C83" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D83" s="41"/>
       <c r="E83" s="42" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F83" s="42"/>
       <c r="G83" s="42"/>
@@ -5631,11 +5766,11 @@
       <c r="A84" s="42"/>
       <c r="B84" s="42"/>
       <c r="C84" s="42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D84" s="41"/>
       <c r="E84" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F84" s="42"/>
       <c r="G84" s="42"/>
@@ -5651,11 +5786,11 @@
       <c r="A85" s="42"/>
       <c r="B85" s="42"/>
       <c r="C85" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D85" s="41"/>
       <c r="E85" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42"/>
@@ -5671,7 +5806,7 @@
       <c r="A86" s="42"/>
       <c r="B86" s="42"/>
       <c r="C86" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D86" s="41"/>
       <c r="E86" s="42"/>
@@ -5689,7 +5824,7 @@
       <c r="A87" s="42"/>
       <c r="B87" s="42"/>
       <c r="C87" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D87" s="41"/>
       <c r="E87" s="42"/>
@@ -5707,7 +5842,7 @@
       <c r="A88" s="42"/>
       <c r="B88" s="42"/>
       <c r="C88" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D88" s="41"/>
       <c r="E88" s="42"/>
@@ -5725,7 +5860,7 @@
       <c r="A89" s="42"/>
       <c r="B89" s="42"/>
       <c r="C89" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D89" s="41"/>
       <c r="E89" s="42"/>
@@ -5743,7 +5878,7 @@
       <c r="A90" s="42"/>
       <c r="B90" s="42"/>
       <c r="C90" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D90" s="41"/>
       <c r="E90" s="42"/>
@@ -5761,7 +5896,7 @@
       <c r="A91" s="42"/>
       <c r="B91" s="42"/>
       <c r="C91" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D91" s="41"/>
       <c r="E91" s="42"/>
@@ -5779,7 +5914,7 @@
       <c r="A92" s="42"/>
       <c r="B92" s="42"/>
       <c r="C92" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D92" s="41"/>
       <c r="E92" s="42"/>
@@ -5797,7 +5932,7 @@
       <c r="A93" s="42"/>
       <c r="B93" s="42"/>
       <c r="C93" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D93" s="41"/>
       <c r="E93" s="42"/>
@@ -5815,7 +5950,7 @@
       <c r="A94" s="42"/>
       <c r="B94" s="42"/>
       <c r="C94" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D94" s="41"/>
       <c r="E94" s="42"/>
@@ -5833,7 +5968,7 @@
       <c r="A95" s="42"/>
       <c r="B95" s="42"/>
       <c r="C95" s="42" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D95" s="41"/>
       <c r="E95" s="42"/>
@@ -5851,7 +5986,7 @@
       <c r="A96" s="42"/>
       <c r="B96" s="42"/>
       <c r="C96" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D96" s="41"/>
       <c r="E96" s="42"/>
@@ -5869,7 +6004,7 @@
       <c r="A97" s="42"/>
       <c r="B97" s="42"/>
       <c r="C97" s="42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D97" s="41"/>
       <c r="E97" s="42"/>
@@ -5887,7 +6022,7 @@
       <c r="A98" s="42"/>
       <c r="B98" s="42"/>
       <c r="C98" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D98" s="41"/>
       <c r="E98" s="42"/>
@@ -5905,7 +6040,7 @@
       <c r="A99" s="42"/>
       <c r="B99" s="42"/>
       <c r="C99" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D99" s="41"/>
       <c r="E99" s="42"/>
@@ -5923,7 +6058,7 @@
       <c r="A100" s="42"/>
       <c r="B100" s="42"/>
       <c r="C100" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D100" s="41"/>
       <c r="E100" s="42"/>
@@ -5941,7 +6076,7 @@
       <c r="A101" s="42"/>
       <c r="B101" s="42"/>
       <c r="C101" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D101" s="41"/>
       <c r="E101" s="42"/>
@@ -5959,7 +6094,7 @@
       <c r="A102" s="42"/>
       <c r="B102" s="42"/>
       <c r="C102" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D102" s="41"/>
       <c r="E102" s="42"/>
@@ -5977,7 +6112,7 @@
       <c r="A103" s="42"/>
       <c r="B103" s="42"/>
       <c r="C103" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D103" s="41"/>
       <c r="E103" s="42"/>
@@ -5995,7 +6130,7 @@
       <c r="A104" s="42"/>
       <c r="B104" s="42"/>
       <c r="C104" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D104" s="41"/>
       <c r="E104" s="42"/>
@@ -6013,7 +6148,7 @@
       <c r="A105" s="42"/>
       <c r="B105" s="42"/>
       <c r="C105" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D105" s="41"/>
       <c r="E105" s="42"/>
@@ -6031,7 +6166,7 @@
       <c r="A106" s="42"/>
       <c r="B106" s="42"/>
       <c r="C106" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D106" s="41"/>
       <c r="E106" s="42"/>
@@ -6049,7 +6184,7 @@
       <c r="A107" s="42"/>
       <c r="B107" s="42"/>
       <c r="C107" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D107" s="41"/>
       <c r="E107" s="42"/>
@@ -6067,7 +6202,7 @@
       <c r="A108" s="42"/>
       <c r="B108" s="42"/>
       <c r="C108" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D108" s="41"/>
       <c r="E108" s="42"/>
@@ -6085,7 +6220,7 @@
       <c r="A109" s="42"/>
       <c r="B109" s="42"/>
       <c r="C109" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D109" s="41"/>
       <c r="E109" s="42"/>
@@ -6103,7 +6238,7 @@
       <c r="A110" s="42"/>
       <c r="B110" s="42"/>
       <c r="C110" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D110" s="41"/>
       <c r="E110" s="42"/>
@@ -6121,7 +6256,7 @@
       <c r="A111" s="42"/>
       <c r="B111" s="42"/>
       <c r="C111" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D111" s="41"/>
       <c r="E111" s="42"/>
@@ -6139,7 +6274,7 @@
       <c r="A112" s="42"/>
       <c r="B112" s="42"/>
       <c r="C112" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D112" s="41"/>
       <c r="E112" s="42"/>
@@ -6157,7 +6292,7 @@
       <c r="A113" s="42"/>
       <c r="B113" s="42"/>
       <c r="C113" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D113" s="41"/>
       <c r="E113" s="42"/>
@@ -6175,7 +6310,7 @@
       <c r="A114" s="42"/>
       <c r="B114" s="42"/>
       <c r="C114" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D114" s="41"/>
       <c r="E114" s="42"/>
@@ -6193,7 +6328,7 @@
       <c r="A115" s="42"/>
       <c r="B115" s="42"/>
       <c r="C115" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D115" s="41"/>
       <c r="E115" s="42"/>
@@ -6211,7 +6346,7 @@
       <c r="A116" s="42"/>
       <c r="B116" s="42"/>
       <c r="C116" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D116" s="41"/>
       <c r="E116" s="42"/>
@@ -6229,7 +6364,7 @@
       <c r="A117" s="42"/>
       <c r="B117" s="42"/>
       <c r="C117" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D117" s="41"/>
       <c r="E117" s="42"/>
@@ -6247,7 +6382,7 @@
       <c r="A118" s="42"/>
       <c r="B118" s="42"/>
       <c r="C118" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D118" s="41"/>
       <c r="E118" s="42"/>
@@ -6265,7 +6400,7 @@
       <c r="A119" s="42"/>
       <c r="B119" s="42"/>
       <c r="C119" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D119" s="41"/>
       <c r="E119" s="42"/>
@@ -6283,7 +6418,7 @@
       <c r="A120" s="42"/>
       <c r="B120" s="42"/>
       <c r="C120" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D120" s="41"/>
       <c r="E120" s="42"/>
@@ -6301,7 +6436,7 @@
       <c r="A121" s="42"/>
       <c r="B121" s="42"/>
       <c r="C121" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D121" s="41"/>
       <c r="E121" s="42"/>
@@ -6319,7 +6454,7 @@
       <c r="A122" s="42"/>
       <c r="B122" s="42"/>
       <c r="C122" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D122" s="41"/>
       <c r="E122" s="42"/>
@@ -6337,7 +6472,7 @@
       <c r="A123" s="42"/>
       <c r="B123" s="42"/>
       <c r="C123" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D123" s="41"/>
       <c r="E123" s="42"/>
@@ -6355,7 +6490,7 @@
       <c r="A124" s="42"/>
       <c r="B124" s="42"/>
       <c r="C124" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D124" s="41"/>
       <c r="E124" s="42"/>
@@ -6373,7 +6508,7 @@
       <c r="A125" s="42"/>
       <c r="B125" s="42"/>
       <c r="C125" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D125" s="41"/>
       <c r="E125" s="42"/>
@@ -6391,7 +6526,7 @@
       <c r="A126" s="42"/>
       <c r="B126" s="42"/>
       <c r="C126" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D126" s="41"/>
       <c r="E126" s="42"/>
@@ -6409,7 +6544,7 @@
       <c r="A127" s="42"/>
       <c r="B127" s="42"/>
       <c r="C127" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D127" s="41"/>
       <c r="E127" s="42"/>
@@ -6427,7 +6562,7 @@
       <c r="A128" s="42"/>
       <c r="B128" s="42"/>
       <c r="C128" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D128" s="41"/>
       <c r="E128" s="42"/>
@@ -6445,7 +6580,7 @@
       <c r="A129" s="42"/>
       <c r="B129" s="42"/>
       <c r="C129" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D129" s="41"/>
       <c r="E129" s="42"/>
@@ -6463,7 +6598,7 @@
       <c r="A130" s="42"/>
       <c r="B130" s="42"/>
       <c r="C130" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D130" s="41"/>
       <c r="E130" s="42"/>
@@ -6481,7 +6616,7 @@
       <c r="A131" s="42"/>
       <c r="B131" s="42"/>
       <c r="C131" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D131" s="41"/>
       <c r="E131" s="42"/>
@@ -6499,7 +6634,7 @@
       <c r="A132" s="42"/>
       <c r="B132" s="42"/>
       <c r="C132" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D132" s="41"/>
       <c r="E132" s="42"/>
@@ -6517,7 +6652,7 @@
       <c r="A133" s="42"/>
       <c r="B133" s="42"/>
       <c r="C133" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D133" s="41"/>
       <c r="E133" s="42"/>
@@ -6535,7 +6670,7 @@
       <c r="A134" s="42"/>
       <c r="B134" s="42"/>
       <c r="C134" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D134" s="41"/>
       <c r="E134" s="42"/>
@@ -6553,7 +6688,7 @@
       <c r="A135" s="42"/>
       <c r="B135" s="42"/>
       <c r="C135" s="42" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D135" s="41"/>
       <c r="E135" s="42"/>
@@ -6571,7 +6706,7 @@
       <c r="A136" s="42"/>
       <c r="B136" s="42"/>
       <c r="C136" s="42" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D136" s="41"/>
       <c r="E136" s="42"/>
@@ -6589,7 +6724,7 @@
       <c r="A137" s="42"/>
       <c r="B137" s="42"/>
       <c r="C137" s="42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D137" s="41"/>
       <c r="E137" s="42"/>
@@ -6607,7 +6742,7 @@
       <c r="A138" s="42"/>
       <c r="B138" s="42"/>
       <c r="C138" s="42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D138" s="41"/>
       <c r="E138" s="42"/>
@@ -6625,7 +6760,7 @@
       <c r="A139" s="42"/>
       <c r="B139" s="42"/>
       <c r="C139" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D139" s="41"/>
       <c r="E139" s="42"/>
@@ -6643,7 +6778,7 @@
       <c r="A140" s="42"/>
       <c r="B140" s="42"/>
       <c r="C140" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D140" s="41"/>
       <c r="E140" s="42"/>
@@ -6661,7 +6796,7 @@
       <c r="A141" s="42"/>
       <c r="B141" s="42"/>
       <c r="C141" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D141" s="41"/>
       <c r="E141" s="42"/>
@@ -6679,7 +6814,7 @@
       <c r="A142" s="42"/>
       <c r="B142" s="42"/>
       <c r="C142" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D142" s="41"/>
       <c r="E142" s="42"/>
@@ -6697,7 +6832,7 @@
       <c r="A143" s="42"/>
       <c r="B143" s="42"/>
       <c r="C143" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D143" s="41"/>
       <c r="E143" s="42"/>
@@ -6715,7 +6850,7 @@
       <c r="A144" s="42"/>
       <c r="B144" s="42"/>
       <c r="C144" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D144" s="41"/>
       <c r="E144" s="42"/>
@@ -6733,7 +6868,7 @@
       <c r="A145" s="42"/>
       <c r="B145" s="42"/>
       <c r="C145" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D145" s="41"/>
       <c r="E145" s="42"/>
@@ -6751,7 +6886,7 @@
       <c r="A146" s="42"/>
       <c r="B146" s="42"/>
       <c r="C146" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D146" s="41"/>
       <c r="E146" s="42"/>
@@ -6769,7 +6904,7 @@
       <c r="A147" s="42"/>
       <c r="B147" s="42"/>
       <c r="C147" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D147" s="41"/>
       <c r="E147" s="42"/>
@@ -6787,7 +6922,7 @@
       <c r="A148" s="42"/>
       <c r="B148" s="42"/>
       <c r="C148" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D148" s="41"/>
       <c r="E148" s="42"/>
@@ -6805,7 +6940,7 @@
       <c r="A149" s="42"/>
       <c r="B149" s="42"/>
       <c r="C149" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D149" s="41"/>
       <c r="E149" s="42"/>
@@ -6823,7 +6958,7 @@
       <c r="A150" s="42"/>
       <c r="B150" s="42"/>
       <c r="C150" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D150" s="41"/>
       <c r="E150" s="42"/>
@@ -6841,7 +6976,7 @@
       <c r="A151" s="42"/>
       <c r="B151" s="42"/>
       <c r="C151" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D151" s="41"/>
       <c r="E151" s="42"/>
@@ -6859,7 +6994,7 @@
       <c r="A152" s="42"/>
       <c r="B152" s="42"/>
       <c r="C152" s="42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D152" s="41"/>
       <c r="E152" s="42"/>
@@ -6877,7 +7012,7 @@
       <c r="A153" s="42"/>
       <c r="B153" s="42"/>
       <c r="C153" s="42" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D153" s="41"/>
       <c r="E153" s="42"/>
@@ -6895,7 +7030,7 @@
       <c r="A154" s="42"/>
       <c r="B154" s="42"/>
       <c r="C154" s="42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D154" s="41"/>
       <c r="E154" s="42"/>
@@ -6913,7 +7048,7 @@
       <c r="A155" s="42"/>
       <c r="B155" s="42"/>
       <c r="C155" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D155" s="41"/>
       <c r="E155" s="42"/>
@@ -6931,7 +7066,7 @@
       <c r="A156" s="42"/>
       <c r="B156" s="42"/>
       <c r="C156" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D156" s="41"/>
       <c r="E156" s="42"/>
@@ -6949,7 +7084,7 @@
       <c r="A157" s="42"/>
       <c r="B157" s="42"/>
       <c r="C157" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D157" s="41"/>
       <c r="E157" s="42"/>
@@ -6967,7 +7102,7 @@
       <c r="A158" s="42"/>
       <c r="B158" s="42"/>
       <c r="C158" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D158" s="41"/>
       <c r="E158" s="42"/>
@@ -6985,7 +7120,7 @@
       <c r="A159" s="42"/>
       <c r="B159" s="42"/>
       <c r="C159" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D159" s="41"/>
       <c r="E159" s="42"/>
@@ -7003,7 +7138,7 @@
       <c r="A160" s="42"/>
       <c r="B160" s="42"/>
       <c r="C160" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D160" s="41"/>
       <c r="E160" s="42"/>
@@ -7021,7 +7156,7 @@
       <c r="A161" s="42"/>
       <c r="B161" s="42"/>
       <c r="C161" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D161" s="41"/>
       <c r="E161" s="42"/>
@@ -7039,7 +7174,7 @@
       <c r="A162" s="42"/>
       <c r="B162" s="42"/>
       <c r="C162" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D162" s="41"/>
       <c r="E162" s="42"/>
@@ -7057,7 +7192,7 @@
       <c r="A163" s="42"/>
       <c r="B163" s="42"/>
       <c r="C163" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D163" s="41"/>
       <c r="E163" s="42"/>
@@ -7075,7 +7210,7 @@
       <c r="A164" s="42"/>
       <c r="B164" s="42"/>
       <c r="C164" s="42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D164" s="41"/>
       <c r="E164" s="42"/>
@@ -7093,7 +7228,7 @@
       <c r="A165" s="42"/>
       <c r="B165" s="42"/>
       <c r="C165" s="42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D165" s="41"/>
       <c r="E165" s="42"/>
@@ -7111,7 +7246,7 @@
       <c r="A166" s="42"/>
       <c r="B166" s="42"/>
       <c r="C166" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D166" s="41"/>
       <c r="E166" s="42"/>
@@ -7129,7 +7264,7 @@
       <c r="A167" s="42"/>
       <c r="B167" s="42"/>
       <c r="C167" s="42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D167" s="41"/>
       <c r="E167" s="42"/>
@@ -7147,7 +7282,7 @@
       <c r="A168" s="42"/>
       <c r="B168" s="42"/>
       <c r="C168" s="42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D168" s="41"/>
       <c r="E168" s="42"/>
@@ -7165,7 +7300,7 @@
       <c r="A169" s="42"/>
       <c r="B169" s="42"/>
       <c r="C169" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D169" s="41"/>
       <c r="E169" s="42"/>
@@ -7183,7 +7318,7 @@
       <c r="A170" s="42"/>
       <c r="B170" s="42"/>
       <c r="C170" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D170" s="41"/>
       <c r="E170" s="42"/>
@@ -7201,7 +7336,7 @@
       <c r="A171" s="42"/>
       <c r="B171" s="42"/>
       <c r="C171" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D171" s="41"/>
       <c r="E171" s="42"/>
@@ -7219,7 +7354,7 @@
       <c r="A172" s="42"/>
       <c r="B172" s="42"/>
       <c r="C172" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D172" s="41"/>
       <c r="E172" s="42"/>
@@ -7237,7 +7372,7 @@
       <c r="A173" s="42"/>
       <c r="B173" s="42"/>
       <c r="C173" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D173" s="41"/>
       <c r="E173" s="42"/>
@@ -7255,7 +7390,7 @@
       <c r="A174" s="42"/>
       <c r="B174" s="42"/>
       <c r="C174" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D174" s="41"/>
       <c r="E174" s="42"/>
@@ -7273,7 +7408,7 @@
       <c r="A175" s="42"/>
       <c r="B175" s="42"/>
       <c r="C175" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D175" s="41"/>
       <c r="E175" s="42"/>
@@ -7291,7 +7426,7 @@
       <c r="A176" s="42"/>
       <c r="B176" s="42"/>
       <c r="C176" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D176" s="41"/>
       <c r="E176" s="42"/>
@@ -7309,7 +7444,7 @@
       <c r="A177" s="42"/>
       <c r="B177" s="42"/>
       <c r="C177" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D177" s="41"/>
       <c r="E177" s="42"/>
@@ -7327,7 +7462,7 @@
       <c r="A178" s="42"/>
       <c r="B178" s="42"/>
       <c r="C178" s="42" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D178" s="41"/>
       <c r="E178" s="42"/>
@@ -7345,7 +7480,7 @@
       <c r="A179" s="42"/>
       <c r="B179" s="42"/>
       <c r="C179" s="42" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D179" s="41"/>
       <c r="E179" s="42"/>
@@ -7363,7 +7498,7 @@
       <c r="A180" s="42"/>
       <c r="B180" s="42"/>
       <c r="C180" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D180" s="41"/>
       <c r="E180" s="42"/>
@@ -7381,7 +7516,7 @@
       <c r="A181" s="42"/>
       <c r="B181" s="42"/>
       <c r="C181" s="42" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D181" s="41"/>
       <c r="E181" s="42"/>
@@ -7399,7 +7534,7 @@
       <c r="A182" s="42"/>
       <c r="B182" s="42"/>
       <c r="C182" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="42"/>
@@ -7417,7 +7552,7 @@
       <c r="A183" s="42"/>
       <c r="B183" s="42"/>
       <c r="C183" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="42"/>
@@ -7435,7 +7570,7 @@
       <c r="A184" s="42"/>
       <c r="B184" s="42"/>
       <c r="C184" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="42"/>
@@ -7453,7 +7588,7 @@
       <c r="A185" s="42"/>
       <c r="B185" s="42"/>
       <c r="C185" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="42"/>
@@ -7471,7 +7606,7 @@
       <c r="A186" s="42"/>
       <c r="B186" s="42"/>
       <c r="C186" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D186" s="41"/>
       <c r="E186" s="42"/>
@@ -7489,7 +7624,7 @@
       <c r="A187" s="42"/>
       <c r="B187" s="42"/>
       <c r="C187" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D187" s="41"/>
       <c r="E187" s="42"/>
@@ -7507,7 +7642,7 @@
       <c r="A188" s="42"/>
       <c r="B188" s="42"/>
       <c r="C188" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D188" s="41"/>
       <c r="E188" s="42"/>
@@ -7525,7 +7660,7 @@
       <c r="A189" s="42"/>
       <c r="B189" s="42"/>
       <c r="C189" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D189" s="41"/>
       <c r="E189" s="42"/>
@@ -7543,7 +7678,7 @@
       <c r="A190" s="42"/>
       <c r="B190" s="42"/>
       <c r="C190" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D190" s="41"/>
       <c r="E190" s="42"/>
@@ -7561,7 +7696,7 @@
       <c r="A191" s="42"/>
       <c r="B191" s="42"/>
       <c r="C191" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D191" s="41"/>
       <c r="E191" s="42"/>
@@ -7579,7 +7714,7 @@
       <c r="A192" s="42"/>
       <c r="B192" s="42"/>
       <c r="C192" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D192" s="41"/>
       <c r="E192" s="42"/>
@@ -7597,7 +7732,7 @@
       <c r="A193" s="42"/>
       <c r="B193" s="42"/>
       <c r="C193" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D193" s="41"/>
       <c r="E193" s="42"/>
@@ -7615,7 +7750,7 @@
       <c r="A194" s="42"/>
       <c r="B194" s="42"/>
       <c r="C194" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D194" s="41"/>
       <c r="E194" s="42"/>
@@ -7633,7 +7768,7 @@
       <c r="A195" s="42"/>
       <c r="B195" s="42"/>
       <c r="C195" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D195" s="41"/>
       <c r="E195" s="42"/>
@@ -7651,7 +7786,7 @@
       <c r="A196" s="42"/>
       <c r="B196" s="42"/>
       <c r="C196" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D196" s="41"/>
       <c r="E196" s="42"/>
@@ -7669,7 +7804,7 @@
       <c r="A197" s="42"/>
       <c r="B197" s="42"/>
       <c r="C197" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D197" s="41"/>
       <c r="E197" s="42"/>
@@ -7687,7 +7822,7 @@
       <c r="A198" s="42"/>
       <c r="B198" s="42"/>
       <c r="C198" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D198" s="41"/>
       <c r="E198" s="42"/>
@@ -7705,7 +7840,7 @@
       <c r="A199" s="42"/>
       <c r="B199" s="42"/>
       <c r="C199" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D199" s="41"/>
       <c r="E199" s="42"/>
@@ -7723,7 +7858,7 @@
       <c r="A200" s="42"/>
       <c r="B200" s="42"/>
       <c r="C200" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D200" s="41"/>
       <c r="E200" s="42"/>
@@ -7741,7 +7876,7 @@
       <c r="A201" s="42"/>
       <c r="B201" s="42"/>
       <c r="C201" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D201" s="41"/>
       <c r="E201" s="42"/>
@@ -7759,7 +7894,7 @@
       <c r="A202" s="42"/>
       <c r="B202" s="42"/>
       <c r="C202" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D202" s="41"/>
       <c r="E202" s="42"/>
@@ -7777,7 +7912,7 @@
       <c r="A203" s="42"/>
       <c r="B203" s="42"/>
       <c r="C203" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D203" s="41"/>
       <c r="E203" s="42"/>
@@ -7795,7 +7930,7 @@
       <c r="A204" s="42"/>
       <c r="B204" s="42"/>
       <c r="C204" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D204" s="41"/>
       <c r="E204" s="42"/>
@@ -7813,7 +7948,7 @@
       <c r="A205" s="42"/>
       <c r="B205" s="42"/>
       <c r="C205" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D205" s="41"/>
       <c r="E205" s="42"/>
@@ -7831,7 +7966,7 @@
       <c r="A206" s="42"/>
       <c r="B206" s="42"/>
       <c r="C206" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D206" s="41"/>
       <c r="E206" s="42"/>
@@ -7849,7 +7984,7 @@
       <c r="A207" s="42"/>
       <c r="B207" s="42"/>
       <c r="C207" s="42" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D207" s="41"/>
       <c r="E207" s="42"/>
@@ -7867,7 +8002,7 @@
       <c r="A208" s="42"/>
       <c r="B208" s="42"/>
       <c r="C208" s="42" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D208" s="41"/>
       <c r="E208" s="42"/>
@@ -7885,7 +8020,7 @@
       <c r="A209" s="42"/>
       <c r="B209" s="42"/>
       <c r="C209" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D209" s="41"/>
       <c r="E209" s="42"/>
@@ -7903,7 +8038,7 @@
       <c r="A210" s="42"/>
       <c r="B210" s="42"/>
       <c r="C210" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D210" s="41"/>
       <c r="E210" s="42"/>
@@ -7921,7 +8056,7 @@
       <c r="A211" s="42"/>
       <c r="B211" s="42"/>
       <c r="C211" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D211" s="41"/>
       <c r="E211" s="42"/>
@@ -7939,7 +8074,7 @@
       <c r="A212" s="42"/>
       <c r="B212" s="42"/>
       <c r="C212" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D212" s="41"/>
       <c r="E212" s="42"/>
@@ -7957,7 +8092,7 @@
       <c r="A213" s="42"/>
       <c r="B213" s="42"/>
       <c r="C213" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D213" s="41"/>
       <c r="E213" s="42"/>
@@ -7975,7 +8110,7 @@
       <c r="A214" s="42"/>
       <c r="B214" s="42"/>
       <c r="C214" s="42" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D214" s="41"/>
       <c r="E214" s="42"/>
@@ -7993,7 +8128,7 @@
       <c r="A215" s="42"/>
       <c r="B215" s="42"/>
       <c r="C215" s="42" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D215" s="41"/>
       <c r="E215" s="42"/>
@@ -8011,7 +8146,7 @@
       <c r="A216" s="42"/>
       <c r="B216" s="42"/>
       <c r="C216" s="42" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D216" s="41"/>
       <c r="E216" s="42"/>
@@ -8029,7 +8164,7 @@
       <c r="A217" s="42"/>
       <c r="B217" s="42"/>
       <c r="C217" s="42" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D217" s="41"/>
       <c r="E217" s="42"/>
@@ -8047,7 +8182,7 @@
       <c r="A218" s="42"/>
       <c r="B218" s="42"/>
       <c r="C218" s="42" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D218" s="41"/>
       <c r="E218" s="42"/>
@@ -8065,7 +8200,7 @@
       <c r="A219" s="42"/>
       <c r="B219" s="42"/>
       <c r="C219" s="42" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D219" s="41"/>
       <c r="E219" s="42"/>
@@ -8083,7 +8218,7 @@
       <c r="A220" s="42"/>
       <c r="B220" s="42"/>
       <c r="C220" s="42" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D220" s="41"/>
       <c r="E220" s="42"/>
@@ -8101,7 +8236,7 @@
       <c r="A221" s="42"/>
       <c r="B221" s="42"/>
       <c r="C221" s="42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D221" s="41"/>
       <c r="E221" s="42"/>
@@ -8119,7 +8254,7 @@
       <c r="A222" s="42"/>
       <c r="B222" s="42"/>
       <c r="C222" s="42" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D222" s="41"/>
       <c r="E222" s="42"/>
@@ -8137,7 +8272,7 @@
       <c r="A223" s="42"/>
       <c r="B223" s="42"/>
       <c r="C223" s="42" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D223" s="41"/>
       <c r="E223" s="42"/>
@@ -8155,7 +8290,7 @@
       <c r="A224" s="42"/>
       <c r="B224" s="42"/>
       <c r="C224" s="42" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D224" s="41"/>
       <c r="E224" s="42"/>
@@ -8173,7 +8308,7 @@
       <c r="A225" s="42"/>
       <c r="B225" s="42"/>
       <c r="C225" s="42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D225" s="41"/>
       <c r="E225" s="42"/>
@@ -8191,7 +8326,7 @@
       <c r="A226" s="42"/>
       <c r="B226" s="42"/>
       <c r="C226" s="42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D226" s="41"/>
       <c r="E226" s="42"/>
@@ -8209,7 +8344,7 @@
       <c r="A227" s="42"/>
       <c r="B227" s="42"/>
       <c r="C227" s="42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D227" s="41"/>
       <c r="E227" s="42"/>
@@ -8227,7 +8362,7 @@
       <c r="A228" s="42"/>
       <c r="B228" s="42"/>
       <c r="C228" s="42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D228" s="41"/>
       <c r="E228" s="42"/>
@@ -8245,7 +8380,7 @@
       <c r="A229" s="42"/>
       <c r="B229" s="42"/>
       <c r="C229" s="42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D229" s="41"/>
       <c r="E229" s="42"/>
@@ -8263,7 +8398,7 @@
       <c r="A230" s="42"/>
       <c r="B230" s="42"/>
       <c r="C230" s="42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D230" s="41"/>
       <c r="E230" s="42"/>
@@ -8281,7 +8416,7 @@
       <c r="A231" s="42"/>
       <c r="B231" s="42"/>
       <c r="C231" s="42" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D231" s="41"/>
       <c r="E231" s="42"/>
@@ -8299,7 +8434,7 @@
       <c r="A232" s="42"/>
       <c r="B232" s="42"/>
       <c r="C232" s="42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D232" s="41"/>
       <c r="E232" s="42"/>
@@ -8317,7 +8452,7 @@
       <c r="A233" s="42"/>
       <c r="B233" s="42"/>
       <c r="C233" s="42" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D233" s="41"/>
       <c r="E233" s="42"/>
@@ -8335,7 +8470,7 @@
       <c r="A234" s="42"/>
       <c r="B234" s="42"/>
       <c r="C234" s="42" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D234" s="41"/>
       <c r="E234" s="42"/>
@@ -8353,7 +8488,7 @@
       <c r="A235" s="42"/>
       <c r="B235" s="42"/>
       <c r="C235" s="42" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D235" s="41"/>
       <c r="E235" s="42"/>
@@ -8371,7 +8506,7 @@
       <c r="A236" s="42"/>
       <c r="B236" s="42"/>
       <c r="C236" s="42" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D236" s="41"/>
       <c r="E236" s="42"/>
@@ -8389,7 +8524,7 @@
       <c r="A237" s="42"/>
       <c r="B237" s="42"/>
       <c r="C237" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D237" s="41"/>
       <c r="E237" s="42"/>
@@ -8407,7 +8542,7 @@
       <c r="A238" s="42"/>
       <c r="B238" s="42"/>
       <c r="C238" s="42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D238" s="41"/>
       <c r="E238" s="42"/>
@@ -8425,7 +8560,7 @@
       <c r="A239" s="42"/>
       <c r="B239" s="42"/>
       <c r="C239" s="42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D239" s="41"/>
       <c r="E239" s="42"/>
@@ -8443,7 +8578,7 @@
       <c r="A240" s="42"/>
       <c r="B240" s="42"/>
       <c r="C240" s="42" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D240" s="41"/>
       <c r="E240" s="42"/>
@@ -8461,7 +8596,7 @@
       <c r="A241" s="42"/>
       <c r="B241" s="42"/>
       <c r="C241" s="42" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D241" s="41"/>
       <c r="E241" s="42"/>
@@ -8479,7 +8614,7 @@
       <c r="A242" s="42"/>
       <c r="B242" s="42"/>
       <c r="C242" s="42" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D242" s="41"/>
       <c r="E242" s="42"/>
@@ -8497,7 +8632,7 @@
       <c r="A243" s="42"/>
       <c r="B243" s="42"/>
       <c r="C243" s="42" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D243" s="41"/>
       <c r="E243" s="42"/>
@@ -8515,7 +8650,7 @@
       <c r="A244" s="42"/>
       <c r="B244" s="42"/>
       <c r="C244" s="42" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D244" s="41"/>
       <c r="E244" s="42"/>
@@ -8533,7 +8668,7 @@
       <c r="A245" s="42"/>
       <c r="B245" s="42"/>
       <c r="C245" s="42" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D245" s="41"/>
       <c r="E245" s="42"/>
@@ -8551,7 +8686,7 @@
       <c r="A246" s="42"/>
       <c r="B246" s="42"/>
       <c r="C246" s="42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D246" s="41"/>
       <c r="E246" s="42"/>
@@ -8569,7 +8704,7 @@
       <c r="A247" s="42"/>
       <c r="B247" s="42"/>
       <c r="C247" s="42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D247" s="41"/>
       <c r="E247" s="42"/>
@@ -8587,7 +8722,7 @@
       <c r="A248" s="42"/>
       <c r="B248" s="42"/>
       <c r="C248" s="42" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D248" s="41"/>
       <c r="E248" s="42"/>
@@ -8605,7 +8740,7 @@
       <c r="A249" s="42"/>
       <c r="B249" s="42"/>
       <c r="C249" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D249" s="41"/>
       <c r="E249" s="42"/>
@@ -8623,7 +8758,7 @@
       <c r="A250" s="42"/>
       <c r="B250" s="42"/>
       <c r="C250" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D250" s="41"/>
       <c r="E250" s="42"/>
@@ -8641,7 +8776,7 @@
       <c r="A251" s="42"/>
       <c r="B251" s="42"/>
       <c r="C251" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D251" s="41"/>
       <c r="E251" s="42"/>
@@ -8659,7 +8794,7 @@
       <c r="A252" s="42"/>
       <c r="B252" s="42"/>
       <c r="C252" s="42" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D252" s="41"/>
       <c r="E252" s="42"/>
@@ -8677,7 +8812,7 @@
       <c r="A253" s="42"/>
       <c r="B253" s="42"/>
       <c r="C253" s="42" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="D253" s="41"/>
       <c r="E253" s="42"/>
@@ -8695,7 +8830,7 @@
       <c r="A254" s="42"/>
       <c r="B254" s="42"/>
       <c r="C254" s="42" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="D254" s="41"/>
       <c r="E254" s="42"/>
@@ -8711,9 +8846,9 @@
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="42"/>
-      <c r="B255" s="43"/>
-      <c r="C255" s="42" t="s">
-        <v>520</v>
+      <c r="B255" s="44"/>
+      <c r="C255" s="44" t="s">
+        <v>517</v>
       </c>
       <c r="D255" s="41"/>
       <c r="E255" s="42"/>
@@ -8729,9 +8864,9 @@
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="42"/>
-      <c r="B256" s="43"/>
-      <c r="C256" s="42" t="s">
-        <v>521</v>
+      <c r="B256" s="44"/>
+      <c r="C256" s="44" t="s">
+        <v>514</v>
       </c>
       <c r="D256" s="41"/>
       <c r="E256" s="42"/>
